--- a/CanaisDigitais-SP5.xlsx
+++ b/CanaisDigitais-SP5.xlsx
@@ -4,14 +4,14 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="20490" windowHeight="7695"/>
+    <workbookView windowWidth="20490" windowHeight="7695" firstSheet="1" activeTab="3"/>
   </bookViews>
   <sheets>
     <sheet name="Info" sheetId="1" r:id="rId1"/>
     <sheet name="Alocacao" sheetId="2" r:id="rId2"/>
-    <sheet name="Burndown" sheetId="5" r:id="rId3"/>
-    <sheet name="Acompanhamento Estórias" sheetId="16" state="hidden" r:id="rId4"/>
-    <sheet name="Estorias" sheetId="4" r:id="rId5"/>
+    <sheet name="Estorias" sheetId="4" r:id="rId3"/>
+    <sheet name="Burndown" sheetId="5" r:id="rId4"/>
+    <sheet name="Acompanhamento Estórias" sheetId="16" state="hidden" r:id="rId5"/>
     <sheet name="Acompanhamento" sheetId="17" r:id="rId6"/>
     <sheet name="Pendências" sheetId="12" r:id="rId7"/>
     <sheet name="Impactos" sheetId="15" r:id="rId8"/>
@@ -20,7 +20,7 @@
     <sheet name="Util" sheetId="14" r:id="rId11"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="4" hidden="1">Estorias!$B$4:$J$10</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="2" hidden="1">Estorias!$B$4:$J$10</definedName>
     <definedName name="_xlnm._FilterDatabase" localSheetId="8" hidden="1">Risco!$B$2:$O$8</definedName>
     <definedName name="Alocação">Alocacao!$D$5:$M$13</definedName>
     <definedName name="TamanhoSprint">Info!$F$10</definedName>
@@ -32,7 +32,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="324" uniqueCount="160">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="327" uniqueCount="163">
   <si>
     <t>Informações básicas projeto</t>
   </si>
@@ -160,6 +160,72 @@
     <t>HO - HOMOLOGAÇÃO</t>
   </si>
   <si>
+    <t>Total pontos concluídos:</t>
+  </si>
+  <si>
+    <t>Estória</t>
+  </si>
+  <si>
+    <t>Descrição</t>
+  </si>
+  <si>
+    <t>Horas Totais</t>
+  </si>
+  <si>
+    <t>Horas Restantes</t>
+  </si>
+  <si>
+    <t>% Concl.</t>
+  </si>
+  <si>
+    <t>Pontos Cocluídos</t>
+  </si>
+  <si>
+    <t>Status</t>
+  </si>
+  <si>
+    <t>ESP001.1</t>
+  </si>
+  <si>
+    <t>Componentes Fundamentais</t>
+  </si>
+  <si>
+    <t>Em Andamento</t>
+  </si>
+  <si>
+    <t>ESP001.2</t>
+  </si>
+  <si>
+    <t>Seleção de agencias</t>
+  </si>
+  <si>
+    <t>ESP001.3</t>
+  </si>
+  <si>
+    <t>Seleção de Datas</t>
+  </si>
+  <si>
+    <t>Não Iniciado</t>
+  </si>
+  <si>
+    <t>ESP001.4</t>
+  </si>
+  <si>
+    <t>Seleção de Horas</t>
+  </si>
+  <si>
+    <t>ESP002</t>
+  </si>
+  <si>
+    <t>Substituição do carousel</t>
+  </si>
+  <si>
+    <t>ESP003</t>
+  </si>
+  <si>
+    <t>Banner da página de confirmação da reserva</t>
+  </si>
+  <si>
     <t>Dia #</t>
   </si>
   <si>
@@ -208,75 +274,6 @@
     <t>Dia Término</t>
   </si>
   <si>
-    <t>Total pontos concluídos:</t>
-  </si>
-  <si>
-    <t>Estória</t>
-  </si>
-  <si>
-    <t>Descrição</t>
-  </si>
-  <si>
-    <t>Horas Totais</t>
-  </si>
-  <si>
-    <t>Horas Restantes</t>
-  </si>
-  <si>
-    <t>% Concl.</t>
-  </si>
-  <si>
-    <t>Pontos Cocluídos</t>
-  </si>
-  <si>
-    <t>Status</t>
-  </si>
-  <si>
-    <t>ESP001.1</t>
-  </si>
-  <si>
-    <t>Componentes Fundamentais</t>
-  </si>
-  <si>
-    <t>Em Andamento</t>
-  </si>
-  <si>
-    <t>ESP001.2</t>
-  </si>
-  <si>
-    <t>Seleção de agencias</t>
-  </si>
-  <si>
-    <t>ESP001.3</t>
-  </si>
-  <si>
-    <t>Seleção de Datas</t>
-  </si>
-  <si>
-    <t>Finalizado</t>
-  </si>
-  <si>
-    <t>ESP001.4</t>
-  </si>
-  <si>
-    <t>Seleção de Horas</t>
-  </si>
-  <si>
-    <t>João Alves</t>
-  </si>
-  <si>
-    <t>ESP002</t>
-  </si>
-  <si>
-    <t>Substituição do carousel</t>
-  </si>
-  <si>
-    <t>ESP003</t>
-  </si>
-  <si>
-    <t>Banner da página de confirmação da reserva</t>
-  </si>
-  <si>
     <t>Pendências</t>
   </si>
   <si>
@@ -307,6 +304,15 @@
     <t>Concluído</t>
   </si>
   <si>
+    <t>Indisponibilidade do ambiente de dev para rede de terceiros.</t>
+  </si>
+  <si>
+    <t>Marcus/Bruno/Paiva</t>
+  </si>
+  <si>
+    <t>Em andamento</t>
+  </si>
+  <si>
     <t>Impactos</t>
   </si>
   <si>
@@ -317,6 +323,9 @@
   </si>
   <si>
     <t>Correção de Bug - Vitor Décimo</t>
+  </si>
+  <si>
+    <t>Atuação no pacote final de Prod - Bruno / Marcus</t>
   </si>
   <si>
     <t>Nível Risco</t>
@@ -531,12 +540,12 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="6">
-    <numFmt numFmtId="176" formatCode="_-* #,##0.00_-;\-* #,##0.00_-;_-* &quot;-&quot;??_-;_-@_-"/>
-    <numFmt numFmtId="177" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="178" formatCode="00000"/>
-    <numFmt numFmtId="179" formatCode="d/m;@"/>
+    <numFmt numFmtId="176" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="177" formatCode="_-* #,##0.00_-;\-* #,##0.00_-;_-* &quot;-&quot;??_-;_-@_-"/>
+    <numFmt numFmtId="178" formatCode="_(&quot;$&quot;* #,##0_);_(&quot;$&quot;* \(#,##0\);_(&quot;$&quot;* &quot;-&quot;_);_(@_)"/>
+    <numFmt numFmtId="179" formatCode="00000"/>
     <numFmt numFmtId="180" formatCode="_(&quot;$&quot;* #,##0.00_);_(&quot;$&quot;* \(#,##0.00\);_(&quot;$&quot;* &quot;-&quot;??_);_(@_)"/>
-    <numFmt numFmtId="181" formatCode="_(&quot;$&quot;* #,##0_);_(&quot;$&quot;* \(#,##0\);_(&quot;$&quot;* &quot;-&quot;_);_(@_)"/>
+    <numFmt numFmtId="181" formatCode="d/m;@"/>
   </numFmts>
   <fonts count="35">
     <font>
@@ -594,6 +603,22 @@
     </font>
     <font>
       <b/>
+      <sz val="14"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
       <sz val="11"/>
       <color theme="3"/>
       <name val="Calibri"/>
@@ -609,22 +634,6 @@
     </font>
     <font>
       <sz val="10"/>
-      <color theme="1"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="14"/>
-      <color theme="1"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
       <color theme="1"/>
       <name val="Calibri"/>
       <charset val="134"/>
@@ -668,6 +677,29 @@
       <charset val="134"/>
     </font>
     <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <sz val="11"/>
       <color rgb="FFFF0000"/>
       <name val="Calibri"/>
@@ -676,10 +708,32 @@
     </font>
     <font>
       <b/>
-      <sz val="18"/>
-      <color theme="3"/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
       <name val="Calibri"/>
-      <charset val="134"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -691,6 +745,15 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
       <sz val="11"/>
       <color theme="1"/>
       <name val="Calibri"/>
@@ -705,49 +768,24 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
+      <sz val="10"/>
+      <color rgb="FF000000"/>
+      <name val="Arial"/>
+      <charset val="134"/>
+    </font>
+    <font>
       <sz val="11"/>
-      <color theme="1"/>
+      <color rgb="FF9C0006"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <b/>
-      <sz val="13"/>
+      <sz val="18"/>
       <color theme="3"/>
       <name val="Calibri"/>
       <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -760,43 +798,14 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="10"/>
-      <color rgb="FF000000"/>
-      <name val="Arial"/>
-      <charset val="134"/>
-    </font>
-    <font>
-      <sz val="11"/>
       <color rgb="FF9C6500"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
       <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
+      <color rgb="FF006100"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -919,7 +928,31 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -937,7 +970,97 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -949,121 +1072,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1075,7 +1084,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
+        <fgColor theme="9" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1151,19 +1160,6 @@
       <left style="thin">
         <color auto="1"/>
       </left>
-      <right style="thin">
-        <color auto="1"/>
-      </right>
-      <top style="thin">
-        <color auto="1"/>
-      </top>
-      <bottom style="thin">
-        <color auto="1"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
       <right style="thin">
         <color auto="1"/>
       </right>
@@ -1267,20 +1263,29 @@
     <border>
       <left/>
       <right/>
+      <top/>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF7030A0"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
       <top style="thick">
         <color theme="0"/>
       </top>
       <bottom style="thick">
         <color theme="0"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="thin">
-        <color auto="1"/>
       </bottom>
       <diagonal/>
     </border>
@@ -1310,19 +1315,23 @@
     </border>
     <border>
       <left/>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
       <right/>
       <top style="thin">
         <color auto="1"/>
       </top>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF7030A0"/>
-      </left>
-      <right/>
-      <top/>
       <bottom/>
       <diagonal/>
     </border>
@@ -1397,36 +1406,31 @@
     </border>
     <border>
       <left style="thin">
-        <color rgb="FFB2B2B2"/>
+        <color rgb="FF3F3F3F"/>
       </left>
       <right style="thin">
-        <color rgb="FFB2B2B2"/>
+        <color rgb="FF3F3F3F"/>
       </right>
       <top style="thin">
-        <color rgb="FFB2B2B2"/>
+        <color rgb="FF3F3F3F"/>
       </top>
       <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
+        <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="thick">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
       <top style="thin">
-        <color theme="4"/>
+        <color rgb="FF7F7F7F"/>
       </top>
-      <bottom style="double">
-        <color theme="4"/>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -1455,17 +1459,22 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color rgb="FF7F7F7F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF7F7F7F"/>
-      </right>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
       <top style="thin">
-        <color rgb="FF7F7F7F"/>
+        <color theme="4"/>
       </top>
-      <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
+      <bottom style="double">
+        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -1473,8 +1482,23 @@
       <left/>
       <right/>
       <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
+      <bottom style="thick">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
       </bottom>
       <diagonal/>
     </border>
@@ -1487,149 +1511,134 @@
       </bottom>
       <diagonal/>
     </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="50">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="176" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="177" fontId="9" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="177" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="176" fontId="11" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="22" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="26" fillId="0" borderId="32" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="30" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="24" fillId="26" borderId="30" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="21" fillId="22" borderId="29" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="181" fontId="9" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="178" fontId="11" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="22" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="180" fontId="9" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="180" fontId="11" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="27" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="28" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="32" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="22" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="20" borderId="26" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="23" borderId="33" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="30" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="20" fillId="37" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="29" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="22" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="31" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="27" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="21" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="1" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="32" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="28" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="29" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="21" fillId="40" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="28" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="28" fillId="36" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="33" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="34" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="1" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="25" fillId="29" borderId="31" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="18" fillId="21" borderId="27" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="34" fillId="36" borderId="34" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="17" fillId="20" borderId="26" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="32" fillId="36" borderId="31" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="24" fillId="20" borderId="27" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="28" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="27" fillId="0" borderId="31" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="22" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="29" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="34" fillId="38" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="33" fillId="39" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="30" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="31" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="33" fillId="37" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="22" fillId="40" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="20" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="22" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="28" fillId="43" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="43" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="22" fillId="46" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="42" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="28" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="46" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="22" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="45" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="28" fillId="45" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="22" fillId="42" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="38" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="28" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="22" fillId="39" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="41" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="28" fillId="41" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="22" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="28" fillId="44" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="44" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="28" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -1665,16 +1674,13 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="24" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="14" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="178" fontId="0" fillId="0" borderId="6" xfId="14" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="179" fontId="0" fillId="0" borderId="6" xfId="14" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="14" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -1683,41 +1689,41 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="2" fontId="0" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="2" fontId="0" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="5" borderId="6" xfId="19" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="2" fontId="0" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="2" fontId="0" fillId="0" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="5" borderId="6" xfId="19" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="6" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -1727,7 +1733,7 @@
     <xf numFmtId="0" fontId="2" fillId="6" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="58" fontId="3" fillId="7" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -1737,7 +1743,7 @@
     <xf numFmtId="0" fontId="3" fillId="7" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="58" fontId="3" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -1747,20 +1753,20 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="58" fontId="3" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="8" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="2" fontId="0" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="2" fontId="0" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -1769,76 +1775,128 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="58" fontId="0" fillId="2" borderId="8" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="58" fontId="0" fillId="2" borderId="7" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="179" fontId="0" fillId="9" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="181" fontId="0" fillId="9" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="9" fontId="0" fillId="2" borderId="14" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="9" fontId="0" fillId="2" borderId="13" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="9" fontId="0" fillId="2" borderId="8" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="9" fontId="0" fillId="2" borderId="7" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="179" fontId="0" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="181" fontId="0" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="9" fontId="6" fillId="0" borderId="14" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="9" fontId="6" fillId="0" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="10" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="10" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="9" borderId="6" xfId="14" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="58" fontId="0" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="14" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="11" borderId="14" xfId="25" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="181" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="2" fontId="0" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="2" fontId="0" fillId="2" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="8" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="12" borderId="15" xfId="19" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="12" borderId="0" xfId="19" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="8" borderId="0" xfId="19" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="7" fillId="2" borderId="15" xfId="26" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="8" fillId="2" borderId="16" xfId="22" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="9" fillId="2" borderId="16" xfId="26" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="10" fillId="2" borderId="14" xfId="22" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="2" fontId="0" fillId="2" borderId="16" xfId="22" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="2" fontId="0" fillId="2" borderId="14" xfId="22" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="17" xfId="26" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="18" xfId="26" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="6" xfId="4" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="2" fontId="0" fillId="0" borderId="6" xfId="14" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="19" xfId="14" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="20" xfId="14" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="19" xfId="14" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="20" xfId="14" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="9" fontId="0" fillId="2" borderId="19" xfId="4" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="9" fontId="0" fillId="2" borderId="20" xfId="4" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="2" fontId="0" fillId="2" borderId="19" xfId="14" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="2" fontId="0" fillId="2" borderId="20" xfId="14" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -1862,7 +1920,7 @@
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="2" borderId="0" xfId="14" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="11" fillId="2" borderId="0" xfId="14" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
@@ -1877,80 +1935,31 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="14" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="19" xfId="14" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="20" xfId="14" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="14" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="10" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="10" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="9" borderId="6" xfId="14" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="8" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="58" fontId="0" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="14" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="11" borderId="16" xfId="25" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="179" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="2" fontId="0" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="2" fontId="0" fillId="2" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="11" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="12" borderId="20" xfId="19" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="12" borderId="0" xfId="19" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="8" borderId="0" xfId="19" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="8" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="8" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="8" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="6" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="13" borderId="6" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="179" fontId="11" fillId="2" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="181" fontId="8" fillId="2" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="14" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="2" fontId="0" fillId="2" borderId="6" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="2" fontId="0" fillId="2" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="2" fontId="11" fillId="2" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="2" fontId="8" fillId="2" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="0" fontId="12" fillId="15" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -1971,14 +1980,14 @@
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="179" fontId="11" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="181" fontId="8" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="2" fontId="0" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="9" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="8" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="15" fillId="19" borderId="0" xfId="20" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="21" xfId="26" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="21" xfId="26" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="16" fillId="0" borderId="22" xfId="14" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -1990,7 +1999,7 @@
     <xf numFmtId="0" fontId="16" fillId="0" borderId="22" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="2" borderId="23" xfId="26" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="9" fillId="2" borderId="23" xfId="26" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -2002,8 +2011,8 @@
     <xf numFmtId="0" fontId="0" fillId="2" borderId="25" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="14" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" quotePrefix="1">
       <alignment wrapText="1"/>
     </xf>
@@ -2127,51 +2136,6 @@
       </fill>
     </dxf>
     <dxf>
-      <font>
-        <b val="1"/>
-        <i val="0"/>
-        <color theme="0"/>
-      </font>
-      <fill>
-        <patternFill patternType="solid">
-          <bgColor theme="1" tint="0.14996795556505"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="179" formatCode="d/m;@"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="179" formatCode="d/m;@"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="179" formatCode="d/m;@"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="179" formatCode="d/m;@"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="179" formatCode="d/m;@"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="179" formatCode="d/m;@"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="179" formatCode="d/m;@"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="179" formatCode="d/m;@"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="179" formatCode="d/m;@"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="179" formatCode="d/m;@"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="179" formatCode="d/m;@"/>
-    </dxf>
-    <dxf>
       <alignment vertical="center"/>
       <border>
         <left/>
@@ -2363,6 +2327,51 @@
           <bgColor theme="9" tint="-0.499984740745262"/>
         </patternFill>
       </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="1"/>
+        <i val="0"/>
+        <color theme="0"/>
+      </font>
+      <fill>
+        <patternFill patternType="solid">
+          <bgColor theme="1" tint="0.14996795556505"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="181" formatCode="d/m;@"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="181" formatCode="d/m;@"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="181" formatCode="d/m;@"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="181" formatCode="d/m;@"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="181" formatCode="d/m;@"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="181" formatCode="d/m;@"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="181" formatCode="d/m;@"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="181" formatCode="d/m;@"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="181" formatCode="d/m;@"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="181" formatCode="d/m;@"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="181" formatCode="d/m;@"/>
     </dxf>
     <dxf>
       <font>
@@ -3300,10 +3309,10 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="10"/>
                 <c:pt idx="0">
-                  <c:v>11.35</c:v>
+                  <c:v>11.64</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>#N/A</c:v>
+                  <c:v>9.04</c:v>
                 </c:pt>
                 <c:pt idx="2">
                   <c:v>#N/A</c:v>
@@ -3544,10 +3553,10 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="10"/>
                 <c:pt idx="0">
-                  <c:v>0.35</c:v>
+                  <c:v>0.640000000000001</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>#N/A</c:v>
+                  <c:v>0.539999999999999</c:v>
                 </c:pt>
                 <c:pt idx="2">
                   <c:v>#N/A</c:v>
@@ -4400,21 +4409,18 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="3" name="Burndown" displayName="Burndown" ref="A2:L12" totalsRowShown="0">
-  <autoFilter ref="A2:L12"/>
-  <tableColumns count="12">
-    <tableColumn id="1" name="Dia #" dataDxfId="6"/>
-    <tableColumn id="2" name="Dia" dataDxfId="7"/>
-    <tableColumn id="3" name="Produzido / Dia (Horas)" dataDxfId="8"/>
-    <tableColumn id="4" name="Produzido Acumulado (Horas)" dataDxfId="9"/>
-    <tableColumn id="5" name="Velocidade" dataDxfId="10"/>
-    <tableColumn id="6" name="Produzido Previsto" dataDxfId="11"/>
-    <tableColumn id="7" name="Restante Previsto" dataDxfId="12"/>
-    <tableColumn id="8" name="Atraso" dataDxfId="13"/>
-    <tableColumn id="9" name="Produzido Real" dataDxfId="14"/>
-    <tableColumn id="10" name="Ajuste" dataDxfId="15"/>
-    <tableColumn id="11" name="Restante Real" dataDxfId="16"/>
-    <tableColumn id="12" name="Real + Ajuste" dataDxfId="17"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="2" name="Estorias" displayName="Estorias" ref="B4:J10" totalsRowShown="0">
+  <autoFilter ref="B4:J10"/>
+  <tableColumns count="9">
+    <tableColumn id="1" name="Estória" dataDxfId="6"/>
+    <tableColumn id="2" name="Descrição" dataDxfId="7"/>
+    <tableColumn id="3" name="Pontos" dataDxfId="8"/>
+    <tableColumn id="4" name="Horas Totais" dataDxfId="9"/>
+    <tableColumn id="5" name="Horas Restantes" dataDxfId="10"/>
+    <tableColumn id="6" name="% Concl." dataDxfId="11"/>
+    <tableColumn id="7" name="Pontos Cocluídos" dataDxfId="12"/>
+    <tableColumn id="8" name="Status" dataDxfId="13"/>
+    <tableColumn id="9" name="Desenvolvedor" dataDxfId="14"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium3" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -4476,18 +4482,21 @@
 </file>
 
 <file path=xl/tables/table2.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="2" name="Estorias" displayName="Estorias" ref="B4:J10" totalsRowShown="0">
-  <autoFilter ref="B4:J10"/>
-  <tableColumns count="9">
-    <tableColumn id="1" name="Estória" dataDxfId="18"/>
-    <tableColumn id="2" name="Descrição" dataDxfId="19"/>
-    <tableColumn id="3" name="Pontos" dataDxfId="20"/>
-    <tableColumn id="4" name="Horas Totais" dataDxfId="21"/>
-    <tableColumn id="5" name="Horas Restantes" dataDxfId="22"/>
-    <tableColumn id="6" name="% Concl." dataDxfId="23"/>
-    <tableColumn id="7" name="Pontos Cocluídos" dataDxfId="24"/>
-    <tableColumn id="8" name="Status" dataDxfId="25"/>
-    <tableColumn id="9" name="Desenvolvedor" dataDxfId="26"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="3" name="Burndown" displayName="Burndown" ref="A2:L12" totalsRowShown="0">
+  <autoFilter ref="A2:L12"/>
+  <tableColumns count="12">
+    <tableColumn id="1" name="Dia #" dataDxfId="19"/>
+    <tableColumn id="2" name="Dia" dataDxfId="20"/>
+    <tableColumn id="3" name="Produzido / Dia (Horas)" dataDxfId="21"/>
+    <tableColumn id="4" name="Produzido Acumulado (Horas)" dataDxfId="22"/>
+    <tableColumn id="5" name="Velocidade" dataDxfId="23"/>
+    <tableColumn id="6" name="Produzido Previsto" dataDxfId="24"/>
+    <tableColumn id="7" name="Restante Previsto" dataDxfId="25"/>
+    <tableColumn id="8" name="Atraso" dataDxfId="26"/>
+    <tableColumn id="9" name="Produzido Real" dataDxfId="27"/>
+    <tableColumn id="10" name="Ajuste" dataDxfId="28"/>
+    <tableColumn id="11" name="Restante Real" dataDxfId="29"/>
+    <tableColumn id="12" name="Real + Ajuste" dataDxfId="30"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium3" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -4877,8 +4886,8 @@
   <sheetPr/>
   <dimension ref="E1:G22"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F10" sqref="F10"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="F12" sqref="F12:F16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.85714285714286" defaultRowHeight="15" outlineLevelCol="6"/>
@@ -5041,8 +5050,8 @@
   <sheetPr/>
   <dimension ref="B2:D25"/>
   <sheetViews>
-    <sheetView topLeftCell="A19" workbookViewId="0">
-      <selection activeCell="B21" sqref="B21"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B4" sqref="B4:C6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="15" outlineLevelCol="3"/>
@@ -5056,262 +5065,262 @@
   <sheetData>
     <row r="2" ht="23.25" customHeight="1" spans="2:4">
       <c r="B2" s="8" t="s">
-        <v>113</v>
+        <v>116</v>
       </c>
       <c r="C2" s="9"/>
       <c r="D2" s="9"/>
     </row>
     <row r="3" spans="2:4">
       <c r="B3" s="6" t="s">
-        <v>114</v>
+        <v>117</v>
       </c>
       <c r="C3" s="6" t="s">
-        <v>115</v>
+        <v>118</v>
       </c>
       <c r="D3" s="6" t="s">
-        <v>116</v>
+        <v>119</v>
       </c>
     </row>
     <row r="4" spans="2:4">
       <c r="B4" s="7" t="s">
-        <v>96</v>
+        <v>99</v>
       </c>
       <c r="C4" s="7" t="s">
-        <v>106</v>
+        <v>109</v>
       </c>
       <c r="D4" s="148" t="s">
-        <v>117</v>
+        <v>120</v>
       </c>
     </row>
     <row r="5" spans="2:4">
       <c r="B5" s="7" t="s">
-        <v>96</v>
+        <v>99</v>
       </c>
       <c r="C5" s="7" t="s">
-        <v>118</v>
+        <v>121</v>
       </c>
       <c r="D5" s="148" t="s">
-        <v>119</v>
+        <v>122</v>
       </c>
     </row>
     <row r="6" ht="30" spans="2:4">
       <c r="B6" s="7" t="s">
-        <v>96</v>
+        <v>99</v>
       </c>
       <c r="C6" s="7" t="s">
-        <v>120</v>
+        <v>123</v>
       </c>
       <c r="D6" s="148" t="s">
-        <v>121</v>
+        <v>124</v>
       </c>
     </row>
     <row r="7" ht="75" spans="2:4">
       <c r="B7" s="7" t="s">
-        <v>97</v>
+        <v>100</v>
       </c>
       <c r="C7" s="7" t="s">
-        <v>106</v>
+        <v>109</v>
       </c>
       <c r="D7" s="148" t="s">
-        <v>122</v>
+        <v>125</v>
       </c>
     </row>
     <row r="8" ht="30" spans="2:4">
       <c r="B8" s="7" t="s">
-        <v>97</v>
+        <v>100</v>
       </c>
       <c r="C8" s="7" t="s">
-        <v>118</v>
+        <v>121</v>
       </c>
       <c r="D8" s="148" t="s">
-        <v>123</v>
+        <v>126</v>
       </c>
     </row>
     <row r="9" ht="30" spans="2:4">
       <c r="B9" s="7" t="s">
-        <v>97</v>
+        <v>100</v>
       </c>
       <c r="C9" s="7" t="s">
-        <v>120</v>
+        <v>123</v>
       </c>
       <c r="D9" s="148" t="s">
-        <v>124</v>
+        <v>127</v>
       </c>
     </row>
     <row r="10" ht="165" spans="2:4">
       <c r="B10" s="7" t="s">
-        <v>98</v>
+        <v>101</v>
       </c>
       <c r="C10" s="7" t="s">
-        <v>106</v>
+        <v>109</v>
       </c>
       <c r="D10" s="148" t="s">
-        <v>125</v>
+        <v>128</v>
       </c>
     </row>
     <row r="11" ht="30" spans="2:4">
       <c r="B11" s="7" t="s">
-        <v>98</v>
+        <v>101</v>
       </c>
       <c r="C11" s="7" t="s">
-        <v>118</v>
+        <v>121</v>
       </c>
       <c r="D11" s="148" t="s">
-        <v>126</v>
+        <v>129</v>
       </c>
     </row>
     <row r="12" ht="30" spans="2:4">
       <c r="B12" s="7" t="s">
-        <v>98</v>
+        <v>101</v>
       </c>
       <c r="C12" s="7" t="s">
-        <v>120</v>
+        <v>123</v>
       </c>
       <c r="D12" s="148" t="s">
-        <v>127</v>
+        <v>130</v>
       </c>
     </row>
     <row r="13" ht="30" spans="2:4">
       <c r="B13" s="7" t="s">
-        <v>100</v>
+        <v>103</v>
       </c>
       <c r="C13" s="7" t="s">
-        <v>107</v>
+        <v>110</v>
       </c>
       <c r="D13" s="7" t="s">
-        <v>128</v>
+        <v>131</v>
       </c>
     </row>
     <row r="14" spans="2:4">
       <c r="B14" s="7" t="s">
-        <v>100</v>
+        <v>103</v>
       </c>
       <c r="C14" s="7" t="s">
-        <v>129</v>
+        <v>132</v>
       </c>
       <c r="D14" s="7" t="s">
-        <v>130</v>
+        <v>133</v>
       </c>
     </row>
     <row r="15" ht="30" spans="2:4">
       <c r="B15" s="7" t="s">
-        <v>100</v>
+        <v>103</v>
       </c>
       <c r="C15" s="7" t="s">
-        <v>131</v>
+        <v>134</v>
       </c>
       <c r="D15" s="7" t="s">
-        <v>132</v>
+        <v>135</v>
       </c>
     </row>
     <row r="16" spans="2:4">
       <c r="B16" s="7" t="s">
-        <v>101</v>
+        <v>104</v>
       </c>
       <c r="C16" s="7" t="s">
-        <v>108</v>
+        <v>111</v>
       </c>
       <c r="D16" s="148" t="s">
-        <v>133</v>
+        <v>136</v>
       </c>
     </row>
     <row r="17" spans="2:4">
       <c r="B17" s="7" t="s">
-        <v>101</v>
+        <v>104</v>
       </c>
       <c r="C17" s="7" t="s">
-        <v>134</v>
+        <v>137</v>
       </c>
       <c r="D17" s="148" t="s">
-        <v>135</v>
+        <v>138</v>
       </c>
     </row>
     <row r="18" ht="60" spans="2:4">
       <c r="B18" s="7" t="s">
-        <v>136</v>
+        <v>139</v>
       </c>
       <c r="C18" s="7" t="s">
-        <v>109</v>
+        <v>112</v>
       </c>
       <c r="D18" s="7" t="s">
-        <v>137</v>
+        <v>140</v>
       </c>
     </row>
     <row r="19" ht="30" spans="2:4">
       <c r="B19" s="7" t="s">
-        <v>136</v>
+        <v>139</v>
       </c>
       <c r="C19" s="7" t="s">
-        <v>138</v>
+        <v>141</v>
       </c>
       <c r="D19" s="7" t="s">
-        <v>139</v>
+        <v>142</v>
       </c>
     </row>
     <row r="20" ht="105" spans="2:4">
       <c r="B20" s="7" t="s">
-        <v>103</v>
+        <v>106</v>
       </c>
       <c r="C20" s="7" t="s">
-        <v>140</v>
+        <v>143</v>
       </c>
       <c r="D20" s="148" t="s">
-        <v>141</v>
+        <v>144</v>
       </c>
     </row>
     <row r="21" spans="2:4">
       <c r="B21" s="7" t="s">
-        <v>103</v>
+        <v>106</v>
       </c>
       <c r="C21" s="7" t="s">
-        <v>111</v>
+        <v>114</v>
       </c>
       <c r="D21" s="148" t="s">
-        <v>142</v>
+        <v>145</v>
       </c>
     </row>
     <row r="22" ht="30" spans="2:4">
       <c r="B22" s="7" t="s">
-        <v>103</v>
+        <v>106</v>
       </c>
       <c r="C22" s="7" t="s">
-        <v>110</v>
+        <v>113</v>
       </c>
       <c r="D22" s="148" t="s">
-        <v>143</v>
+        <v>146</v>
       </c>
     </row>
     <row r="23" ht="30" spans="2:4">
       <c r="B23" s="7" t="s">
-        <v>99</v>
+        <v>102</v>
       </c>
       <c r="C23" s="7" t="s">
-        <v>144</v>
+        <v>147</v>
       </c>
       <c r="D23" s="7" t="s">
-        <v>145</v>
+        <v>148</v>
       </c>
     </row>
     <row r="24" spans="2:4">
       <c r="B24" s="7" t="s">
-        <v>99</v>
+        <v>102</v>
       </c>
       <c r="C24" s="7" t="s">
-        <v>146</v>
+        <v>149</v>
       </c>
       <c r="D24" s="7" t="s">
-        <v>147</v>
+        <v>150</v>
       </c>
     </row>
     <row r="25" ht="30" spans="2:4">
       <c r="B25" s="7" t="s">
-        <v>99</v>
+        <v>102</v>
       </c>
       <c r="C25" s="7" t="s">
-        <v>148</v>
+        <v>151</v>
       </c>
       <c r="D25" s="7" t="s">
-        <v>149</v>
+        <v>152</v>
       </c>
     </row>
   </sheetData>
@@ -5333,7 +5342,7 @@
   <dimension ref="B2:X9"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="T11" sqref="T11"/>
+      <selection activeCell="N21" sqref="N21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.85714285714286" defaultRowHeight="15"/>
@@ -5368,86 +5377,86 @@
   <sheetData>
     <row r="2" s="1" customFormat="1" ht="60.75" customHeight="1" spans="2:24">
       <c r="B2" s="4" t="s">
-        <v>150</v>
+        <v>153</v>
       </c>
       <c r="C2" s="5"/>
       <c r="E2" s="4" t="s">
-        <v>96</v>
+        <v>99</v>
       </c>
       <c r="F2" s="5"/>
       <c r="H2" s="4" t="s">
-        <v>100</v>
+        <v>103</v>
       </c>
       <c r="I2" s="5"/>
       <c r="K2" s="4" t="s">
-        <v>101</v>
+        <v>104</v>
       </c>
       <c r="L2" s="5"/>
       <c r="N2" s="4" t="s">
-        <v>151</v>
+        <v>154</v>
       </c>
       <c r="O2" s="5"/>
       <c r="Q2" s="4" t="s">
-        <v>103</v>
+        <v>106</v>
       </c>
       <c r="R2" s="5"/>
       <c r="T2" s="4" t="s">
-        <v>97</v>
+        <v>100</v>
       </c>
       <c r="U2" s="5"/>
       <c r="W2" s="4" t="s">
-        <v>152</v>
+        <v>155</v>
       </c>
       <c r="X2" s="5"/>
     </row>
     <row r="3" s="2" customFormat="1" spans="2:24">
       <c r="B3" s="6" t="s">
-        <v>115</v>
+        <v>118</v>
       </c>
       <c r="C3" s="6" t="s">
-        <v>43</v>
+        <v>65</v>
       </c>
       <c r="E3" s="6" t="s">
-        <v>115</v>
+        <v>118</v>
       </c>
       <c r="F3" s="6" t="s">
-        <v>153</v>
+        <v>156</v>
       </c>
       <c r="H3" s="6" t="s">
-        <v>115</v>
+        <v>118</v>
       </c>
       <c r="I3" s="6" t="s">
-        <v>153</v>
+        <v>156</v>
       </c>
       <c r="K3" s="6" t="s">
-        <v>115</v>
+        <v>118</v>
       </c>
       <c r="L3" s="6" t="s">
-        <v>153</v>
+        <v>156</v>
       </c>
       <c r="N3" s="6" t="s">
-        <v>115</v>
+        <v>118</v>
       </c>
       <c r="O3" s="6" t="s">
-        <v>153</v>
+        <v>156</v>
       </c>
       <c r="Q3" s="6" t="s">
-        <v>115</v>
+        <v>118</v>
       </c>
       <c r="R3" s="6" t="s">
-        <v>153</v>
+        <v>156</v>
       </c>
       <c r="T3" s="6" t="s">
-        <v>115</v>
+        <v>118</v>
       </c>
       <c r="U3" s="6" t="s">
-        <v>153</v>
+        <v>156</v>
       </c>
       <c r="W3" s="6" t="s">
-        <v>115</v>
+        <v>118</v>
       </c>
       <c r="X3" s="6" t="s">
-        <v>153</v>
+        <v>156</v>
       </c>
     </row>
     <row r="4" spans="2:24">
@@ -5458,43 +5467,43 @@
         <v>23</v>
       </c>
       <c r="E4" s="7" t="s">
-        <v>106</v>
+        <v>109</v>
       </c>
       <c r="F4" s="7">
         <v>1</v>
       </c>
       <c r="H4" s="7" t="s">
-        <v>107</v>
+        <v>110</v>
       </c>
       <c r="I4" s="7">
         <v>1</v>
       </c>
       <c r="K4" s="7" t="s">
-        <v>108</v>
+        <v>111</v>
       </c>
       <c r="L4" s="7">
         <v>1</v>
       </c>
       <c r="N4" s="7" t="s">
-        <v>109</v>
+        <v>112</v>
       </c>
       <c r="O4" s="7">
         <v>1</v>
       </c>
       <c r="Q4" s="7" t="s">
-        <v>140</v>
+        <v>143</v>
       </c>
       <c r="R4" s="7">
         <v>13</v>
       </c>
       <c r="T4" s="7" t="s">
-        <v>107</v>
+        <v>110</v>
       </c>
       <c r="U4" s="7">
         <v>1</v>
       </c>
       <c r="W4" s="7" t="s">
-        <v>112</v>
+        <v>115</v>
       </c>
       <c r="X4" s="7">
         <v>1</v>
@@ -5505,46 +5514,46 @@
         <v>3</v>
       </c>
       <c r="C5" s="7" t="s">
-        <v>154</v>
+        <v>157</v>
       </c>
       <c r="E5" s="7" t="s">
-        <v>118</v>
+        <v>121</v>
       </c>
       <c r="F5" s="7">
         <v>5</v>
       </c>
       <c r="H5" s="7" t="s">
-        <v>129</v>
+        <v>132</v>
       </c>
       <c r="I5" s="7">
         <v>5</v>
       </c>
       <c r="K5" s="7" t="s">
-        <v>134</v>
+        <v>137</v>
       </c>
       <c r="L5" s="7">
         <v>8</v>
       </c>
       <c r="N5" s="7" t="s">
-        <v>138</v>
+        <v>141</v>
       </c>
       <c r="O5" s="7">
         <v>8</v>
       </c>
       <c r="Q5" s="7" t="s">
-        <v>111</v>
+        <v>114</v>
       </c>
       <c r="R5" s="7">
         <v>3</v>
       </c>
       <c r="T5" s="7" t="s">
-        <v>129</v>
+        <v>132</v>
       </c>
       <c r="U5" s="7">
         <v>5</v>
       </c>
       <c r="W5" s="7" t="s">
-        <v>146</v>
+        <v>149</v>
       </c>
       <c r="X5" s="7">
         <v>5</v>
@@ -5555,40 +5564,40 @@
         <v>4</v>
       </c>
       <c r="C6" s="7" t="s">
-        <v>155</v>
+        <v>158</v>
       </c>
       <c r="E6" s="7" t="s">
-        <v>120</v>
+        <v>123</v>
       </c>
       <c r="F6" s="7">
         <v>13</v>
       </c>
       <c r="H6" s="7" t="s">
-        <v>131</v>
+        <v>134</v>
       </c>
       <c r="I6" s="7">
         <v>1</v>
       </c>
       <c r="K6" s="3" t="s">
-        <v>156</v>
+        <v>159</v>
       </c>
       <c r="L6" s="3">
         <v>3</v>
       </c>
       <c r="Q6" s="7" t="s">
-        <v>110</v>
+        <v>113</v>
       </c>
       <c r="R6" s="7">
         <v>1</v>
       </c>
       <c r="T6" s="7" t="s">
-        <v>131</v>
+        <v>134</v>
       </c>
       <c r="U6" s="7">
         <v>1</v>
       </c>
       <c r="W6" s="3" t="s">
-        <v>148</v>
+        <v>151</v>
       </c>
       <c r="X6" s="3">
         <v>8</v>
@@ -5599,7 +5608,7 @@
         <v>5</v>
       </c>
       <c r="C7" s="7" t="s">
-        <v>157</v>
+        <v>160</v>
       </c>
     </row>
     <row r="8" spans="2:3">
@@ -5607,7 +5616,7 @@
         <v>6</v>
       </c>
       <c r="C8" s="7" t="s">
-        <v>158</v>
+        <v>161</v>
       </c>
     </row>
     <row r="9" spans="2:3">
@@ -5615,7 +5624,7 @@
         <v>7</v>
       </c>
       <c r="C9" s="7" t="s">
-        <v>159</v>
+        <v>162</v>
       </c>
     </row>
   </sheetData>
@@ -5653,7 +5662,7 @@
     <sheetView workbookViewId="0">
       <pane xSplit="3" topLeftCell="D1" activePane="topRight" state="frozen"/>
       <selection/>
-      <selection pane="topRight" activeCell="M6" sqref="M6"/>
+      <selection pane="topRight" activeCell="I6" sqref="I6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.14285714285714" defaultRowHeight="15"/>
@@ -5737,11 +5746,11 @@
         <f>VLOOKUP(WEEKDAY(M5),DiaDaSemana[],2,FALSE)</f>
         <v>SEX</v>
       </c>
-      <c r="N3" s="66"/>
-      <c r="O3" s="66"/>
-      <c r="P3" s="66"/>
-      <c r="Q3" s="66"/>
-      <c r="R3" s="66"/>
+      <c r="N3" s="84"/>
+      <c r="O3" s="84"/>
+      <c r="P3" s="84"/>
+      <c r="Q3" s="84"/>
+      <c r="R3" s="84"/>
     </row>
     <row r="4" spans="2:18">
       <c r="B4" s="118"/>
@@ -5778,11 +5787,11 @@
       <c r="M4" s="121" t="s">
         <v>25</v>
       </c>
-      <c r="N4" s="66"/>
-      <c r="O4" s="66"/>
-      <c r="P4" s="66"/>
-      <c r="Q4" s="66"/>
-      <c r="R4" s="66"/>
+      <c r="N4" s="84"/>
+      <c r="O4" s="84"/>
+      <c r="P4" s="84"/>
+      <c r="Q4" s="84"/>
+      <c r="R4" s="84"/>
     </row>
     <row r="5" spans="2:18">
       <c r="B5" s="118"/>
@@ -5871,17 +5880,17 @@
       <c r="M6" s="121">
         <v>1</v>
       </c>
-      <c r="N6" s="66"/>
-      <c r="O6" s="66"/>
-      <c r="P6" s="66"/>
-      <c r="Q6" s="66"/>
-      <c r="R6" s="66"/>
+      <c r="N6" s="84"/>
+      <c r="O6" s="84"/>
+      <c r="P6" s="84"/>
+      <c r="Q6" s="84"/>
+      <c r="R6" s="84"/>
     </row>
     <row r="7" spans="2:18">
-      <c r="B7" s="101" t="s">
+      <c r="B7" s="69" t="s">
         <v>28</v>
       </c>
-      <c r="C7" s="101" t="s">
+      <c r="C7" s="69" t="s">
         <v>29</v>
       </c>
       <c r="D7" s="121">
@@ -5914,17 +5923,17 @@
       <c r="M7" s="121">
         <v>3</v>
       </c>
-      <c r="N7" s="66"/>
-      <c r="O7" s="66"/>
-      <c r="P7" s="66"/>
-      <c r="Q7" s="66"/>
-      <c r="R7" s="66"/>
+      <c r="N7" s="84"/>
+      <c r="O7" s="84"/>
+      <c r="P7" s="84"/>
+      <c r="Q7" s="84"/>
+      <c r="R7" s="84"/>
     </row>
     <row r="8" s="3" customFormat="1" spans="2:18">
-      <c r="B8" s="101" t="s">
+      <c r="B8" s="69" t="s">
         <v>30</v>
       </c>
-      <c r="C8" s="101" t="s">
+      <c r="C8" s="69" t="s">
         <v>29</v>
       </c>
       <c r="D8" s="121">
@@ -5957,17 +5966,17 @@
       <c r="M8" s="121">
         <v>3</v>
       </c>
-      <c r="N8" s="66"/>
-      <c r="O8" s="66"/>
-      <c r="P8" s="66"/>
-      <c r="Q8" s="66"/>
-      <c r="R8" s="66"/>
+      <c r="N8" s="84"/>
+      <c r="O8" s="84"/>
+      <c r="P8" s="84"/>
+      <c r="Q8" s="84"/>
+      <c r="R8" s="84"/>
     </row>
     <row r="9" s="3" customFormat="1" spans="2:18">
-      <c r="B9" s="101" t="s">
+      <c r="B9" s="69" t="s">
         <v>31</v>
       </c>
-      <c r="C9" s="101" t="s">
+      <c r="C9" s="69" t="s">
         <v>29</v>
       </c>
       <c r="D9" s="121">
@@ -6000,17 +6009,17 @@
       <c r="M9" s="121">
         <v>3</v>
       </c>
-      <c r="N9" s="66"/>
-      <c r="O9" s="66"/>
-      <c r="P9" s="66"/>
-      <c r="Q9" s="66"/>
-      <c r="R9" s="66"/>
+      <c r="N9" s="84"/>
+      <c r="O9" s="84"/>
+      <c r="P9" s="84"/>
+      <c r="Q9" s="84"/>
+      <c r="R9" s="84"/>
     </row>
     <row r="10" spans="2:18">
-      <c r="B10" s="101" t="s">
+      <c r="B10" s="69" t="s">
         <v>32</v>
       </c>
-      <c r="C10" s="101" t="s">
+      <c r="C10" s="69" t="s">
         <v>29</v>
       </c>
       <c r="D10" s="121">
@@ -6043,11 +6052,11 @@
       <c r="M10" s="121">
         <v>2</v>
       </c>
-      <c r="N10" s="66"/>
-      <c r="O10" s="66"/>
-      <c r="P10" s="66"/>
-      <c r="Q10" s="66"/>
-      <c r="R10" s="66"/>
+      <c r="N10" s="84"/>
+      <c r="O10" s="84"/>
+      <c r="P10" s="84"/>
+      <c r="Q10" s="84"/>
+      <c r="R10" s="84"/>
     </row>
     <row r="11" spans="2:18">
       <c r="B11" s="120" t="s">
@@ -6094,11 +6103,11 @@
         <f>IF(OR(M4="BU",M4="AD",M4="HO"),SUMIF($C$6:$C$10,"Desenvolvedor",M6:M10),"")</f>
         <v>11</v>
       </c>
-      <c r="N11" s="66"/>
-      <c r="O11" s="66"/>
-      <c r="P11" s="66"/>
-      <c r="Q11" s="66"/>
-      <c r="R11" s="66"/>
+      <c r="N11" s="84"/>
+      <c r="O11" s="84"/>
+      <c r="P11" s="84"/>
+      <c r="Q11" s="84"/>
+      <c r="R11" s="84"/>
     </row>
     <row r="12" spans="2:18">
       <c r="B12" s="120" t="s">
@@ -6145,11 +6154,11 @@
         <f>IF(OR(M4="BU",M4="AD",M4="HO"),Velocidade,"")</f>
         <v>10</v>
       </c>
-      <c r="N12" s="66"/>
-      <c r="O12" s="66"/>
-      <c r="P12" s="66"/>
-      <c r="Q12" s="66"/>
-      <c r="R12" s="66"/>
+      <c r="N12" s="84"/>
+      <c r="O12" s="84"/>
+      <c r="P12" s="84"/>
+      <c r="Q12" s="84"/>
+      <c r="R12" s="84"/>
     </row>
     <row r="13" spans="2:18">
       <c r="B13" s="120" t="s">
@@ -6220,11 +6229,11 @@
       <c r="K14" s="120"/>
       <c r="L14" s="120"/>
       <c r="M14" s="120"/>
-      <c r="N14" s="66"/>
-      <c r="O14" s="66"/>
-      <c r="P14" s="66"/>
-      <c r="Q14" s="66"/>
-      <c r="R14" s="66"/>
+      <c r="N14" s="84"/>
+      <c r="O14" s="84"/>
+      <c r="P14" s="84"/>
+      <c r="Q14" s="84"/>
+      <c r="R14" s="84"/>
     </row>
     <row r="16" spans="2:3">
       <c r="B16" s="118" t="s">
@@ -6733,641 +6742,10 @@
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:AA12"/>
-  <sheetViews>
-    <sheetView showGridLines="0" workbookViewId="0">
-      <selection activeCell="K3" sqref="K3"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultColWidth="8.85714285714286" defaultRowHeight="15"/>
-  <cols>
-    <col min="1" max="1" width="5.42857142857143" style="105" customWidth="1"/>
-    <col min="2" max="2" width="6.14285714285714" style="105" customWidth="1"/>
-    <col min="3" max="3" width="7.57142857142857" style="105" customWidth="1"/>
-    <col min="4" max="4" width="13.2857142857143" style="105" customWidth="1"/>
-    <col min="5" max="5" width="11.2857142857143" style="105" customWidth="1"/>
-    <col min="6" max="6" width="12.8571428571429" style="105" customWidth="1"/>
-    <col min="7" max="7" width="12.4285714285714" style="105" customWidth="1"/>
-    <col min="8" max="8" width="10.5714285714286" style="105" customWidth="1"/>
-    <col min="9" max="9" width="7.28571428571429" style="105" customWidth="1"/>
-    <col min="10" max="10" width="11.2857142857143" style="105" customWidth="1"/>
-    <col min="11" max="11" width="7" style="105" customWidth="1"/>
-    <col min="12" max="12" width="12.4285714285714" style="105" customWidth="1"/>
-    <col min="13" max="13" width="7.57142857142857" style="105" customWidth="1"/>
-    <col min="14" max="15" width="3.57142857142857" style="105" customWidth="1"/>
-    <col min="16" max="17" width="8.85714285714286" style="105"/>
-    <col min="18" max="18" width="11.7142857142857" style="105" customWidth="1"/>
-    <col min="19" max="22" width="8.85714285714286" style="105"/>
-    <col min="23" max="23" width="13.1428571428571" style="105" customWidth="1"/>
-    <col min="24" max="24" width="8.85714285714286" style="105"/>
-    <col min="25" max="25" width="12.7142857142857" style="105" customWidth="1"/>
-    <col min="26" max="16384" width="8.85714285714286" style="105"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="2:13">
-      <c r="B1" s="106"/>
-      <c r="C1" s="106"/>
-      <c r="D1" s="106"/>
-      <c r="E1" s="106"/>
-      <c r="F1" s="106"/>
-      <c r="G1" s="106"/>
-      <c r="H1" s="106"/>
-      <c r="I1" s="106"/>
-      <c r="J1" s="110"/>
-      <c r="K1" s="110"/>
-      <c r="L1" s="111"/>
-      <c r="M1" s="111"/>
-    </row>
-    <row r="2" ht="30" customHeight="1" spans="1:27">
-      <c r="A2" s="107" t="s">
-        <v>42</v>
-      </c>
-      <c r="B2" s="107" t="s">
-        <v>43</v>
-      </c>
-      <c r="C2" s="107" t="s">
-        <v>44</v>
-      </c>
-      <c r="D2" s="107" t="s">
-        <v>45</v>
-      </c>
-      <c r="E2" s="107" t="s">
-        <v>13</v>
-      </c>
-      <c r="F2" s="107" t="s">
-        <v>46</v>
-      </c>
-      <c r="G2" s="107" t="s">
-        <v>47</v>
-      </c>
-      <c r="H2" s="107" t="s">
-        <v>48</v>
-      </c>
-      <c r="I2" s="107" t="s">
-        <v>49</v>
-      </c>
-      <c r="J2" s="107" t="s">
-        <v>50</v>
-      </c>
-      <c r="K2" s="107" t="s">
-        <v>51</v>
-      </c>
-      <c r="L2" s="107" t="s">
-        <v>52</v>
-      </c>
-      <c r="N2" s="112"/>
-      <c r="O2" s="113" t="s">
-        <v>53</v>
-      </c>
-      <c r="P2" s="114"/>
-      <c r="Q2" s="114"/>
-      <c r="R2" s="114"/>
-      <c r="S2" s="114"/>
-      <c r="T2" s="114"/>
-      <c r="U2" s="114"/>
-      <c r="V2" s="114"/>
-      <c r="W2" s="114"/>
-      <c r="X2" s="114"/>
-      <c r="Y2" s="114"/>
-      <c r="Z2" s="115"/>
-      <c r="AA2" s="115"/>
-    </row>
-    <row r="3" spans="1:12">
-      <c r="A3" s="108">
-        <v>0</v>
-      </c>
-      <c r="B3" s="109">
-        <f>INDEX(Alocação,1,Burndown[[#This Row],[Dia '#]]+1)</f>
-        <v>43689</v>
-      </c>
-      <c r="C3" s="108">
-        <f>INDEX(Alocação,ROWS(Alocação)-2,1+Burndown[[#This Row],[Dia '#]])</f>
-        <v>10</v>
-      </c>
-      <c r="D3" s="108">
-        <f>IF(Burndown[[#This Row],[Produzido / Dia (Horas)]]="",0,Burndown[[#This Row],[Produzido / Dia (Horas)]])</f>
-        <v>10</v>
-      </c>
-      <c r="E3" s="108">
-        <f>Velocidade</f>
-        <v>10</v>
-      </c>
-      <c r="F3" s="108">
-        <f ca="1">IF(Burndown[[#This Row],[Velocidade]]="",OFFSET(Burndown[[#This Row],[Produzido Previsto]],-1,0),ROUND(Burndown[[#This Row],[Produzido Acumulado (Horas)]]/Burndown[[#This Row],[Velocidade]],2))</f>
-        <v>1</v>
-      </c>
-      <c r="G3" s="108">
-        <f ca="1">MAX(TamanhoSprint-Burndown[[#This Row],[Produzido Previsto]],0)</f>
-        <v>11</v>
-      </c>
-      <c r="H3" s="108">
-        <f ca="1">IF(Burndown[[#This Row],[Produzido Real]]="",NA(),(Burndown[[#This Row],[Restante Real]]+Burndown[[#This Row],[Ajuste]])-Burndown[[#This Row],[Restante Previsto]])</f>
-        <v>0.35</v>
-      </c>
-      <c r="I3" s="108">
-        <v>0.65</v>
-      </c>
-      <c r="J3" s="108"/>
-      <c r="K3" s="108">
-        <f>TamanhoSprint-Burndown[[#This Row],[Produzido Real]]</f>
-        <v>11.35</v>
-      </c>
-      <c r="L3" s="108">
-        <f>IF(Burndown[[#This Row],[Produzido Real]]&lt;&gt;"",Burndown[[#This Row],[Restante Real]]+Burndown[[#This Row],[Ajuste]],NA())</f>
-        <v>11.35</v>
-      </c>
-    </row>
-    <row r="4" spans="1:12">
-      <c r="A4" s="108">
-        <v>1</v>
-      </c>
-      <c r="B4" s="109">
-        <f>INDEX(Alocação,1,Burndown[[#This Row],[Dia '#]]+1)</f>
-        <v>43690</v>
-      </c>
-      <c r="C4" s="108">
-        <f>INDEX(Alocação,ROWS(Alocação)-2,1+Burndown[[#This Row],[Dia '#]])</f>
-        <v>25</v>
-      </c>
-      <c r="D4" s="108">
-        <f ca="1">IF(Burndown[[#This Row],[Produzido / Dia (Horas)]]="",0,Burndown[[#This Row],[Produzido / Dia (Horas)]])+OFFSET(Burndown[[#This Row],[Produzido Acumulado (Horas)]],-1,0)</f>
-        <v>35</v>
-      </c>
-      <c r="E4" s="108">
-        <f>Velocidade</f>
-        <v>10</v>
-      </c>
-      <c r="F4" s="108">
-        <f ca="1">IF(Burndown[[#This Row],[Velocidade]]="",OFFSET(Burndown[[#This Row],[Produzido Previsto]],-1,0),ROUND(Burndown[[#This Row],[Produzido Acumulado (Horas)]]/Burndown[[#This Row],[Velocidade]],2))</f>
-        <v>3.5</v>
-      </c>
-      <c r="G4" s="108">
-        <f ca="1">MAX(TamanhoSprint-Burndown[[#This Row],[Produzido Previsto]],0)</f>
-        <v>8.5</v>
-      </c>
-      <c r="H4" s="108" t="e">
-        <f ca="1">IF(Burndown[[#This Row],[Produzido Real]]="",NA(),(Burndown[[#This Row],[Restante Real]]+Burndown[[#This Row],[Ajuste]])-Burndown[[#This Row],[Restante Previsto]])</f>
-        <v>#N/A</v>
-      </c>
-      <c r="I4" s="108"/>
-      <c r="J4" s="108"/>
-      <c r="K4" s="108">
-        <f>TamanhoSprint-Burndown[[#This Row],[Produzido Real]]</f>
-        <v>12</v>
-      </c>
-      <c r="L4" s="108" t="e">
-        <f>IF(Burndown[[#This Row],[Produzido Real]]&lt;&gt;"",Burndown[[#This Row],[Restante Real]]+Burndown[[#This Row],[Ajuste]],NA())</f>
-        <v>#N/A</v>
-      </c>
-    </row>
-    <row r="5" spans="1:12">
-      <c r="A5" s="108">
-        <v>2</v>
-      </c>
-      <c r="B5" s="109">
-        <f>INDEX(Alocação,1,Burndown[[#This Row],[Dia '#]]+1)</f>
-        <v>43691</v>
-      </c>
-      <c r="C5" s="108">
-        <f>INDEX(Alocação,ROWS(Alocação)-2,1+Burndown[[#This Row],[Dia '#]])</f>
-        <v>21</v>
-      </c>
-      <c r="D5" s="108">
-        <f ca="1">IF(Burndown[[#This Row],[Produzido / Dia (Horas)]]="",0,Burndown[[#This Row],[Produzido / Dia (Horas)]])+OFFSET(Burndown[[#This Row],[Produzido Acumulado (Horas)]],-1,0)</f>
-        <v>56</v>
-      </c>
-      <c r="E5" s="108">
-        <f>Velocidade</f>
-        <v>10</v>
-      </c>
-      <c r="F5" s="108">
-        <f ca="1">IF(Burndown[[#This Row],[Velocidade]]="",OFFSET(Burndown[[#This Row],[Produzido Previsto]],-1,0),ROUND(Burndown[[#This Row],[Produzido Acumulado (Horas)]]/Burndown[[#This Row],[Velocidade]],2))</f>
-        <v>5.6</v>
-      </c>
-      <c r="G5" s="108">
-        <f ca="1">MAX(TamanhoSprint-Burndown[[#This Row],[Produzido Previsto]],0)</f>
-        <v>6.4</v>
-      </c>
-      <c r="H5" s="108" t="e">
-        <f ca="1">IF(Burndown[[#This Row],[Produzido Real]]="",NA(),(Burndown[[#This Row],[Restante Real]]+Burndown[[#This Row],[Ajuste]])-Burndown[[#This Row],[Restante Previsto]])</f>
-        <v>#N/A</v>
-      </c>
-      <c r="I5" s="108"/>
-      <c r="J5" s="108"/>
-      <c r="K5" s="108">
-        <f>TamanhoSprint-Burndown[[#This Row],[Produzido Real]]</f>
-        <v>12</v>
-      </c>
-      <c r="L5" s="108" t="e">
-        <f>IF(Burndown[[#This Row],[Produzido Real]]&lt;&gt;"",Burndown[[#This Row],[Restante Real]]+Burndown[[#This Row],[Ajuste]],NA())</f>
-        <v>#N/A</v>
-      </c>
-    </row>
-    <row r="6" spans="1:12">
-      <c r="A6" s="108">
-        <v>3</v>
-      </c>
-      <c r="B6" s="109">
-        <f>INDEX(Alocação,1,Burndown[[#This Row],[Dia '#]]+1)</f>
-        <v>43692</v>
-      </c>
-      <c r="C6" s="108" t="str">
-        <f>INDEX(Alocação,ROWS(Alocação)-2,1+Burndown[[#This Row],[Dia '#]])</f>
-        <v/>
-      </c>
-      <c r="D6" s="108">
-        <f ca="1">IF(Burndown[[#This Row],[Produzido / Dia (Horas)]]="",0,Burndown[[#This Row],[Produzido / Dia (Horas)]])+OFFSET(Burndown[[#This Row],[Produzido Acumulado (Horas)]],-1,0)</f>
-        <v>56</v>
-      </c>
-      <c r="E6" s="108">
-        <f>Velocidade</f>
-        <v>10</v>
-      </c>
-      <c r="F6" s="108">
-        <f ca="1">IF(Burndown[[#This Row],[Velocidade]]="",OFFSET(Burndown[[#This Row],[Produzido Previsto]],-1,0),ROUND(Burndown[[#This Row],[Produzido Acumulado (Horas)]]/Burndown[[#This Row],[Velocidade]],2))</f>
-        <v>5.6</v>
-      </c>
-      <c r="G6" s="108">
-        <f ca="1">MAX(TamanhoSprint-Burndown[[#This Row],[Produzido Previsto]],0)</f>
-        <v>6.4</v>
-      </c>
-      <c r="H6" s="108" t="e">
-        <f ca="1">IF(Burndown[[#This Row],[Produzido Real]]="",NA(),(Burndown[[#This Row],[Restante Real]]+Burndown[[#This Row],[Ajuste]])-Burndown[[#This Row],[Restante Previsto]])</f>
-        <v>#N/A</v>
-      </c>
-      <c r="I6" s="108"/>
-      <c r="J6" s="108"/>
-      <c r="K6" s="108">
-        <f>TamanhoSprint-Burndown[[#This Row],[Produzido Real]]</f>
-        <v>12</v>
-      </c>
-      <c r="L6" s="108" t="e">
-        <f>IF(Burndown[[#This Row],[Produzido Real]]&lt;&gt;"",Burndown[[#This Row],[Restante Real]]+Burndown[[#This Row],[Ajuste]],NA())</f>
-        <v>#N/A</v>
-      </c>
-    </row>
-    <row r="7" spans="1:12">
-      <c r="A7" s="108">
-        <v>4</v>
-      </c>
-      <c r="B7" s="109">
-        <f>INDEX(Alocação,1,Burndown[[#This Row],[Dia '#]]+1)</f>
-        <v>43693</v>
-      </c>
-      <c r="C7" s="108">
-        <f>INDEX(Alocação,ROWS(Alocação)-2,1+Burndown[[#This Row],[Dia '#]])</f>
-        <v>11</v>
-      </c>
-      <c r="D7" s="108">
-        <f ca="1">IF(Burndown[[#This Row],[Produzido / Dia (Horas)]]="",0,Burndown[[#This Row],[Produzido / Dia (Horas)]])+OFFSET(Burndown[[#This Row],[Produzido Acumulado (Horas)]],-1,0)</f>
-        <v>67</v>
-      </c>
-      <c r="E7" s="108">
-        <f>Velocidade</f>
-        <v>10</v>
-      </c>
-      <c r="F7" s="108">
-        <f ca="1">IF(Burndown[[#This Row],[Velocidade]]="",OFFSET(Burndown[[#This Row],[Produzido Previsto]],-1,0),ROUND(Burndown[[#This Row],[Produzido Acumulado (Horas)]]/Burndown[[#This Row],[Velocidade]],2))</f>
-        <v>6.7</v>
-      </c>
-      <c r="G7" s="108">
-        <f ca="1">MAX(TamanhoSprint-Burndown[[#This Row],[Produzido Previsto]],0)</f>
-        <v>5.3</v>
-      </c>
-      <c r="H7" s="108" t="e">
-        <f ca="1">IF(Burndown[[#This Row],[Produzido Real]]="",NA(),(Burndown[[#This Row],[Restante Real]]+Burndown[[#This Row],[Ajuste]])-Burndown[[#This Row],[Restante Previsto]])</f>
-        <v>#N/A</v>
-      </c>
-      <c r="I7" s="108"/>
-      <c r="J7" s="108"/>
-      <c r="K7" s="108">
-        <f>TamanhoSprint-Burndown[[#This Row],[Produzido Real]]</f>
-        <v>12</v>
-      </c>
-      <c r="L7" s="108" t="e">
-        <f>IF(Burndown[[#This Row],[Produzido Real]]&lt;&gt;"",Burndown[[#This Row],[Restante Real]]+Burndown[[#This Row],[Ajuste]],NA())</f>
-        <v>#N/A</v>
-      </c>
-    </row>
-    <row r="8" spans="1:12">
-      <c r="A8" s="108">
-        <v>5</v>
-      </c>
-      <c r="B8" s="109">
-        <f>INDEX(Alocação,1,Burndown[[#This Row],[Dia '#]]+1)</f>
-        <v>43696</v>
-      </c>
-      <c r="C8" s="108">
-        <f>INDEX(Alocação,ROWS(Alocação)-2,1+Burndown[[#This Row],[Dia '#]])</f>
-        <v>21</v>
-      </c>
-      <c r="D8" s="108">
-        <f ca="1">IF(Burndown[[#This Row],[Produzido / Dia (Horas)]]="",0,Burndown[[#This Row],[Produzido / Dia (Horas)]])+OFFSET(Burndown[[#This Row],[Produzido Acumulado (Horas)]],-1,0)</f>
-        <v>88</v>
-      </c>
-      <c r="E8" s="108">
-        <f>Velocidade</f>
-        <v>10</v>
-      </c>
-      <c r="F8" s="108">
-        <f ca="1">IF(Burndown[[#This Row],[Velocidade]]="",OFFSET(Burndown[[#This Row],[Produzido Previsto]],-1,0),ROUND(Burndown[[#This Row],[Produzido Acumulado (Horas)]]/Burndown[[#This Row],[Velocidade]],2))</f>
-        <v>8.8</v>
-      </c>
-      <c r="G8" s="108">
-        <f ca="1">MAX(TamanhoSprint-Burndown[[#This Row],[Produzido Previsto]],0)</f>
-        <v>3.2</v>
-      </c>
-      <c r="H8" s="108" t="e">
-        <f ca="1">IF(Burndown[[#This Row],[Produzido Real]]="",NA(),(Burndown[[#This Row],[Restante Real]]+Burndown[[#This Row],[Ajuste]])-Burndown[[#This Row],[Restante Previsto]])</f>
-        <v>#N/A</v>
-      </c>
-      <c r="I8" s="108"/>
-      <c r="J8" s="108"/>
-      <c r="K8" s="108">
-        <f>TamanhoSprint-Burndown[[#This Row],[Produzido Real]]</f>
-        <v>12</v>
-      </c>
-      <c r="L8" s="108" t="e">
-        <f>IF(Burndown[[#This Row],[Produzido Real]]&lt;&gt;"",Burndown[[#This Row],[Restante Real]]+Burndown[[#This Row],[Ajuste]],NA())</f>
-        <v>#N/A</v>
-      </c>
-    </row>
-    <row r="9" spans="1:12">
-      <c r="A9" s="108">
-        <v>6</v>
-      </c>
-      <c r="B9" s="109">
-        <f>INDEX(Alocação,1,Burndown[[#This Row],[Dia '#]]+1)</f>
-        <v>43697</v>
-      </c>
-      <c r="C9" s="108">
-        <f>INDEX(Alocação,ROWS(Alocação)-2,1+Burndown[[#This Row],[Dia '#]])</f>
-        <v>25</v>
-      </c>
-      <c r="D9" s="108">
-        <f ca="1">IF(Burndown[[#This Row],[Produzido / Dia (Horas)]]="",0,Burndown[[#This Row],[Produzido / Dia (Horas)]])+OFFSET(Burndown[[#This Row],[Produzido Acumulado (Horas)]],-1,0)</f>
-        <v>113</v>
-      </c>
-      <c r="E9" s="108">
-        <f>Velocidade</f>
-        <v>10</v>
-      </c>
-      <c r="F9" s="108">
-        <f ca="1">IF(Burndown[[#This Row],[Velocidade]]="",OFFSET(Burndown[[#This Row],[Produzido Previsto]],-1,0),ROUND(Burndown[[#This Row],[Produzido Acumulado (Horas)]]/Burndown[[#This Row],[Velocidade]],2))</f>
-        <v>11.3</v>
-      </c>
-      <c r="G9" s="108">
-        <f ca="1">MAX(TamanhoSprint-Burndown[[#This Row],[Produzido Previsto]],0)</f>
-        <v>0.699999999999999</v>
-      </c>
-      <c r="H9" s="108" t="e">
-        <f ca="1">IF(Burndown[[#This Row],[Produzido Real]]="",NA(),(Burndown[[#This Row],[Restante Real]]+Burndown[[#This Row],[Ajuste]])-Burndown[[#This Row],[Restante Previsto]])</f>
-        <v>#N/A</v>
-      </c>
-      <c r="I9" s="108"/>
-      <c r="J9" s="108"/>
-      <c r="K9" s="108">
-        <f>TamanhoSprint-Burndown[[#This Row],[Produzido Real]]</f>
-        <v>12</v>
-      </c>
-      <c r="L9" s="108" t="e">
-        <f>IF(Burndown[[#This Row],[Produzido Real]]&lt;&gt;"",Burndown[[#This Row],[Restante Real]]+Burndown[[#This Row],[Ajuste]],NA())</f>
-        <v>#N/A</v>
-      </c>
-    </row>
-    <row r="10" spans="1:12">
-      <c r="A10" s="108">
-        <v>7</v>
-      </c>
-      <c r="B10" s="109">
-        <f>INDEX(Alocação,1,Burndown[[#This Row],[Dia '#]]+1)</f>
-        <v>43698</v>
-      </c>
-      <c r="C10" s="108">
-        <f>INDEX(Alocação,ROWS(Alocação)-2,1+Burndown[[#This Row],[Dia '#]])</f>
-        <v>25</v>
-      </c>
-      <c r="D10" s="108">
-        <f ca="1">IF(Burndown[[#This Row],[Produzido / Dia (Horas)]]="",0,Burndown[[#This Row],[Produzido / Dia (Horas)]])+OFFSET(Burndown[[#This Row],[Produzido Acumulado (Horas)]],-1,0)</f>
-        <v>138</v>
-      </c>
-      <c r="E10" s="108">
-        <f>Velocidade</f>
-        <v>10</v>
-      </c>
-      <c r="F10" s="108">
-        <f ca="1">IF(Burndown[[#This Row],[Velocidade]]="",OFFSET(Burndown[[#This Row],[Produzido Previsto]],-1,0),ROUND(Burndown[[#This Row],[Produzido Acumulado (Horas)]]/Burndown[[#This Row],[Velocidade]],2))</f>
-        <v>13.8</v>
-      </c>
-      <c r="G10" s="108">
-        <f ca="1">MAX(TamanhoSprint-Burndown[[#This Row],[Produzido Previsto]],0)</f>
-        <v>0</v>
-      </c>
-      <c r="H10" s="108" t="e">
-        <f ca="1">IF(Burndown[[#This Row],[Produzido Real]]="",NA(),(Burndown[[#This Row],[Restante Real]]+Burndown[[#This Row],[Ajuste]])-Burndown[[#This Row],[Restante Previsto]])</f>
-        <v>#N/A</v>
-      </c>
-      <c r="I10" s="108"/>
-      <c r="J10" s="108"/>
-      <c r="K10" s="108">
-        <f>TamanhoSprint-Burndown[[#This Row],[Produzido Real]]</f>
-        <v>12</v>
-      </c>
-      <c r="L10" s="108" t="e">
-        <f>IF(Burndown[[#This Row],[Produzido Real]]&lt;&gt;"",Burndown[[#This Row],[Restante Real]]+Burndown[[#This Row],[Ajuste]],NA())</f>
-        <v>#N/A</v>
-      </c>
-    </row>
-    <row r="11" spans="1:12">
-      <c r="A11" s="108">
-        <v>8</v>
-      </c>
-      <c r="B11" s="109">
-        <f>INDEX(Alocação,1,Burndown[[#This Row],[Dia '#]]+1)</f>
-        <v>43699</v>
-      </c>
-      <c r="C11" s="108">
-        <f>INDEX(Alocação,ROWS(Alocação)-2,1+Burndown[[#This Row],[Dia '#]])</f>
-        <v>25</v>
-      </c>
-      <c r="D11" s="108">
-        <f ca="1">IF(Burndown[[#This Row],[Produzido / Dia (Horas)]]="",0,Burndown[[#This Row],[Produzido / Dia (Horas)]])+OFFSET(Burndown[[#This Row],[Produzido Acumulado (Horas)]],-1,0)</f>
-        <v>163</v>
-      </c>
-      <c r="E11" s="108">
-        <f>Velocidade</f>
-        <v>10</v>
-      </c>
-      <c r="F11" s="108">
-        <f ca="1">IF(Burndown[[#This Row],[Velocidade]]="",OFFSET(Burndown[[#This Row],[Produzido Previsto]],-1,0),ROUND(Burndown[[#This Row],[Produzido Acumulado (Horas)]]/Burndown[[#This Row],[Velocidade]],2))</f>
-        <v>16.3</v>
-      </c>
-      <c r="G11" s="108">
-        <f ca="1">MAX(TamanhoSprint-Burndown[[#This Row],[Produzido Previsto]],0)</f>
-        <v>0</v>
-      </c>
-      <c r="H11" s="108" t="e">
-        <f ca="1">IF(Burndown[[#This Row],[Produzido Real]]="",NA(),(Burndown[[#This Row],[Restante Real]]+Burndown[[#This Row],[Ajuste]])-Burndown[[#This Row],[Restante Previsto]])</f>
-        <v>#N/A</v>
-      </c>
-      <c r="I11" s="108"/>
-      <c r="J11" s="108"/>
-      <c r="K11" s="108">
-        <f>TamanhoSprint-Burndown[[#This Row],[Produzido Real]]</f>
-        <v>12</v>
-      </c>
-      <c r="L11" s="108" t="e">
-        <f>IF(Burndown[[#This Row],[Produzido Real]]&lt;&gt;"",Burndown[[#This Row],[Restante Real]]+Burndown[[#This Row],[Ajuste]],NA())</f>
-        <v>#N/A</v>
-      </c>
-    </row>
-    <row r="12" spans="1:12">
-      <c r="A12" s="108">
-        <v>9</v>
-      </c>
-      <c r="B12" s="109">
-        <f>INDEX(Alocação,1,Burndown[[#This Row],[Dia '#]]+1)</f>
-        <v>43700</v>
-      </c>
-      <c r="C12" s="108">
-        <f>INDEX(Alocação,ROWS(Alocação)-2,1+Burndown[[#This Row],[Dia '#]])</f>
-        <v>11</v>
-      </c>
-      <c r="D12" s="108">
-        <f ca="1">IF(Burndown[[#This Row],[Produzido / Dia (Horas)]]="",0,Burndown[[#This Row],[Produzido / Dia (Horas)]])+OFFSET(Burndown[[#This Row],[Produzido Acumulado (Horas)]],-1,0)</f>
-        <v>174</v>
-      </c>
-      <c r="E12" s="108">
-        <f>Velocidade</f>
-        <v>10</v>
-      </c>
-      <c r="F12" s="108">
-        <f ca="1">IF(Burndown[[#This Row],[Velocidade]]="",OFFSET(Burndown[[#This Row],[Produzido Previsto]],-1,0),ROUND(Burndown[[#This Row],[Produzido Acumulado (Horas)]]/Burndown[[#This Row],[Velocidade]],2))</f>
-        <v>17.4</v>
-      </c>
-      <c r="G12" s="108">
-        <f ca="1">MAX(TamanhoSprint-Burndown[[#This Row],[Produzido Previsto]],0)</f>
-        <v>0</v>
-      </c>
-      <c r="H12" s="108" t="e">
-        <f ca="1">IF(Burndown[[#This Row],[Produzido Real]]="",NA(),(Burndown[[#This Row],[Restante Real]]+Burndown[[#This Row],[Ajuste]])-Burndown[[#This Row],[Restante Previsto]])</f>
-        <v>#N/A</v>
-      </c>
-      <c r="I12" s="108"/>
-      <c r="J12" s="108"/>
-      <c r="K12" s="108">
-        <f>TamanhoSprint-Burndown[[#This Row],[Produzido Real]]</f>
-        <v>12</v>
-      </c>
-      <c r="L12" s="108" t="e">
-        <f>IF(Burndown[[#This Row],[Produzido Real]]&lt;&gt;"",Burndown[[#This Row],[Restante Real]]+Burndown[[#This Row],[Ajuste]],NA())</f>
-        <v>#N/A</v>
-      </c>
-    </row>
-  </sheetData>
-  <mergeCells count="1">
-    <mergeCell ref="O2:Y2"/>
-  </mergeCells>
-  <pageMargins left="0.511805555555556" right="0.511805555555556" top="0.786805555555556" bottom="0.786805555555556" header="0.313888888888889" footer="0.313888888888889"/>
-  <pageSetup paperSize="1" orientation="portrait"/>
-  <headerFooter/>
-  <drawing r:id="rId1"/>
-  <tableParts count="1">
-    <tablePart r:id="rId2"/>
-  </tableParts>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
-  <sheetPr/>
-  <dimension ref="B2:F7"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="D11" sqref="D11"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="15" outlineLevelRow="6" outlineLevelCol="5"/>
-  <cols>
-    <col min="1" max="1" width="1.85714285714286" customWidth="1"/>
-    <col min="2" max="2" width="51.4285714285714" style="97" customWidth="1"/>
-    <col min="3" max="3" width="21.1428571428571" customWidth="1"/>
-    <col min="4" max="4" width="15.7142857142857" customWidth="1"/>
-    <col min="5" max="5" width="59.2857142857143" style="97" customWidth="1"/>
-    <col min="6" max="6" width="17.2857142857143" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="2" ht="18.75" spans="2:6">
-      <c r="B2" s="98" t="s">
-        <v>54</v>
-      </c>
-      <c r="C2" s="99" t="s">
-        <v>29</v>
-      </c>
-      <c r="D2" s="99" t="s">
-        <v>55</v>
-      </c>
-      <c r="E2" s="98" t="s">
-        <v>56</v>
-      </c>
-      <c r="F2" s="99" t="s">
-        <v>57</v>
-      </c>
-    </row>
-    <row r="3" spans="2:6">
-      <c r="B3" s="100"/>
-      <c r="C3" s="101"/>
-      <c r="D3" s="102"/>
-      <c r="E3" s="103"/>
-      <c r="F3" s="102"/>
-    </row>
-    <row r="4" spans="2:6">
-      <c r="B4" s="104"/>
-      <c r="C4" s="101"/>
-      <c r="D4" s="102"/>
-      <c r="E4" s="103"/>
-      <c r="F4" s="102"/>
-    </row>
-    <row r="5" spans="2:6">
-      <c r="B5" s="100"/>
-      <c r="C5" s="101"/>
-      <c r="D5" s="102"/>
-      <c r="E5" s="103"/>
-      <c r="F5" s="102"/>
-    </row>
-    <row r="6" spans="2:6">
-      <c r="B6" s="104"/>
-      <c r="C6" s="101"/>
-      <c r="D6" s="102"/>
-      <c r="E6" s="103"/>
-      <c r="F6" s="102"/>
-    </row>
-    <row r="7" spans="2:6">
-      <c r="B7" s="100"/>
-      <c r="C7" s="101"/>
-      <c r="D7" s="102"/>
-      <c r="E7" s="103"/>
-      <c r="F7" s="102"/>
-    </row>
-  </sheetData>
-  <dataValidations count="1">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="C3:C7">
-      <formula1>Time</formula1>
-    </dataValidation>
-  </dataValidations>
-  <pageMargins left="0.699305555555556" right="0.699305555555556" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait"/>
-  <headerFooter/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
-  <sheetPr/>
   <dimension ref="A1:J61"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B11" sqref="B11"/>
+      <selection activeCell="F14" sqref="F14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="50.7142857142857" defaultRowHeight="15"/>
@@ -7387,735 +6765,731 @@
   <sheetData>
     <row r="1" ht="15.75"/>
     <row r="2" ht="18.75" spans="3:9">
-      <c r="C2" s="67"/>
-      <c r="D2" s="67"/>
-      <c r="E2" s="67"/>
-      <c r="F2" s="68" t="s">
-        <v>58</v>
-      </c>
-      <c r="G2" s="68"/>
-      <c r="H2" s="69">
+      <c r="C2" s="85"/>
+      <c r="D2" s="85"/>
+      <c r="E2" s="85"/>
+      <c r="F2" s="86" t="s">
+        <v>42</v>
+      </c>
+      <c r="G2" s="86"/>
+      <c r="H2" s="87">
         <f>SUM(H5:H10)</f>
-        <v>0.65</v>
-      </c>
-      <c r="I2" s="90"/>
+        <v>2.96</v>
+      </c>
+      <c r="I2" s="109"/>
     </row>
     <row r="3" ht="15.75"/>
     <row r="4" s="10" customFormat="1" ht="30" spans="2:10">
-      <c r="B4" s="70" t="s">
-        <v>59</v>
-      </c>
-      <c r="C4" s="71" t="s">
-        <v>60</v>
-      </c>
-      <c r="D4" s="71" t="s">
+      <c r="B4" s="88" t="s">
+        <v>43</v>
+      </c>
+      <c r="C4" s="89" t="s">
+        <v>44</v>
+      </c>
+      <c r="D4" s="89" t="s">
         <v>34</v>
       </c>
-      <c r="E4" s="71" t="s">
-        <v>61</v>
-      </c>
-      <c r="F4" s="71" t="s">
-        <v>62</v>
-      </c>
-      <c r="G4" s="71" t="s">
-        <v>63</v>
-      </c>
-      <c r="H4" s="71" t="s">
-        <v>64</v>
-      </c>
-      <c r="I4" s="71" t="s">
-        <v>65</v>
-      </c>
-      <c r="J4" s="71" t="s">
+      <c r="E4" s="89" t="s">
+        <v>45</v>
+      </c>
+      <c r="F4" s="89" t="s">
+        <v>46</v>
+      </c>
+      <c r="G4" s="89" t="s">
+        <v>47</v>
+      </c>
+      <c r="H4" s="89" t="s">
+        <v>48</v>
+      </c>
+      <c r="I4" s="89" t="s">
+        <v>49</v>
+      </c>
+      <c r="J4" s="89" t="s">
         <v>29</v>
       </c>
     </row>
     <row r="5" spans="2:10">
-      <c r="B5" s="13" t="s">
-        <v>66</v>
-      </c>
-      <c r="C5" s="14" t="s">
-        <v>67</v>
-      </c>
-      <c r="D5" s="15">
+      <c r="B5" s="90" t="s">
+        <v>50</v>
+      </c>
+      <c r="C5" s="13" t="s">
+        <v>51</v>
+      </c>
+      <c r="D5" s="14">
         <v>2</v>
       </c>
-      <c r="E5" s="15">
+      <c r="E5" s="14">
         <v>20</v>
       </c>
-      <c r="F5" s="15">
+      <c r="F5" s="14">
         <f>Estorias[[#This Row],[Horas Totais]]*(100-(100*Estorias[[#This Row],[% Concl.]]))/100</f>
-        <v>19</v>
-      </c>
-      <c r="G5" s="72">
-        <v>0.05</v>
-      </c>
-      <c r="H5" s="73">
+        <v>14</v>
+      </c>
+      <c r="G5" s="91">
+        <v>0.3</v>
+      </c>
+      <c r="H5" s="92">
         <f>Estorias[[#This Row],[Pontos]]*Estorias[[#This Row],[% Concl.]]</f>
-        <v>0.1</v>
-      </c>
-      <c r="I5" s="91" t="s">
-        <v>68</v>
-      </c>
-      <c r="J5" s="92" t="s">
+        <v>0.6</v>
+      </c>
+      <c r="I5" s="110" t="s">
+        <v>52</v>
+      </c>
+      <c r="J5" s="111" t="s">
         <v>18</v>
       </c>
     </row>
     <row r="6" spans="2:10">
-      <c r="B6" s="13" t="s">
-        <v>69</v>
-      </c>
-      <c r="C6" s="14" t="s">
-        <v>70</v>
-      </c>
-      <c r="D6" s="18">
+      <c r="B6" s="90" t="s">
+        <v>53</v>
+      </c>
+      <c r="C6" s="13" t="s">
+        <v>54</v>
+      </c>
+      <c r="D6" s="17">
         <v>3</v>
       </c>
-      <c r="E6" s="15">
+      <c r="E6" s="14">
         <v>30</v>
       </c>
-      <c r="F6" s="15">
+      <c r="F6" s="14">
         <f>Estorias[[#This Row],[Horas Totais]]*(100-(100*Estorias[[#This Row],[% Concl.]]))/100</f>
-        <v>28.5</v>
-      </c>
-      <c r="G6" s="72">
-        <v>0.05</v>
-      </c>
-      <c r="H6" s="73">
+        <v>20.4</v>
+      </c>
+      <c r="G6" s="91">
+        <v>0.32</v>
+      </c>
+      <c r="H6" s="92">
         <f>Estorias[[#This Row],[Pontos]]*Estorias[[#This Row],[% Concl.]]</f>
-        <v>0.15</v>
-      </c>
-      <c r="I6" s="91" t="s">
-        <v>68</v>
-      </c>
-      <c r="J6" s="92" t="s">
+        <v>0.96</v>
+      </c>
+      <c r="I6" s="110" t="s">
+        <v>52</v>
+      </c>
+      <c r="J6" s="111" t="s">
         <v>15</v>
       </c>
     </row>
     <row r="7" spans="2:10">
-      <c r="B7" s="13" t="s">
-        <v>71</v>
-      </c>
-      <c r="C7" s="14" t="s">
-        <v>72</v>
-      </c>
-      <c r="D7" s="18">
+      <c r="B7" s="90" t="s">
+        <v>55</v>
+      </c>
+      <c r="C7" s="13" t="s">
+        <v>56</v>
+      </c>
+      <c r="D7" s="17">
         <v>2</v>
       </c>
-      <c r="E7" s="15">
+      <c r="E7" s="14">
         <v>20</v>
       </c>
-      <c r="F7" s="15">
+      <c r="F7" s="14">
         <f>Estorias[[#This Row],[Horas Totais]]*(100-(100*Estorias[[#This Row],[% Concl.]]))/100</f>
         <v>20</v>
       </c>
-      <c r="G7" s="72">
+      <c r="G7" s="91">
         <v>0</v>
       </c>
-      <c r="H7" s="73">
+      <c r="H7" s="92">
         <f>Estorias[[#This Row],[Pontos]]*Estorias[[#This Row],[% Concl.]]</f>
         <v>0</v>
       </c>
-      <c r="I7" s="91" t="s">
-        <v>73</v>
-      </c>
-      <c r="J7" s="92" t="s">
-        <v>7</v>
-      </c>
+      <c r="I7" s="110" t="s">
+        <v>57</v>
+      </c>
+      <c r="J7" s="111"/>
     </row>
     <row r="8" spans="2:10">
-      <c r="B8" s="13" t="s">
-        <v>74</v>
-      </c>
-      <c r="C8" s="14" t="s">
-        <v>75</v>
-      </c>
-      <c r="D8" s="18">
+      <c r="B8" s="90" t="s">
+        <v>58</v>
+      </c>
+      <c r="C8" s="13" t="s">
+        <v>59</v>
+      </c>
+      <c r="D8" s="17">
         <v>1</v>
       </c>
-      <c r="E8" s="15">
+      <c r="E8" s="14">
         <v>10</v>
       </c>
-      <c r="F8" s="15">
+      <c r="F8" s="14">
         <f>Estorias[[#This Row],[Horas Totais]]*(100-(100*Estorias[[#This Row],[% Concl.]]))/100</f>
         <v>10</v>
       </c>
-      <c r="G8" s="72">
+      <c r="G8" s="91">
         <v>0</v>
       </c>
-      <c r="H8" s="73">
+      <c r="H8" s="92">
         <f>Estorias[[#This Row],[Pontos]]*Estorias[[#This Row],[% Concl.]]</f>
         <v>0</v>
       </c>
-      <c r="I8" s="91" t="s">
-        <v>73</v>
-      </c>
-      <c r="J8" s="92" t="s">
-        <v>76</v>
-      </c>
+      <c r="I8" s="110" t="s">
+        <v>57</v>
+      </c>
+      <c r="J8" s="111"/>
     </row>
     <row r="9" spans="2:10">
-      <c r="B9" s="13" t="s">
-        <v>77</v>
-      </c>
-      <c r="C9" s="14" t="s">
-        <v>78</v>
-      </c>
-      <c r="D9" s="18">
+      <c r="B9" s="90" t="s">
+        <v>60</v>
+      </c>
+      <c r="C9" s="13" t="s">
+        <v>61</v>
+      </c>
+      <c r="D9" s="17">
         <v>2</v>
       </c>
-      <c r="E9" s="15">
+      <c r="E9" s="14">
         <v>20</v>
       </c>
-      <c r="F9" s="15">
+      <c r="F9" s="14">
         <f>Estorias[[#This Row],[Horas Totais]]*(100-(100*Estorias[[#This Row],[% Concl.]]))/100</f>
+        <v>8</v>
+      </c>
+      <c r="G9" s="91">
+        <v>0.6</v>
+      </c>
+      <c r="H9" s="92">
+        <f>Estorias[[#This Row],[Pontos]]*Estorias[[#This Row],[% Concl.]]</f>
+        <v>1.2</v>
+      </c>
+      <c r="I9" s="110" t="s">
+        <v>52</v>
+      </c>
+      <c r="J9" s="111" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="10" spans="2:10">
+      <c r="B10" s="90" t="s">
+        <v>62</v>
+      </c>
+      <c r="C10" s="13" t="s">
+        <v>63</v>
+      </c>
+      <c r="D10" s="17">
+        <v>2</v>
+      </c>
+      <c r="E10" s="14">
+        <v>20</v>
+      </c>
+      <c r="F10" s="14">
+        <f>Estorias[[#This Row],[Horas Totais]]*(100-(100*Estorias[[#This Row],[% Concl.]]))/100</f>
+        <v>18</v>
+      </c>
+      <c r="G10" s="91">
+        <v>0.1</v>
+      </c>
+      <c r="H10" s="92">
+        <f>Estorias[[#This Row],[Pontos]]*Estorias[[#This Row],[% Concl.]]</f>
+        <v>0.2</v>
+      </c>
+      <c r="I10" s="110" t="s">
+        <v>52</v>
+      </c>
+      <c r="J10" s="111" t="s">
         <v>16</v>
       </c>
-      <c r="G9" s="72">
-        <v>0.2</v>
-      </c>
-      <c r="H9" s="73">
-        <f>Estorias[[#This Row],[Pontos]]*Estorias[[#This Row],[% Concl.]]</f>
-        <v>0.4</v>
-      </c>
-      <c r="I9" s="91" t="s">
-        <v>68</v>
-      </c>
-      <c r="J9" s="92" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="10" spans="2:10">
-      <c r="B10" s="13" t="s">
-        <v>79</v>
-      </c>
-      <c r="C10" s="14" t="s">
-        <v>80</v>
-      </c>
-      <c r="D10" s="18">
-        <v>2</v>
-      </c>
-      <c r="E10" s="15">
-        <v>20</v>
-      </c>
-      <c r="F10" s="15">
-        <f>Estorias[[#This Row],[Horas Totais]]*(100-(100*Estorias[[#This Row],[% Concl.]]))/100</f>
-        <v>20</v>
-      </c>
-      <c r="G10" s="72">
-        <v>0</v>
-      </c>
-      <c r="H10" s="73">
-        <f>Estorias[[#This Row],[Pontos]]*Estorias[[#This Row],[% Concl.]]</f>
-        <v>0</v>
-      </c>
-      <c r="I10" s="91" t="s">
-        <v>73</v>
-      </c>
-      <c r="J10" s="92" t="s">
-        <v>76</v>
-      </c>
-    </row>
-    <row r="11" s="66" customFormat="1" spans="2:10">
-      <c r="B11" s="74"/>
-      <c r="C11" s="75"/>
-      <c r="D11" s="76"/>
-      <c r="E11" s="76"/>
-      <c r="F11" s="76"/>
-      <c r="G11" s="77"/>
-      <c r="H11" s="78"/>
-      <c r="I11" s="93"/>
-      <c r="J11" s="94"/>
-    </row>
-    <row r="12" s="66" customFormat="1" spans="2:10">
-      <c r="B12" s="79"/>
-      <c r="C12" s="80"/>
-      <c r="D12" s="81"/>
-      <c r="E12" s="81"/>
-      <c r="F12" s="81"/>
-      <c r="G12" s="82"/>
-      <c r="H12" s="83"/>
-      <c r="I12" s="95"/>
-      <c r="J12" s="96"/>
-    </row>
-    <row r="13" s="66" customFormat="1" spans="2:10">
-      <c r="B13" s="79"/>
-      <c r="C13" s="80"/>
-      <c r="D13" s="81"/>
-      <c r="E13" s="81"/>
-      <c r="F13" s="81"/>
-      <c r="G13" s="82"/>
-      <c r="H13" s="83"/>
-      <c r="I13" s="95"/>
-      <c r="J13" s="96"/>
+    </row>
+    <row r="11" s="84" customFormat="1" spans="2:10">
+      <c r="B11" s="93"/>
+      <c r="C11" s="94"/>
+      <c r="D11" s="95"/>
+      <c r="E11" s="95"/>
+      <c r="F11" s="95"/>
+      <c r="G11" s="96"/>
+      <c r="H11" s="97"/>
+      <c r="I11" s="112"/>
+      <c r="J11" s="113"/>
+    </row>
+    <row r="12" s="84" customFormat="1" spans="2:10">
+      <c r="B12" s="98"/>
+      <c r="C12" s="99"/>
+      <c r="D12" s="100"/>
+      <c r="E12" s="100"/>
+      <c r="F12" s="100"/>
+      <c r="G12" s="101"/>
+      <c r="H12" s="102"/>
+      <c r="I12" s="114"/>
+      <c r="J12" s="115"/>
+    </row>
+    <row r="13" s="84" customFormat="1" spans="2:10">
+      <c r="B13" s="98"/>
+      <c r="C13" s="99"/>
+      <c r="D13" s="100"/>
+      <c r="E13" s="100"/>
+      <c r="F13" s="100"/>
+      <c r="G13" s="101"/>
+      <c r="H13" s="102"/>
+      <c r="I13" s="114"/>
+      <c r="J13" s="115"/>
     </row>
     <row r="14" spans="1:10">
-      <c r="A14" s="66"/>
-      <c r="B14" s="84"/>
-      <c r="C14" s="85"/>
-      <c r="D14" s="84"/>
-      <c r="E14" s="84"/>
-      <c r="F14" s="84"/>
-      <c r="G14" s="84"/>
-      <c r="H14" s="84"/>
-      <c r="I14" s="66"/>
-      <c r="J14" s="66"/>
+      <c r="A14" s="84"/>
+      <c r="B14" s="103"/>
+      <c r="C14" s="104"/>
+      <c r="D14" s="103"/>
+      <c r="E14" s="103"/>
+      <c r="F14" s="103"/>
+      <c r="G14" s="103"/>
+      <c r="H14" s="103"/>
+      <c r="I14" s="84"/>
+      <c r="J14" s="84"/>
     </row>
     <row r="15" spans="1:10">
-      <c r="A15" s="66"/>
-      <c r="B15" s="79"/>
-      <c r="C15" s="86"/>
-      <c r="D15" s="84"/>
-      <c r="E15" s="84"/>
-      <c r="F15" s="84"/>
-      <c r="G15" s="84"/>
-      <c r="H15" s="84"/>
-      <c r="I15" s="66"/>
-      <c r="J15" s="66"/>
+      <c r="A15" s="84"/>
+      <c r="B15" s="98"/>
+      <c r="C15" s="105"/>
+      <c r="D15" s="103"/>
+      <c r="E15" s="103"/>
+      <c r="F15" s="103"/>
+      <c r="G15" s="103"/>
+      <c r="H15" s="103"/>
+      <c r="I15" s="84"/>
+      <c r="J15" s="84"/>
     </row>
     <row r="16" spans="2:8">
-      <c r="B16" s="79"/>
-      <c r="C16" s="86"/>
-      <c r="D16" s="84"/>
-      <c r="E16" s="87"/>
-      <c r="F16" s="87"/>
-      <c r="G16" s="87"/>
-      <c r="H16" s="87"/>
+      <c r="B16" s="98"/>
+      <c r="C16" s="105"/>
+      <c r="D16" s="103"/>
+      <c r="E16" s="106"/>
+      <c r="F16" s="106"/>
+      <c r="G16" s="106"/>
+      <c r="H16" s="106"/>
     </row>
     <row r="17" spans="2:8">
-      <c r="B17" s="84"/>
-      <c r="C17" s="85"/>
-      <c r="D17" s="84"/>
-      <c r="E17" s="87"/>
-      <c r="F17" s="87"/>
-      <c r="G17" s="87"/>
-      <c r="H17" s="87"/>
+      <c r="B17" s="103"/>
+      <c r="C17" s="104"/>
+      <c r="D17" s="103"/>
+      <c r="E17" s="106"/>
+      <c r="F17" s="106"/>
+      <c r="G17" s="106"/>
+      <c r="H17" s="106"/>
     </row>
     <row r="18" spans="2:8">
-      <c r="B18" s="84"/>
-      <c r="C18" s="85"/>
-      <c r="D18" s="84"/>
-      <c r="E18" s="87"/>
-      <c r="F18" s="87"/>
-      <c r="G18" s="87"/>
-      <c r="H18" s="87"/>
+      <c r="B18" s="103"/>
+      <c r="C18" s="104"/>
+      <c r="D18" s="103"/>
+      <c r="E18" s="106"/>
+      <c r="F18" s="106"/>
+      <c r="G18" s="106"/>
+      <c r="H18" s="106"/>
     </row>
     <row r="19" spans="2:8">
-      <c r="B19" s="84"/>
-      <c r="C19" s="85"/>
-      <c r="D19" s="84"/>
-      <c r="E19" s="87"/>
-      <c r="F19" s="87"/>
-      <c r="G19" s="87"/>
-      <c r="H19" s="87"/>
+      <c r="B19" s="103"/>
+      <c r="C19" s="104"/>
+      <c r="D19" s="103"/>
+      <c r="E19" s="106"/>
+      <c r="F19" s="106"/>
+      <c r="G19" s="106"/>
+      <c r="H19" s="106"/>
     </row>
     <row r="20" spans="2:8">
-      <c r="B20" s="87"/>
-      <c r="C20" s="88"/>
-      <c r="D20" s="87"/>
-      <c r="E20" s="87"/>
-      <c r="F20" s="87"/>
-      <c r="G20" s="87"/>
-      <c r="H20" s="87"/>
+      <c r="B20" s="106"/>
+      <c r="C20" s="107"/>
+      <c r="D20" s="106"/>
+      <c r="E20" s="106"/>
+      <c r="F20" s="106"/>
+      <c r="G20" s="106"/>
+      <c r="H20" s="106"/>
     </row>
     <row r="21" spans="2:8">
-      <c r="B21" s="87"/>
-      <c r="C21" s="88"/>
-      <c r="D21" s="87"/>
-      <c r="E21" s="87"/>
-      <c r="F21" s="87"/>
-      <c r="G21" s="87"/>
-      <c r="H21" s="87"/>
+      <c r="B21" s="106"/>
+      <c r="C21" s="107"/>
+      <c r="D21" s="106"/>
+      <c r="E21" s="106"/>
+      <c r="F21" s="106"/>
+      <c r="G21" s="106"/>
+      <c r="H21" s="106"/>
     </row>
     <row r="22" spans="2:8">
-      <c r="B22" s="87"/>
-      <c r="C22" s="88"/>
-      <c r="D22" s="87"/>
-      <c r="E22" s="87"/>
-      <c r="F22" s="87"/>
-      <c r="G22" s="87"/>
-      <c r="H22" s="87"/>
+      <c r="B22" s="106"/>
+      <c r="C22" s="107"/>
+      <c r="D22" s="106"/>
+      <c r="E22" s="106"/>
+      <c r="F22" s="106"/>
+      <c r="G22" s="106"/>
+      <c r="H22" s="106"/>
     </row>
     <row r="23" spans="2:8">
-      <c r="B23" s="87"/>
-      <c r="C23" s="88"/>
-      <c r="D23" s="87"/>
-      <c r="E23" s="87"/>
-      <c r="F23" s="87"/>
-      <c r="G23" s="87"/>
-      <c r="H23" s="87"/>
+      <c r="B23" s="106"/>
+      <c r="C23" s="107"/>
+      <c r="D23" s="106"/>
+      <c r="E23" s="106"/>
+      <c r="F23" s="106"/>
+      <c r="G23" s="106"/>
+      <c r="H23" s="106"/>
     </row>
     <row r="24" spans="2:8">
-      <c r="B24" s="87"/>
-      <c r="C24" s="88"/>
-      <c r="D24" s="87"/>
-      <c r="E24" s="87"/>
-      <c r="F24" s="87"/>
-      <c r="G24" s="87"/>
-      <c r="H24" s="87"/>
+      <c r="B24" s="106"/>
+      <c r="C24" s="107"/>
+      <c r="D24" s="106"/>
+      <c r="E24" s="106"/>
+      <c r="F24" s="106"/>
+      <c r="G24" s="106"/>
+      <c r="H24" s="106"/>
     </row>
     <row r="25" spans="2:8">
-      <c r="B25" s="87"/>
-      <c r="C25" s="88"/>
-      <c r="D25" s="87"/>
-      <c r="E25" s="87"/>
-      <c r="F25" s="87"/>
-      <c r="G25" s="87"/>
-      <c r="H25" s="87"/>
+      <c r="B25" s="106"/>
+      <c r="C25" s="107"/>
+      <c r="D25" s="106"/>
+      <c r="E25" s="106"/>
+      <c r="F25" s="106"/>
+      <c r="G25" s="106"/>
+      <c r="H25" s="106"/>
     </row>
     <row r="26" spans="2:8">
-      <c r="B26" s="87"/>
-      <c r="C26" s="88"/>
-      <c r="D26" s="87"/>
-      <c r="E26" s="87"/>
-      <c r="F26" s="87"/>
-      <c r="G26" s="87"/>
-      <c r="H26" s="87"/>
+      <c r="B26" s="106"/>
+      <c r="C26" s="107"/>
+      <c r="D26" s="106"/>
+      <c r="E26" s="106"/>
+      <c r="F26" s="106"/>
+      <c r="G26" s="106"/>
+      <c r="H26" s="106"/>
     </row>
     <row r="27" spans="2:8">
-      <c r="B27" s="87"/>
-      <c r="C27" s="88"/>
-      <c r="D27" s="87"/>
-      <c r="E27" s="87"/>
-      <c r="F27" s="87"/>
-      <c r="G27" s="87"/>
-      <c r="H27" s="87"/>
+      <c r="B27" s="106"/>
+      <c r="C27" s="107"/>
+      <c r="D27" s="106"/>
+      <c r="E27" s="106"/>
+      <c r="F27" s="106"/>
+      <c r="G27" s="106"/>
+      <c r="H27" s="106"/>
     </row>
     <row r="28" spans="2:8">
-      <c r="B28" s="87"/>
-      <c r="C28" s="88"/>
-      <c r="D28" s="87"/>
-      <c r="E28" s="87"/>
-      <c r="F28" s="87"/>
-      <c r="G28" s="87"/>
-      <c r="H28" s="87"/>
+      <c r="B28" s="106"/>
+      <c r="C28" s="107"/>
+      <c r="D28" s="106"/>
+      <c r="E28" s="106"/>
+      <c r="F28" s="106"/>
+      <c r="G28" s="106"/>
+      <c r="H28" s="106"/>
     </row>
     <row r="29" spans="2:8">
-      <c r="B29" s="87"/>
-      <c r="C29" s="88"/>
-      <c r="D29" s="87"/>
-      <c r="E29" s="87"/>
-      <c r="F29" s="87"/>
-      <c r="G29" s="87"/>
-      <c r="H29" s="87"/>
+      <c r="B29" s="106"/>
+      <c r="C29" s="107"/>
+      <c r="D29" s="106"/>
+      <c r="E29" s="106"/>
+      <c r="F29" s="106"/>
+      <c r="G29" s="106"/>
+      <c r="H29" s="106"/>
     </row>
     <row r="30" spans="2:8">
-      <c r="B30" s="87"/>
-      <c r="C30" s="88"/>
-      <c r="D30" s="87"/>
-      <c r="E30" s="87"/>
-      <c r="F30" s="87"/>
-      <c r="G30" s="87"/>
-      <c r="H30" s="87"/>
+      <c r="B30" s="106"/>
+      <c r="C30" s="107"/>
+      <c r="D30" s="106"/>
+      <c r="E30" s="106"/>
+      <c r="F30" s="106"/>
+      <c r="G30" s="106"/>
+      <c r="H30" s="106"/>
     </row>
     <row r="31" spans="2:8">
-      <c r="B31" s="87"/>
-      <c r="C31" s="88"/>
-      <c r="D31" s="87"/>
-      <c r="E31" s="87"/>
-      <c r="F31" s="87"/>
-      <c r="G31" s="87"/>
-      <c r="H31" s="87"/>
+      <c r="B31" s="106"/>
+      <c r="C31" s="107"/>
+      <c r="D31" s="106"/>
+      <c r="E31" s="106"/>
+      <c r="F31" s="106"/>
+      <c r="G31" s="106"/>
+      <c r="H31" s="106"/>
     </row>
     <row r="32" spans="2:8">
-      <c r="B32" s="87"/>
-      <c r="C32" s="88"/>
-      <c r="D32" s="87"/>
-      <c r="E32" s="87"/>
-      <c r="F32" s="87"/>
-      <c r="G32" s="87"/>
-      <c r="H32" s="87"/>
+      <c r="B32" s="106"/>
+      <c r="C32" s="107"/>
+      <c r="D32" s="106"/>
+      <c r="E32" s="106"/>
+      <c r="F32" s="106"/>
+      <c r="G32" s="106"/>
+      <c r="H32" s="106"/>
     </row>
     <row r="33" spans="2:8">
-      <c r="B33" s="87"/>
-      <c r="C33" s="88"/>
-      <c r="D33" s="87"/>
-      <c r="E33" s="87"/>
-      <c r="F33" s="87"/>
-      <c r="G33" s="87"/>
-      <c r="H33" s="87"/>
+      <c r="B33" s="106"/>
+      <c r="C33" s="107"/>
+      <c r="D33" s="106"/>
+      <c r="E33" s="106"/>
+      <c r="F33" s="106"/>
+      <c r="G33" s="106"/>
+      <c r="H33" s="106"/>
     </row>
     <row r="34" spans="2:8">
-      <c r="B34" s="89"/>
-      <c r="D34" s="89"/>
-      <c r="E34" s="89"/>
-      <c r="F34" s="89"/>
-      <c r="G34" s="89"/>
-      <c r="H34" s="89"/>
+      <c r="B34" s="108"/>
+      <c r="D34" s="108"/>
+      <c r="E34" s="108"/>
+      <c r="F34" s="108"/>
+      <c r="G34" s="108"/>
+      <c r="H34" s="108"/>
     </row>
     <row r="35" spans="2:8">
-      <c r="B35" s="89"/>
-      <c r="D35" s="89"/>
-      <c r="E35" s="89"/>
-      <c r="F35" s="89"/>
-      <c r="G35" s="89"/>
-      <c r="H35" s="89"/>
+      <c r="B35" s="108"/>
+      <c r="D35" s="108"/>
+      <c r="E35" s="108"/>
+      <c r="F35" s="108"/>
+      <c r="G35" s="108"/>
+      <c r="H35" s="108"/>
     </row>
     <row r="36" spans="2:8">
-      <c r="B36" s="89"/>
-      <c r="D36" s="89"/>
-      <c r="E36" s="89"/>
-      <c r="F36" s="89"/>
-      <c r="G36" s="89"/>
-      <c r="H36" s="89"/>
+      <c r="B36" s="108"/>
+      <c r="D36" s="108"/>
+      <c r="E36" s="108"/>
+      <c r="F36" s="108"/>
+      <c r="G36" s="108"/>
+      <c r="H36" s="108"/>
     </row>
     <row r="37" spans="2:8">
-      <c r="B37" s="89"/>
-      <c r="D37" s="89"/>
-      <c r="E37" s="89"/>
-      <c r="F37" s="89"/>
-      <c r="G37" s="89"/>
-      <c r="H37" s="89"/>
+      <c r="B37" s="108"/>
+      <c r="D37" s="108"/>
+      <c r="E37" s="108"/>
+      <c r="F37" s="108"/>
+      <c r="G37" s="108"/>
+      <c r="H37" s="108"/>
     </row>
     <row r="38" spans="2:8">
-      <c r="B38" s="89"/>
-      <c r="D38" s="89"/>
-      <c r="E38" s="89"/>
-      <c r="F38" s="89"/>
-      <c r="G38" s="89"/>
-      <c r="H38" s="89"/>
+      <c r="B38" s="108"/>
+      <c r="D38" s="108"/>
+      <c r="E38" s="108"/>
+      <c r="F38" s="108"/>
+      <c r="G38" s="108"/>
+      <c r="H38" s="108"/>
     </row>
     <row r="39" spans="2:8">
-      <c r="B39" s="89"/>
-      <c r="D39" s="89"/>
-      <c r="E39" s="89"/>
-      <c r="F39" s="89"/>
-      <c r="G39" s="89"/>
-      <c r="H39" s="89"/>
+      <c r="B39" s="108"/>
+      <c r="D39" s="108"/>
+      <c r="E39" s="108"/>
+      <c r="F39" s="108"/>
+      <c r="G39" s="108"/>
+      <c r="H39" s="108"/>
     </row>
     <row r="40" spans="2:8">
-      <c r="B40" s="89"/>
-      <c r="D40" s="89"/>
-      <c r="E40" s="89"/>
-      <c r="F40" s="89"/>
-      <c r="G40" s="89"/>
-      <c r="H40" s="89"/>
+      <c r="B40" s="108"/>
+      <c r="D40" s="108"/>
+      <c r="E40" s="108"/>
+      <c r="F40" s="108"/>
+      <c r="G40" s="108"/>
+      <c r="H40" s="108"/>
     </row>
     <row r="41" spans="2:8">
-      <c r="B41" s="89"/>
-      <c r="D41" s="89"/>
-      <c r="E41" s="89"/>
-      <c r="F41" s="89"/>
-      <c r="G41" s="89"/>
-      <c r="H41" s="89"/>
+      <c r="B41" s="108"/>
+      <c r="D41" s="108"/>
+      <c r="E41" s="108"/>
+      <c r="F41" s="108"/>
+      <c r="G41" s="108"/>
+      <c r="H41" s="108"/>
     </row>
     <row r="42" spans="2:8">
-      <c r="B42" s="89"/>
-      <c r="D42" s="89"/>
-      <c r="E42" s="89"/>
-      <c r="F42" s="89"/>
-      <c r="G42" s="89"/>
-      <c r="H42" s="89"/>
+      <c r="B42" s="108"/>
+      <c r="D42" s="108"/>
+      <c r="E42" s="108"/>
+      <c r="F42" s="108"/>
+      <c r="G42" s="108"/>
+      <c r="H42" s="108"/>
     </row>
     <row r="43" spans="2:8">
-      <c r="B43" s="89"/>
-      <c r="D43" s="89"/>
-      <c r="E43" s="89"/>
-      <c r="F43" s="89"/>
-      <c r="G43" s="89"/>
-      <c r="H43" s="89"/>
+      <c r="B43" s="108"/>
+      <c r="D43" s="108"/>
+      <c r="E43" s="108"/>
+      <c r="F43" s="108"/>
+      <c r="G43" s="108"/>
+      <c r="H43" s="108"/>
     </row>
     <row r="44" spans="2:8">
-      <c r="B44" s="89"/>
-      <c r="D44" s="89"/>
-      <c r="E44" s="89"/>
-      <c r="F44" s="89"/>
-      <c r="G44" s="89"/>
-      <c r="H44" s="89"/>
+      <c r="B44" s="108"/>
+      <c r="D44" s="108"/>
+      <c r="E44" s="108"/>
+      <c r="F44" s="108"/>
+      <c r="G44" s="108"/>
+      <c r="H44" s="108"/>
     </row>
     <row r="45" spans="2:8">
-      <c r="B45" s="89"/>
-      <c r="D45" s="89"/>
-      <c r="E45" s="89"/>
-      <c r="F45" s="89"/>
-      <c r="G45" s="89"/>
-      <c r="H45" s="89"/>
+      <c r="B45" s="108"/>
+      <c r="D45" s="108"/>
+      <c r="E45" s="108"/>
+      <c r="F45" s="108"/>
+      <c r="G45" s="108"/>
+      <c r="H45" s="108"/>
     </row>
     <row r="46" spans="2:8">
-      <c r="B46" s="89"/>
-      <c r="D46" s="89"/>
-      <c r="E46" s="89"/>
-      <c r="F46" s="89"/>
-      <c r="G46" s="89"/>
-      <c r="H46" s="89"/>
+      <c r="B46" s="108"/>
+      <c r="D46" s="108"/>
+      <c r="E46" s="108"/>
+      <c r="F46" s="108"/>
+      <c r="G46" s="108"/>
+      <c r="H46" s="108"/>
     </row>
     <row r="47" spans="2:8">
-      <c r="B47" s="89"/>
-      <c r="D47" s="89"/>
-      <c r="E47" s="89"/>
-      <c r="F47" s="89"/>
-      <c r="G47" s="89"/>
-      <c r="H47" s="89"/>
+      <c r="B47" s="108"/>
+      <c r="D47" s="108"/>
+      <c r="E47" s="108"/>
+      <c r="F47" s="108"/>
+      <c r="G47" s="108"/>
+      <c r="H47" s="108"/>
     </row>
     <row r="48" spans="2:8">
-      <c r="B48" s="89"/>
-      <c r="D48" s="89"/>
-      <c r="E48" s="89"/>
-      <c r="F48" s="89"/>
-      <c r="G48" s="89"/>
-      <c r="H48" s="89"/>
+      <c r="B48" s="108"/>
+      <c r="D48" s="108"/>
+      <c r="E48" s="108"/>
+      <c r="F48" s="108"/>
+      <c r="G48" s="108"/>
+      <c r="H48" s="108"/>
     </row>
     <row r="49" spans="2:8">
-      <c r="B49" s="89"/>
-      <c r="D49" s="89"/>
-      <c r="E49" s="89"/>
-      <c r="F49" s="89"/>
-      <c r="G49" s="89"/>
-      <c r="H49" s="89"/>
+      <c r="B49" s="108"/>
+      <c r="D49" s="108"/>
+      <c r="E49" s="108"/>
+      <c r="F49" s="108"/>
+      <c r="G49" s="108"/>
+      <c r="H49" s="108"/>
     </row>
     <row r="50" spans="2:8">
-      <c r="B50" s="89"/>
-      <c r="D50" s="89"/>
-      <c r="E50" s="89"/>
-      <c r="F50" s="89"/>
-      <c r="G50" s="89"/>
-      <c r="H50" s="89"/>
+      <c r="B50" s="108"/>
+      <c r="D50" s="108"/>
+      <c r="E50" s="108"/>
+      <c r="F50" s="108"/>
+      <c r="G50" s="108"/>
+      <c r="H50" s="108"/>
     </row>
     <row r="51" spans="2:8">
-      <c r="B51" s="89"/>
-      <c r="D51" s="89"/>
-      <c r="E51" s="89"/>
-      <c r="F51" s="89"/>
-      <c r="G51" s="89"/>
-      <c r="H51" s="89"/>
+      <c r="B51" s="108"/>
+      <c r="D51" s="108"/>
+      <c r="E51" s="108"/>
+      <c r="F51" s="108"/>
+      <c r="G51" s="108"/>
+      <c r="H51" s="108"/>
     </row>
     <row r="52" spans="2:8">
-      <c r="B52" s="89"/>
-      <c r="D52" s="89"/>
-      <c r="E52" s="89"/>
-      <c r="F52" s="89"/>
-      <c r="G52" s="89"/>
-      <c r="H52" s="89"/>
+      <c r="B52" s="108"/>
+      <c r="D52" s="108"/>
+      <c r="E52" s="108"/>
+      <c r="F52" s="108"/>
+      <c r="G52" s="108"/>
+      <c r="H52" s="108"/>
     </row>
     <row r="53" spans="2:8">
-      <c r="B53" s="89"/>
-      <c r="D53" s="89"/>
-      <c r="E53" s="89"/>
-      <c r="F53" s="89"/>
-      <c r="G53" s="89"/>
-      <c r="H53" s="89"/>
+      <c r="B53" s="108"/>
+      <c r="D53" s="108"/>
+      <c r="E53" s="108"/>
+      <c r="F53" s="108"/>
+      <c r="G53" s="108"/>
+      <c r="H53" s="108"/>
     </row>
     <row r="54" spans="2:8">
-      <c r="B54" s="89"/>
-      <c r="D54" s="89"/>
-      <c r="E54" s="89"/>
-      <c r="F54" s="89"/>
-      <c r="G54" s="89"/>
-      <c r="H54" s="89"/>
+      <c r="B54" s="108"/>
+      <c r="D54" s="108"/>
+      <c r="E54" s="108"/>
+      <c r="F54" s="108"/>
+      <c r="G54" s="108"/>
+      <c r="H54" s="108"/>
     </row>
     <row r="55" spans="2:8">
-      <c r="B55" s="89"/>
-      <c r="D55" s="89"/>
-      <c r="E55" s="89"/>
-      <c r="F55" s="89"/>
-      <c r="G55" s="89"/>
-      <c r="H55" s="89"/>
+      <c r="B55" s="108"/>
+      <c r="D55" s="108"/>
+      <c r="E55" s="108"/>
+      <c r="F55" s="108"/>
+      <c r="G55" s="108"/>
+      <c r="H55" s="108"/>
     </row>
     <row r="56" spans="2:8">
-      <c r="B56" s="89"/>
-      <c r="D56" s="89"/>
-      <c r="E56" s="89"/>
-      <c r="F56" s="89"/>
-      <c r="G56" s="89"/>
-      <c r="H56" s="89"/>
+      <c r="B56" s="108"/>
+      <c r="D56" s="108"/>
+      <c r="E56" s="108"/>
+      <c r="F56" s="108"/>
+      <c r="G56" s="108"/>
+      <c r="H56" s="108"/>
     </row>
     <row r="57" spans="2:8">
-      <c r="B57" s="89"/>
-      <c r="D57" s="89"/>
-      <c r="E57" s="89"/>
-      <c r="F57" s="89"/>
-      <c r="G57" s="89"/>
-      <c r="H57" s="89"/>
+      <c r="B57" s="108"/>
+      <c r="D57" s="108"/>
+      <c r="E57" s="108"/>
+      <c r="F57" s="108"/>
+      <c r="G57" s="108"/>
+      <c r="H57" s="108"/>
     </row>
     <row r="58" spans="2:8">
-      <c r="B58" s="89"/>
-      <c r="D58" s="89"/>
-      <c r="E58" s="89"/>
-      <c r="F58" s="89"/>
-      <c r="G58" s="89"/>
-      <c r="H58" s="89"/>
+      <c r="B58" s="108"/>
+      <c r="D58" s="108"/>
+      <c r="E58" s="108"/>
+      <c r="F58" s="108"/>
+      <c r="G58" s="108"/>
+      <c r="H58" s="108"/>
     </row>
     <row r="59" spans="2:8">
-      <c r="B59" s="89"/>
-      <c r="D59" s="89"/>
-      <c r="E59" s="89"/>
-      <c r="F59" s="89"/>
-      <c r="G59" s="89"/>
-      <c r="H59" s="89"/>
+      <c r="B59" s="108"/>
+      <c r="D59" s="108"/>
+      <c r="E59" s="108"/>
+      <c r="F59" s="108"/>
+      <c r="G59" s="108"/>
+      <c r="H59" s="108"/>
     </row>
     <row r="60" spans="2:8">
-      <c r="B60" s="89"/>
-      <c r="D60" s="89"/>
-      <c r="E60" s="89"/>
-      <c r="F60" s="89"/>
-      <c r="G60" s="89"/>
-      <c r="H60" s="89"/>
+      <c r="B60" s="108"/>
+      <c r="D60" s="108"/>
+      <c r="E60" s="108"/>
+      <c r="F60" s="108"/>
+      <c r="G60" s="108"/>
+      <c r="H60" s="108"/>
     </row>
     <row r="61" spans="2:8">
-      <c r="B61" s="89"/>
-      <c r="D61" s="89"/>
-      <c r="E61" s="89"/>
-      <c r="F61" s="89"/>
-      <c r="G61" s="89"/>
-      <c r="H61" s="89"/>
+      <c r="B61" s="108"/>
+      <c r="D61" s="108"/>
+      <c r="E61" s="108"/>
+      <c r="F61" s="108"/>
+      <c r="G61" s="108"/>
+      <c r="H61" s="108"/>
     </row>
   </sheetData>
   <mergeCells count="1">
     <mergeCell ref="F2:G2"/>
   </mergeCells>
   <conditionalFormatting sqref="I11">
-    <cfRule type="cellIs" dxfId="27" priority="9" operator="equal">
+    <cfRule type="cellIs" dxfId="15" priority="9" operator="equal">
       <formula>"Não Planejado"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="28" priority="10" operator="equal">
+    <cfRule type="cellIs" dxfId="16" priority="10" operator="equal">
       <formula>"Finalizado"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="29" priority="11" operator="equal">
+    <cfRule type="cellIs" dxfId="17" priority="11" operator="equal">
       <formula>"Não Iniciado"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="30" priority="12" operator="equal">
+    <cfRule type="cellIs" dxfId="18" priority="12" operator="equal">
       <formula>"Em Andamento"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I12">
-    <cfRule type="cellIs" dxfId="27" priority="5" operator="equal">
+    <cfRule type="cellIs" dxfId="15" priority="5" operator="equal">
       <formula>"Não Planejado"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="28" priority="6" operator="equal">
+    <cfRule type="cellIs" dxfId="16" priority="6" operator="equal">
       <formula>"Finalizado"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="29" priority="7" operator="equal">
+    <cfRule type="cellIs" dxfId="17" priority="7" operator="equal">
       <formula>"Não Iniciado"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="30" priority="8" operator="equal">
+    <cfRule type="cellIs" dxfId="18" priority="8" operator="equal">
       <formula>"Em Andamento"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I13">
-    <cfRule type="cellIs" dxfId="27" priority="1" operator="equal">
+    <cfRule type="cellIs" dxfId="15" priority="1" operator="equal">
       <formula>"Não Planejado"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="28" priority="2" operator="equal">
+    <cfRule type="cellIs" dxfId="16" priority="2" operator="equal">
       <formula>"Finalizado"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="29" priority="3" operator="equal">
+    <cfRule type="cellIs" dxfId="17" priority="3" operator="equal">
       <formula>"Não Iniciado"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="30" priority="4" operator="equal">
+    <cfRule type="cellIs" dxfId="18" priority="4" operator="equal">
       <formula>"Em Andamento"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I5:I10">
-    <cfRule type="cellIs" dxfId="27" priority="180" operator="equal">
+    <cfRule type="cellIs" dxfId="15" priority="180" operator="equal">
       <formula>"Não Planejado"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="28" priority="181" operator="equal">
+    <cfRule type="cellIs" dxfId="16" priority="181" operator="equal">
       <formula>"Finalizado"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="29" priority="182" operator="equal">
+    <cfRule type="cellIs" dxfId="17" priority="182" operator="equal">
       <formula>"Não Iniciado"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="30" priority="183" operator="equal">
+    <cfRule type="cellIs" dxfId="18" priority="183" operator="equal">
       <formula>"Em Andamento"</formula>
     </cfRule>
   </conditionalFormatting>
@@ -8136,13 +7510,646 @@
 </worksheet>
 </file>
 
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+  <sheetPr/>
+  <dimension ref="A1:AA12"/>
+  <sheetViews>
+    <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
+      <selection activeCell="L19" sqref="L19"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="8.85714285714286" defaultRowHeight="15"/>
+  <cols>
+    <col min="1" max="1" width="5.42857142857143" style="73" customWidth="1"/>
+    <col min="2" max="2" width="6.14285714285714" style="73" customWidth="1"/>
+    <col min="3" max="3" width="7.57142857142857" style="73" customWidth="1"/>
+    <col min="4" max="4" width="13.2857142857143" style="73" customWidth="1"/>
+    <col min="5" max="5" width="11.2857142857143" style="73" customWidth="1"/>
+    <col min="6" max="6" width="12.8571428571429" style="73" customWidth="1"/>
+    <col min="7" max="7" width="12.4285714285714" style="73" customWidth="1"/>
+    <col min="8" max="8" width="10.5714285714286" style="73" customWidth="1"/>
+    <col min="9" max="9" width="7.28571428571429" style="73" customWidth="1"/>
+    <col min="10" max="10" width="11.2857142857143" style="73" customWidth="1"/>
+    <col min="11" max="11" width="7" style="73" customWidth="1"/>
+    <col min="12" max="12" width="12.4285714285714" style="73" customWidth="1"/>
+    <col min="13" max="13" width="7.57142857142857" style="73" customWidth="1"/>
+    <col min="14" max="15" width="3.57142857142857" style="73" customWidth="1"/>
+    <col min="16" max="17" width="8.85714285714286" style="73"/>
+    <col min="18" max="18" width="11.7142857142857" style="73" customWidth="1"/>
+    <col min="19" max="22" width="8.85714285714286" style="73"/>
+    <col min="23" max="23" width="13.1428571428571" style="73" customWidth="1"/>
+    <col min="24" max="24" width="8.85714285714286" style="73"/>
+    <col min="25" max="25" width="12.7142857142857" style="73" customWidth="1"/>
+    <col min="26" max="16384" width="8.85714285714286" style="73"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="2:13">
+      <c r="B1" s="74"/>
+      <c r="C1" s="74"/>
+      <c r="D1" s="74"/>
+      <c r="E1" s="74"/>
+      <c r="F1" s="74"/>
+      <c r="G1" s="74"/>
+      <c r="H1" s="74"/>
+      <c r="I1" s="74"/>
+      <c r="J1" s="78"/>
+      <c r="K1" s="78"/>
+      <c r="L1" s="79"/>
+      <c r="M1" s="79"/>
+    </row>
+    <row r="2" ht="30" customHeight="1" spans="1:27">
+      <c r="A2" s="75" t="s">
+        <v>64</v>
+      </c>
+      <c r="B2" s="75" t="s">
+        <v>65</v>
+      </c>
+      <c r="C2" s="75" t="s">
+        <v>66</v>
+      </c>
+      <c r="D2" s="75" t="s">
+        <v>67</v>
+      </c>
+      <c r="E2" s="75" t="s">
+        <v>13</v>
+      </c>
+      <c r="F2" s="75" t="s">
+        <v>68</v>
+      </c>
+      <c r="G2" s="75" t="s">
+        <v>69</v>
+      </c>
+      <c r="H2" s="75" t="s">
+        <v>70</v>
+      </c>
+      <c r="I2" s="75" t="s">
+        <v>71</v>
+      </c>
+      <c r="J2" s="75" t="s">
+        <v>72</v>
+      </c>
+      <c r="K2" s="75" t="s">
+        <v>73</v>
+      </c>
+      <c r="L2" s="75" t="s">
+        <v>74</v>
+      </c>
+      <c r="N2" s="80"/>
+      <c r="O2" s="81" t="s">
+        <v>75</v>
+      </c>
+      <c r="P2" s="82"/>
+      <c r="Q2" s="82"/>
+      <c r="R2" s="82"/>
+      <c r="S2" s="82"/>
+      <c r="T2" s="82"/>
+      <c r="U2" s="82"/>
+      <c r="V2" s="82"/>
+      <c r="W2" s="82"/>
+      <c r="X2" s="82"/>
+      <c r="Y2" s="82"/>
+      <c r="Z2" s="83"/>
+      <c r="AA2" s="83"/>
+    </row>
+    <row r="3" spans="1:12">
+      <c r="A3" s="76">
+        <v>0</v>
+      </c>
+      <c r="B3" s="77">
+        <f>INDEX(Alocação,1,Burndown[[#This Row],[Dia '#]]+1)</f>
+        <v>43689</v>
+      </c>
+      <c r="C3" s="76">
+        <f>INDEX(Alocação,ROWS(Alocação)-2,1+Burndown[[#This Row],[Dia '#]])</f>
+        <v>10</v>
+      </c>
+      <c r="D3" s="76">
+        <f>IF(Burndown[[#This Row],[Produzido / Dia (Horas)]]="",0,Burndown[[#This Row],[Produzido / Dia (Horas)]])</f>
+        <v>10</v>
+      </c>
+      <c r="E3" s="76">
+        <f>Velocidade</f>
+        <v>10</v>
+      </c>
+      <c r="F3" s="76">
+        <f ca="1">IF(Burndown[[#This Row],[Velocidade]]="",OFFSET(Burndown[[#This Row],[Produzido Previsto]],-1,0),ROUND(Burndown[[#This Row],[Produzido Acumulado (Horas)]]/Burndown[[#This Row],[Velocidade]],2))</f>
+        <v>1</v>
+      </c>
+      <c r="G3" s="76">
+        <f ca="1">MAX(TamanhoSprint-Burndown[[#This Row],[Produzido Previsto]],0)</f>
+        <v>11</v>
+      </c>
+      <c r="H3" s="76">
+        <f ca="1">IF(Burndown[[#This Row],[Produzido Real]]="",NA(),(Burndown[[#This Row],[Restante Real]]+Burndown[[#This Row],[Ajuste]])-Burndown[[#This Row],[Restante Previsto]])</f>
+        <v>0.640000000000001</v>
+      </c>
+      <c r="I3" s="76">
+        <v>0.36</v>
+      </c>
+      <c r="J3" s="76"/>
+      <c r="K3" s="76">
+        <f>TamanhoSprint-Burndown[[#This Row],[Produzido Real]]</f>
+        <v>11.64</v>
+      </c>
+      <c r="L3" s="76">
+        <f>IF(Burndown[[#This Row],[Produzido Real]]&lt;&gt;"",Burndown[[#This Row],[Restante Real]]+Burndown[[#This Row],[Ajuste]],NA())</f>
+        <v>11.64</v>
+      </c>
+    </row>
+    <row r="4" spans="1:12">
+      <c r="A4" s="76">
+        <v>1</v>
+      </c>
+      <c r="B4" s="77">
+        <f>INDEX(Alocação,1,Burndown[[#This Row],[Dia '#]]+1)</f>
+        <v>43690</v>
+      </c>
+      <c r="C4" s="76">
+        <f>INDEX(Alocação,ROWS(Alocação)-2,1+Burndown[[#This Row],[Dia '#]])</f>
+        <v>25</v>
+      </c>
+      <c r="D4" s="76">
+        <f ca="1">IF(Burndown[[#This Row],[Produzido / Dia (Horas)]]="",0,Burndown[[#This Row],[Produzido / Dia (Horas)]])+OFFSET(Burndown[[#This Row],[Produzido Acumulado (Horas)]],-1,0)</f>
+        <v>35</v>
+      </c>
+      <c r="E4" s="76">
+        <f>Velocidade</f>
+        <v>10</v>
+      </c>
+      <c r="F4" s="76">
+        <f ca="1">IF(Burndown[[#This Row],[Velocidade]]="",OFFSET(Burndown[[#This Row],[Produzido Previsto]],-1,0),ROUND(Burndown[[#This Row],[Produzido Acumulado (Horas)]]/Burndown[[#This Row],[Velocidade]],2))</f>
+        <v>3.5</v>
+      </c>
+      <c r="G4" s="76">
+        <f ca="1">MAX(TamanhoSprint-Burndown[[#This Row],[Produzido Previsto]],0)</f>
+        <v>8.5</v>
+      </c>
+      <c r="H4" s="76">
+        <f ca="1">IF(Burndown[[#This Row],[Produzido Real]]="",NA(),(Burndown[[#This Row],[Restante Real]]+Burndown[[#This Row],[Ajuste]])-Burndown[[#This Row],[Restante Previsto]])</f>
+        <v>0.539999999999999</v>
+      </c>
+      <c r="I4" s="76">
+        <v>2.96</v>
+      </c>
+      <c r="J4" s="76"/>
+      <c r="K4" s="76">
+        <f>TamanhoSprint-Burndown[[#This Row],[Produzido Real]]</f>
+        <v>9.04</v>
+      </c>
+      <c r="L4" s="76">
+        <f>IF(Burndown[[#This Row],[Produzido Real]]&lt;&gt;"",Burndown[[#This Row],[Restante Real]]+Burndown[[#This Row],[Ajuste]],NA())</f>
+        <v>9.04</v>
+      </c>
+    </row>
+    <row r="5" spans="1:12">
+      <c r="A5" s="76">
+        <v>2</v>
+      </c>
+      <c r="B5" s="77">
+        <f>INDEX(Alocação,1,Burndown[[#This Row],[Dia '#]]+1)</f>
+        <v>43691</v>
+      </c>
+      <c r="C5" s="76">
+        <f>INDEX(Alocação,ROWS(Alocação)-2,1+Burndown[[#This Row],[Dia '#]])</f>
+        <v>21</v>
+      </c>
+      <c r="D5" s="76">
+        <f ca="1">IF(Burndown[[#This Row],[Produzido / Dia (Horas)]]="",0,Burndown[[#This Row],[Produzido / Dia (Horas)]])+OFFSET(Burndown[[#This Row],[Produzido Acumulado (Horas)]],-1,0)</f>
+        <v>56</v>
+      </c>
+      <c r="E5" s="76">
+        <f>Velocidade</f>
+        <v>10</v>
+      </c>
+      <c r="F5" s="76">
+        <f ca="1">IF(Burndown[[#This Row],[Velocidade]]="",OFFSET(Burndown[[#This Row],[Produzido Previsto]],-1,0),ROUND(Burndown[[#This Row],[Produzido Acumulado (Horas)]]/Burndown[[#This Row],[Velocidade]],2))</f>
+        <v>5.6</v>
+      </c>
+      <c r="G5" s="76">
+        <f ca="1">MAX(TamanhoSprint-Burndown[[#This Row],[Produzido Previsto]],0)</f>
+        <v>6.4</v>
+      </c>
+      <c r="H5" s="76" t="e">
+        <f ca="1">IF(Burndown[[#This Row],[Produzido Real]]="",NA(),(Burndown[[#This Row],[Restante Real]]+Burndown[[#This Row],[Ajuste]])-Burndown[[#This Row],[Restante Previsto]])</f>
+        <v>#N/A</v>
+      </c>
+      <c r="I5" s="76"/>
+      <c r="J5" s="76"/>
+      <c r="K5" s="76">
+        <f>TamanhoSprint-Burndown[[#This Row],[Produzido Real]]</f>
+        <v>12</v>
+      </c>
+      <c r="L5" s="76" t="e">
+        <f>IF(Burndown[[#This Row],[Produzido Real]]&lt;&gt;"",Burndown[[#This Row],[Restante Real]]+Burndown[[#This Row],[Ajuste]],NA())</f>
+        <v>#N/A</v>
+      </c>
+    </row>
+    <row r="6" spans="1:12">
+      <c r="A6" s="76">
+        <v>3</v>
+      </c>
+      <c r="B6" s="77">
+        <f>INDEX(Alocação,1,Burndown[[#This Row],[Dia '#]]+1)</f>
+        <v>43692</v>
+      </c>
+      <c r="C6" s="76" t="str">
+        <f>INDEX(Alocação,ROWS(Alocação)-2,1+Burndown[[#This Row],[Dia '#]])</f>
+        <v/>
+      </c>
+      <c r="D6" s="76">
+        <f ca="1">IF(Burndown[[#This Row],[Produzido / Dia (Horas)]]="",0,Burndown[[#This Row],[Produzido / Dia (Horas)]])+OFFSET(Burndown[[#This Row],[Produzido Acumulado (Horas)]],-1,0)</f>
+        <v>56</v>
+      </c>
+      <c r="E6" s="76">
+        <f>Velocidade</f>
+        <v>10</v>
+      </c>
+      <c r="F6" s="76">
+        <f ca="1">IF(Burndown[[#This Row],[Velocidade]]="",OFFSET(Burndown[[#This Row],[Produzido Previsto]],-1,0),ROUND(Burndown[[#This Row],[Produzido Acumulado (Horas)]]/Burndown[[#This Row],[Velocidade]],2))</f>
+        <v>5.6</v>
+      </c>
+      <c r="G6" s="76">
+        <f ca="1">MAX(TamanhoSprint-Burndown[[#This Row],[Produzido Previsto]],0)</f>
+        <v>6.4</v>
+      </c>
+      <c r="H6" s="76" t="e">
+        <f ca="1">IF(Burndown[[#This Row],[Produzido Real]]="",NA(),(Burndown[[#This Row],[Restante Real]]+Burndown[[#This Row],[Ajuste]])-Burndown[[#This Row],[Restante Previsto]])</f>
+        <v>#N/A</v>
+      </c>
+      <c r="I6" s="76"/>
+      <c r="J6" s="76"/>
+      <c r="K6" s="76">
+        <f>TamanhoSprint-Burndown[[#This Row],[Produzido Real]]</f>
+        <v>12</v>
+      </c>
+      <c r="L6" s="76" t="e">
+        <f>IF(Burndown[[#This Row],[Produzido Real]]&lt;&gt;"",Burndown[[#This Row],[Restante Real]]+Burndown[[#This Row],[Ajuste]],NA())</f>
+        <v>#N/A</v>
+      </c>
+    </row>
+    <row r="7" spans="1:12">
+      <c r="A7" s="76">
+        <v>4</v>
+      </c>
+      <c r="B7" s="77">
+        <f>INDEX(Alocação,1,Burndown[[#This Row],[Dia '#]]+1)</f>
+        <v>43693</v>
+      </c>
+      <c r="C7" s="76">
+        <f>INDEX(Alocação,ROWS(Alocação)-2,1+Burndown[[#This Row],[Dia '#]])</f>
+        <v>11</v>
+      </c>
+      <c r="D7" s="76">
+        <f ca="1">IF(Burndown[[#This Row],[Produzido / Dia (Horas)]]="",0,Burndown[[#This Row],[Produzido / Dia (Horas)]])+OFFSET(Burndown[[#This Row],[Produzido Acumulado (Horas)]],-1,0)</f>
+        <v>67</v>
+      </c>
+      <c r="E7" s="76">
+        <f>Velocidade</f>
+        <v>10</v>
+      </c>
+      <c r="F7" s="76">
+        <f ca="1">IF(Burndown[[#This Row],[Velocidade]]="",OFFSET(Burndown[[#This Row],[Produzido Previsto]],-1,0),ROUND(Burndown[[#This Row],[Produzido Acumulado (Horas)]]/Burndown[[#This Row],[Velocidade]],2))</f>
+        <v>6.7</v>
+      </c>
+      <c r="G7" s="76">
+        <f ca="1">MAX(TamanhoSprint-Burndown[[#This Row],[Produzido Previsto]],0)</f>
+        <v>5.3</v>
+      </c>
+      <c r="H7" s="76" t="e">
+        <f ca="1">IF(Burndown[[#This Row],[Produzido Real]]="",NA(),(Burndown[[#This Row],[Restante Real]]+Burndown[[#This Row],[Ajuste]])-Burndown[[#This Row],[Restante Previsto]])</f>
+        <v>#N/A</v>
+      </c>
+      <c r="I7" s="76"/>
+      <c r="J7" s="76"/>
+      <c r="K7" s="76">
+        <f>TamanhoSprint-Burndown[[#This Row],[Produzido Real]]</f>
+        <v>12</v>
+      </c>
+      <c r="L7" s="76" t="e">
+        <f>IF(Burndown[[#This Row],[Produzido Real]]&lt;&gt;"",Burndown[[#This Row],[Restante Real]]+Burndown[[#This Row],[Ajuste]],NA())</f>
+        <v>#N/A</v>
+      </c>
+    </row>
+    <row r="8" spans="1:12">
+      <c r="A8" s="76">
+        <v>5</v>
+      </c>
+      <c r="B8" s="77">
+        <f>INDEX(Alocação,1,Burndown[[#This Row],[Dia '#]]+1)</f>
+        <v>43696</v>
+      </c>
+      <c r="C8" s="76">
+        <f>INDEX(Alocação,ROWS(Alocação)-2,1+Burndown[[#This Row],[Dia '#]])</f>
+        <v>21</v>
+      </c>
+      <c r="D8" s="76">
+        <f ca="1">IF(Burndown[[#This Row],[Produzido / Dia (Horas)]]="",0,Burndown[[#This Row],[Produzido / Dia (Horas)]])+OFFSET(Burndown[[#This Row],[Produzido Acumulado (Horas)]],-1,0)</f>
+        <v>88</v>
+      </c>
+      <c r="E8" s="76">
+        <f>Velocidade</f>
+        <v>10</v>
+      </c>
+      <c r="F8" s="76">
+        <f ca="1">IF(Burndown[[#This Row],[Velocidade]]="",OFFSET(Burndown[[#This Row],[Produzido Previsto]],-1,0),ROUND(Burndown[[#This Row],[Produzido Acumulado (Horas)]]/Burndown[[#This Row],[Velocidade]],2))</f>
+        <v>8.8</v>
+      </c>
+      <c r="G8" s="76">
+        <f ca="1">MAX(TamanhoSprint-Burndown[[#This Row],[Produzido Previsto]],0)</f>
+        <v>3.2</v>
+      </c>
+      <c r="H8" s="76" t="e">
+        <f ca="1">IF(Burndown[[#This Row],[Produzido Real]]="",NA(),(Burndown[[#This Row],[Restante Real]]+Burndown[[#This Row],[Ajuste]])-Burndown[[#This Row],[Restante Previsto]])</f>
+        <v>#N/A</v>
+      </c>
+      <c r="I8" s="76"/>
+      <c r="J8" s="76"/>
+      <c r="K8" s="76">
+        <f>TamanhoSprint-Burndown[[#This Row],[Produzido Real]]</f>
+        <v>12</v>
+      </c>
+      <c r="L8" s="76" t="e">
+        <f>IF(Burndown[[#This Row],[Produzido Real]]&lt;&gt;"",Burndown[[#This Row],[Restante Real]]+Burndown[[#This Row],[Ajuste]],NA())</f>
+        <v>#N/A</v>
+      </c>
+    </row>
+    <row r="9" spans="1:12">
+      <c r="A9" s="76">
+        <v>6</v>
+      </c>
+      <c r="B9" s="77">
+        <f>INDEX(Alocação,1,Burndown[[#This Row],[Dia '#]]+1)</f>
+        <v>43697</v>
+      </c>
+      <c r="C9" s="76">
+        <f>INDEX(Alocação,ROWS(Alocação)-2,1+Burndown[[#This Row],[Dia '#]])</f>
+        <v>25</v>
+      </c>
+      <c r="D9" s="76">
+        <f ca="1">IF(Burndown[[#This Row],[Produzido / Dia (Horas)]]="",0,Burndown[[#This Row],[Produzido / Dia (Horas)]])+OFFSET(Burndown[[#This Row],[Produzido Acumulado (Horas)]],-1,0)</f>
+        <v>113</v>
+      </c>
+      <c r="E9" s="76">
+        <f>Velocidade</f>
+        <v>10</v>
+      </c>
+      <c r="F9" s="76">
+        <f ca="1">IF(Burndown[[#This Row],[Velocidade]]="",OFFSET(Burndown[[#This Row],[Produzido Previsto]],-1,0),ROUND(Burndown[[#This Row],[Produzido Acumulado (Horas)]]/Burndown[[#This Row],[Velocidade]],2))</f>
+        <v>11.3</v>
+      </c>
+      <c r="G9" s="76">
+        <f ca="1">MAX(TamanhoSprint-Burndown[[#This Row],[Produzido Previsto]],0)</f>
+        <v>0.699999999999999</v>
+      </c>
+      <c r="H9" s="76" t="e">
+        <f ca="1">IF(Burndown[[#This Row],[Produzido Real]]="",NA(),(Burndown[[#This Row],[Restante Real]]+Burndown[[#This Row],[Ajuste]])-Burndown[[#This Row],[Restante Previsto]])</f>
+        <v>#N/A</v>
+      </c>
+      <c r="I9" s="76"/>
+      <c r="J9" s="76"/>
+      <c r="K9" s="76">
+        <f>TamanhoSprint-Burndown[[#This Row],[Produzido Real]]</f>
+        <v>12</v>
+      </c>
+      <c r="L9" s="76" t="e">
+        <f>IF(Burndown[[#This Row],[Produzido Real]]&lt;&gt;"",Burndown[[#This Row],[Restante Real]]+Burndown[[#This Row],[Ajuste]],NA())</f>
+        <v>#N/A</v>
+      </c>
+    </row>
+    <row r="10" spans="1:12">
+      <c r="A10" s="76">
+        <v>7</v>
+      </c>
+      <c r="B10" s="77">
+        <f>INDEX(Alocação,1,Burndown[[#This Row],[Dia '#]]+1)</f>
+        <v>43698</v>
+      </c>
+      <c r="C10" s="76">
+        <f>INDEX(Alocação,ROWS(Alocação)-2,1+Burndown[[#This Row],[Dia '#]])</f>
+        <v>25</v>
+      </c>
+      <c r="D10" s="76">
+        <f ca="1">IF(Burndown[[#This Row],[Produzido / Dia (Horas)]]="",0,Burndown[[#This Row],[Produzido / Dia (Horas)]])+OFFSET(Burndown[[#This Row],[Produzido Acumulado (Horas)]],-1,0)</f>
+        <v>138</v>
+      </c>
+      <c r="E10" s="76">
+        <f>Velocidade</f>
+        <v>10</v>
+      </c>
+      <c r="F10" s="76">
+        <f ca="1">IF(Burndown[[#This Row],[Velocidade]]="",OFFSET(Burndown[[#This Row],[Produzido Previsto]],-1,0),ROUND(Burndown[[#This Row],[Produzido Acumulado (Horas)]]/Burndown[[#This Row],[Velocidade]],2))</f>
+        <v>13.8</v>
+      </c>
+      <c r="G10" s="76">
+        <f ca="1">MAX(TamanhoSprint-Burndown[[#This Row],[Produzido Previsto]],0)</f>
+        <v>0</v>
+      </c>
+      <c r="H10" s="76" t="e">
+        <f ca="1">IF(Burndown[[#This Row],[Produzido Real]]="",NA(),(Burndown[[#This Row],[Restante Real]]+Burndown[[#This Row],[Ajuste]])-Burndown[[#This Row],[Restante Previsto]])</f>
+        <v>#N/A</v>
+      </c>
+      <c r="I10" s="76"/>
+      <c r="J10" s="76"/>
+      <c r="K10" s="76">
+        <f>TamanhoSprint-Burndown[[#This Row],[Produzido Real]]</f>
+        <v>12</v>
+      </c>
+      <c r="L10" s="76" t="e">
+        <f>IF(Burndown[[#This Row],[Produzido Real]]&lt;&gt;"",Burndown[[#This Row],[Restante Real]]+Burndown[[#This Row],[Ajuste]],NA())</f>
+        <v>#N/A</v>
+      </c>
+    </row>
+    <row r="11" spans="1:12">
+      <c r="A11" s="76">
+        <v>8</v>
+      </c>
+      <c r="B11" s="77">
+        <f>INDEX(Alocação,1,Burndown[[#This Row],[Dia '#]]+1)</f>
+        <v>43699</v>
+      </c>
+      <c r="C11" s="76">
+        <f>INDEX(Alocação,ROWS(Alocação)-2,1+Burndown[[#This Row],[Dia '#]])</f>
+        <v>25</v>
+      </c>
+      <c r="D11" s="76">
+        <f ca="1">IF(Burndown[[#This Row],[Produzido / Dia (Horas)]]="",0,Burndown[[#This Row],[Produzido / Dia (Horas)]])+OFFSET(Burndown[[#This Row],[Produzido Acumulado (Horas)]],-1,0)</f>
+        <v>163</v>
+      </c>
+      <c r="E11" s="76">
+        <f>Velocidade</f>
+        <v>10</v>
+      </c>
+      <c r="F11" s="76">
+        <f ca="1">IF(Burndown[[#This Row],[Velocidade]]="",OFFSET(Burndown[[#This Row],[Produzido Previsto]],-1,0),ROUND(Burndown[[#This Row],[Produzido Acumulado (Horas)]]/Burndown[[#This Row],[Velocidade]],2))</f>
+        <v>16.3</v>
+      </c>
+      <c r="G11" s="76">
+        <f ca="1">MAX(TamanhoSprint-Burndown[[#This Row],[Produzido Previsto]],0)</f>
+        <v>0</v>
+      </c>
+      <c r="H11" s="76" t="e">
+        <f ca="1">IF(Burndown[[#This Row],[Produzido Real]]="",NA(),(Burndown[[#This Row],[Restante Real]]+Burndown[[#This Row],[Ajuste]])-Burndown[[#This Row],[Restante Previsto]])</f>
+        <v>#N/A</v>
+      </c>
+      <c r="I11" s="76"/>
+      <c r="J11" s="76"/>
+      <c r="K11" s="76">
+        <f>TamanhoSprint-Burndown[[#This Row],[Produzido Real]]</f>
+        <v>12</v>
+      </c>
+      <c r="L11" s="76" t="e">
+        <f>IF(Burndown[[#This Row],[Produzido Real]]&lt;&gt;"",Burndown[[#This Row],[Restante Real]]+Burndown[[#This Row],[Ajuste]],NA())</f>
+        <v>#N/A</v>
+      </c>
+    </row>
+    <row r="12" spans="1:12">
+      <c r="A12" s="76">
+        <v>9</v>
+      </c>
+      <c r="B12" s="77">
+        <f>INDEX(Alocação,1,Burndown[[#This Row],[Dia '#]]+1)</f>
+        <v>43700</v>
+      </c>
+      <c r="C12" s="76">
+        <f>INDEX(Alocação,ROWS(Alocação)-2,1+Burndown[[#This Row],[Dia '#]])</f>
+        <v>11</v>
+      </c>
+      <c r="D12" s="76">
+        <f ca="1">IF(Burndown[[#This Row],[Produzido / Dia (Horas)]]="",0,Burndown[[#This Row],[Produzido / Dia (Horas)]])+OFFSET(Burndown[[#This Row],[Produzido Acumulado (Horas)]],-1,0)</f>
+        <v>174</v>
+      </c>
+      <c r="E12" s="76">
+        <f>Velocidade</f>
+        <v>10</v>
+      </c>
+      <c r="F12" s="76">
+        <f ca="1">IF(Burndown[[#This Row],[Velocidade]]="",OFFSET(Burndown[[#This Row],[Produzido Previsto]],-1,0),ROUND(Burndown[[#This Row],[Produzido Acumulado (Horas)]]/Burndown[[#This Row],[Velocidade]],2))</f>
+        <v>17.4</v>
+      </c>
+      <c r="G12" s="76">
+        <f ca="1">MAX(TamanhoSprint-Burndown[[#This Row],[Produzido Previsto]],0)</f>
+        <v>0</v>
+      </c>
+      <c r="H12" s="76" t="e">
+        <f ca="1">IF(Burndown[[#This Row],[Produzido Real]]="",NA(),(Burndown[[#This Row],[Restante Real]]+Burndown[[#This Row],[Ajuste]])-Burndown[[#This Row],[Restante Previsto]])</f>
+        <v>#N/A</v>
+      </c>
+      <c r="I12" s="76"/>
+      <c r="J12" s="76"/>
+      <c r="K12" s="76">
+        <f>TamanhoSprint-Burndown[[#This Row],[Produzido Real]]</f>
+        <v>12</v>
+      </c>
+      <c r="L12" s="76" t="e">
+        <f>IF(Burndown[[#This Row],[Produzido Real]]&lt;&gt;"",Burndown[[#This Row],[Restante Real]]+Burndown[[#This Row],[Ajuste]],NA())</f>
+        <v>#N/A</v>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="1">
+    <mergeCell ref="O2:Y2"/>
+  </mergeCells>
+  <pageMargins left="0.511805555555556" right="0.511805555555556" top="0.786805555555556" bottom="0.786805555555556" header="0.313888888888889" footer="0.313888888888889"/>
+  <pageSetup paperSize="1" orientation="portrait"/>
+  <headerFooter/>
+  <drawing r:id="rId1"/>
+  <tableParts count="1">
+    <tablePart r:id="rId2"/>
+  </tableParts>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+  <sheetPr/>
+  <dimension ref="B2:F7"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="D11" sqref="D11"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="15" outlineLevelRow="6" outlineLevelCol="5"/>
+  <cols>
+    <col min="1" max="1" width="1.85714285714286" customWidth="1"/>
+    <col min="2" max="2" width="51.4285714285714" style="65" customWidth="1"/>
+    <col min="3" max="3" width="21.1428571428571" customWidth="1"/>
+    <col min="4" max="4" width="15.7142857142857" customWidth="1"/>
+    <col min="5" max="5" width="59.2857142857143" style="65" customWidth="1"/>
+    <col min="6" max="6" width="17.2857142857143" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="2" ht="18.75" spans="2:6">
+      <c r="B2" s="66" t="s">
+        <v>76</v>
+      </c>
+      <c r="C2" s="67" t="s">
+        <v>29</v>
+      </c>
+      <c r="D2" s="67" t="s">
+        <v>77</v>
+      </c>
+      <c r="E2" s="66" t="s">
+        <v>78</v>
+      </c>
+      <c r="F2" s="67" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="3" spans="2:6">
+      <c r="B3" s="68"/>
+      <c r="C3" s="69"/>
+      <c r="D3" s="70"/>
+      <c r="E3" s="71"/>
+      <c r="F3" s="70"/>
+    </row>
+    <row r="4" spans="2:6">
+      <c r="B4" s="72"/>
+      <c r="C4" s="69"/>
+      <c r="D4" s="70"/>
+      <c r="E4" s="71"/>
+      <c r="F4" s="70"/>
+    </row>
+    <row r="5" spans="2:6">
+      <c r="B5" s="68"/>
+      <c r="C5" s="69"/>
+      <c r="D5" s="70"/>
+      <c r="E5" s="71"/>
+      <c r="F5" s="70"/>
+    </row>
+    <row r="6" spans="2:6">
+      <c r="B6" s="72"/>
+      <c r="C6" s="69"/>
+      <c r="D6" s="70"/>
+      <c r="E6" s="71"/>
+      <c r="F6" s="70"/>
+    </row>
+    <row r="7" spans="2:6">
+      <c r="B7" s="68"/>
+      <c r="C7" s="69"/>
+      <c r="D7" s="70"/>
+      <c r="E7" s="71"/>
+      <c r="F7" s="70"/>
+    </row>
+  </sheetData>
+  <dataValidations count="1">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="C3:C7">
+      <formula1>Time</formula1>
+    </dataValidation>
+  </dataValidations>
+  <pageMargins left="0.699305555555556" right="0.699305555555556" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait"/>
+  <headerFooter/>
+</worksheet>
+</file>
+
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="B1:H17"/>
+  <dimension ref="B1:H12"/>
   <sheetViews>
     <sheetView showGridLines="0" workbookViewId="0">
-      <selection activeCell="I2" sqref="I2"/>
+      <selection activeCell="F24" sqref="F24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="15" outlineLevelCol="7"/>
@@ -8154,173 +8161,143 @@
   </cols>
   <sheetData>
     <row r="1" spans="2:2">
-      <c r="B1" s="55"/>
+      <c r="B1" s="54"/>
     </row>
     <row r="2" spans="2:8">
-      <c r="B2" s="56" t="s">
-        <v>43</v>
-      </c>
-      <c r="C2" s="56" t="s">
-        <v>66</v>
-      </c>
-      <c r="D2" s="56" t="s">
-        <v>69</v>
-      </c>
-      <c r="E2" s="56" t="s">
-        <v>71</v>
-      </c>
-      <c r="F2" s="56" t="s">
-        <v>74</v>
-      </c>
-      <c r="G2" s="56" t="s">
-        <v>77</v>
-      </c>
-      <c r="H2" s="56" t="s">
-        <v>79</v>
+      <c r="B2" s="55" t="s">
+        <v>65</v>
+      </c>
+      <c r="C2" s="55" t="s">
+        <v>50</v>
+      </c>
+      <c r="D2" s="55" t="s">
+        <v>53</v>
+      </c>
+      <c r="E2" s="55" t="s">
+        <v>55</v>
+      </c>
+      <c r="F2" s="55" t="s">
+        <v>58</v>
+      </c>
+      <c r="G2" s="55" t="s">
+        <v>60</v>
+      </c>
+      <c r="H2" s="55" t="s">
+        <v>62</v>
       </c>
     </row>
     <row r="3" spans="2:8">
-      <c r="B3" s="57">
+      <c r="B3" s="56">
         <f>INDEX(Alocação,1,Burndown[[#This Row],[Dia '#]]+1)</f>
         <v>43689</v>
       </c>
-      <c r="C3" s="58">
-        <v>0.1</v>
-      </c>
-      <c r="D3" s="58">
+      <c r="C3" s="57">
         <v>0.05</v>
       </c>
-      <c r="E3" s="59">
-        <v>0</v>
-      </c>
-      <c r="F3" s="59">
-        <v>0</v>
-      </c>
-      <c r="G3" s="59">
-        <v>0.2</v>
-      </c>
-      <c r="H3" s="59">
-        <v>0</v>
-      </c>
+      <c r="D3" s="57">
+        <v>0.02</v>
+      </c>
+      <c r="E3" s="58"/>
+      <c r="F3" s="58"/>
+      <c r="G3" s="58">
+        <v>0.05</v>
+      </c>
+      <c r="H3" s="58"/>
     </row>
     <row r="4" spans="2:8">
-      <c r="B4" s="60">
+      <c r="B4" s="59">
         <f>INDEX(Alocação,1,Burndown[[#This Row],[Dia '#]]+1)</f>
         <v>43690</v>
       </c>
-      <c r="C4" s="61"/>
-      <c r="D4" s="59"/>
-      <c r="E4" s="62"/>
-      <c r="F4" s="59"/>
-      <c r="G4" s="59"/>
-      <c r="H4" s="59"/>
+      <c r="C4" s="60">
+        <v>0.3</v>
+      </c>
+      <c r="D4" s="58">
+        <v>0.32</v>
+      </c>
+      <c r="E4" s="61"/>
+      <c r="F4" s="58"/>
+      <c r="G4" s="58">
+        <v>0.5</v>
+      </c>
+      <c r="H4" s="58"/>
     </row>
     <row r="5" spans="2:8">
-      <c r="B5" s="57">
+      <c r="B5" s="56">
         <f>INDEX(Alocação,1,Burndown[[#This Row],[Dia '#]]+1)</f>
         <v>43691</v>
       </c>
-      <c r="C5" s="63"/>
-      <c r="D5" s="64"/>
-      <c r="E5" s="64"/>
-      <c r="F5" s="59"/>
-      <c r="G5" s="59"/>
-      <c r="H5" s="59"/>
+      <c r="C5" s="62"/>
+      <c r="D5" s="63"/>
+      <c r="E5" s="63"/>
+      <c r="F5" s="58"/>
+      <c r="G5" s="58"/>
+      <c r="H5" s="58"/>
     </row>
     <row r="6" spans="2:8">
-      <c r="B6" s="60">
+      <c r="B6" s="59">
         <f>INDEX(Alocação,1,Burndown[[#This Row],[Dia '#]]+1)</f>
         <v>43692</v>
       </c>
-      <c r="C6" s="63"/>
-      <c r="D6" s="64"/>
-      <c r="E6" s="64"/>
-      <c r="F6" s="62"/>
-      <c r="G6" s="64"/>
-      <c r="H6" s="64"/>
+      <c r="C6" s="62"/>
+      <c r="D6" s="63"/>
+      <c r="E6" s="63"/>
+      <c r="F6" s="61"/>
+      <c r="G6" s="63"/>
+      <c r="H6" s="63"/>
     </row>
     <row r="7" spans="2:8">
-      <c r="B7" s="57">
+      <c r="B7" s="56">
         <f>INDEX(Alocação,1,Burndown[[#This Row],[Dia '#]]+1)</f>
         <v>43693</v>
       </c>
-      <c r="C7" s="63"/>
-      <c r="D7" s="64"/>
-      <c r="E7" s="64"/>
-      <c r="F7" s="64"/>
-      <c r="G7" s="64"/>
-      <c r="H7" s="64"/>
+      <c r="C7" s="62"/>
+      <c r="D7" s="63"/>
+      <c r="E7" s="63"/>
+      <c r="F7" s="63"/>
+      <c r="G7" s="63"/>
+      <c r="H7" s="63"/>
     </row>
     <row r="8" spans="2:8">
-      <c r="B8" s="60">
+      <c r="B8" s="59">
         <f>INDEX(Alocação,1,Burndown[[#This Row],[Dia '#]]+1)</f>
         <v>43696</v>
       </c>
-      <c r="C8" s="65"/>
-      <c r="D8" s="62"/>
-      <c r="E8" s="64"/>
-      <c r="F8" s="64"/>
-      <c r="G8" s="62"/>
-      <c r="H8" s="64"/>
+      <c r="C8" s="64"/>
+      <c r="D8" s="61"/>
+      <c r="E8" s="63"/>
+      <c r="F8" s="63"/>
+      <c r="G8" s="61"/>
+      <c r="H8" s="63"/>
     </row>
     <row r="9" spans="2:8">
-      <c r="B9" s="57">
+      <c r="B9" s="56">
         <f>INDEX(Alocação,1,Burndown[[#This Row],[Dia '#]]+1)</f>
         <v>43697</v>
       </c>
-      <c r="C9" s="65"/>
-      <c r="D9" s="62"/>
-      <c r="E9" s="62"/>
-      <c r="F9" s="64"/>
-      <c r="G9" s="64"/>
-      <c r="H9" s="64"/>
+      <c r="C9" s="64"/>
+      <c r="D9" s="61"/>
+      <c r="E9" s="61"/>
+      <c r="F9" s="63"/>
+      <c r="G9" s="63"/>
+      <c r="H9" s="63"/>
     </row>
     <row r="10" spans="2:2">
-      <c r="B10" s="60">
+      <c r="B10" s="59">
         <f>INDEX(Alocação,1,Burndown[[#This Row],[Dia '#]]+1)</f>
         <v>43698</v>
       </c>
     </row>
     <row r="11" spans="2:2">
-      <c r="B11" s="57">
+      <c r="B11" s="56">
         <f>INDEX(Alocação,1,Burndown[[#This Row],[Dia '#]]+1)</f>
         <v>43699</v>
       </c>
     </row>
     <row r="12" spans="2:2">
-      <c r="B12" s="60">
+      <c r="B12" s="59">
         <f>INDEX(Alocação,1,Burndown[[#This Row],[Dia '#]]+1)</f>
         <v>43700</v>
-      </c>
-    </row>
-    <row r="13" spans="2:2">
-      <c r="B13" s="57" t="e">
-        <f>INDEX(Alocação,1,Burndown[[#This Row],[Dia '#]]+1)</f>
-        <v>#VALUE!</v>
-      </c>
-    </row>
-    <row r="14" spans="2:2">
-      <c r="B14" s="60" t="e">
-        <f>INDEX(Alocação,1,Burndown[[#This Row],[Dia '#]]+1)</f>
-        <v>#VALUE!</v>
-      </c>
-    </row>
-    <row r="15" spans="2:2">
-      <c r="B15" s="57" t="e">
-        <f>INDEX(Alocação,1,Burndown[[#This Row],[Dia '#]]+1)</f>
-        <v>#VALUE!</v>
-      </c>
-    </row>
-    <row r="16" spans="2:2">
-      <c r="B16" s="60" t="e">
-        <f>INDEX(Alocação,1,Burndown[[#This Row],[Dia '#]]+1)</f>
-        <v>#VALUE!</v>
-      </c>
-    </row>
-    <row r="17" spans="2:2">
-      <c r="B17" s="57" t="e">
-        <f>INDEX(Alocação,1,Burndown[[#This Row],[Dia '#]]+1)</f>
-        <v>#VALUE!</v>
       </c>
     </row>
   </sheetData>
@@ -8350,160 +8327,169 @@
   <sheetPr/>
   <dimension ref="A1:I14"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="G18" sqref="G18"/>
+    <sheetView topLeftCell="B1" workbookViewId="0">
+      <selection activeCell="B2" sqref="B2:H5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="2.57142857142857" style="22" customWidth="1"/>
-    <col min="2" max="2" width="10.8571428571429" style="23" customWidth="1"/>
-    <col min="3" max="3" width="53.5714285714286" style="25" customWidth="1"/>
-    <col min="4" max="5" width="19.1428571428571" style="23" customWidth="1"/>
-    <col min="6" max="7" width="18.5714285714286" style="23" customWidth="1"/>
-    <col min="8" max="8" width="30.7142857142857" style="23" customWidth="1"/>
-    <col min="9" max="16384" width="9.14285714285714" style="26"/>
+    <col min="1" max="1" width="2.57142857142857" style="21" customWidth="1"/>
+    <col min="2" max="2" width="12.4285714285714" style="22" customWidth="1"/>
+    <col min="3" max="3" width="53.5714285714286" style="24" customWidth="1"/>
+    <col min="4" max="5" width="19.1428571428571" style="22" customWidth="1"/>
+    <col min="6" max="6" width="21" style="22" customWidth="1"/>
+    <col min="7" max="7" width="18.5714285714286" style="22" customWidth="1"/>
+    <col min="8" max="8" width="30.7142857142857" style="22" customWidth="1"/>
+    <col min="9" max="16384" width="9.14285714285714" style="25"/>
   </cols>
   <sheetData>
-    <row r="1" s="19" customFormat="1" spans="2:8">
-      <c r="B1" s="27"/>
-      <c r="C1" s="29"/>
-      <c r="D1" s="27"/>
-      <c r="E1" s="27"/>
-      <c r="F1" s="27"/>
-      <c r="G1" s="27"/>
-      <c r="H1" s="27"/>
-    </row>
-    <row r="2" s="20" customFormat="1" ht="30" customHeight="1" spans="1:9">
-      <c r="A2" s="30"/>
-      <c r="B2" s="31" t="s">
+    <row r="1" s="18" customFormat="1" spans="2:8">
+      <c r="B1" s="26"/>
+      <c r="C1" s="28"/>
+      <c r="D1" s="26"/>
+      <c r="E1" s="26"/>
+      <c r="F1" s="26"/>
+      <c r="G1" s="26"/>
+      <c r="H1" s="26"/>
+    </row>
+    <row r="2" s="19" customFormat="1" ht="30" customHeight="1" spans="1:9">
+      <c r="A2" s="29"/>
+      <c r="B2" s="30" t="s">
+        <v>80</v>
+      </c>
+      <c r="C2" s="30"/>
+      <c r="D2" s="30"/>
+      <c r="E2" s="30"/>
+      <c r="F2" s="30"/>
+      <c r="G2" s="30"/>
+      <c r="H2" s="30"/>
+      <c r="I2" s="31"/>
+    </row>
+    <row r="3" ht="24" customHeight="1" spans="1:9">
+      <c r="A3" s="32"/>
+      <c r="B3" s="33" t="s">
         <v>81</v>
       </c>
-      <c r="C2" s="31"/>
-      <c r="D2" s="31"/>
-      <c r="E2" s="31"/>
-      <c r="F2" s="31"/>
-      <c r="G2" s="31"/>
-      <c r="H2" s="31"/>
-      <c r="I2" s="32"/>
-    </row>
-    <row r="3" ht="24" customHeight="1" spans="1:9">
-      <c r="A3" s="33"/>
-      <c r="B3" s="34" t="s">
+      <c r="C3" s="35" t="s">
+        <v>44</v>
+      </c>
+      <c r="D3" s="33" t="s">
         <v>82</v>
       </c>
-      <c r="C3" s="36" t="s">
-        <v>60</v>
-      </c>
-      <c r="D3" s="34" t="s">
+      <c r="E3" s="33" t="s">
         <v>83</v>
       </c>
-      <c r="E3" s="34" t="s">
+      <c r="F3" s="33" t="s">
         <v>84</v>
       </c>
-      <c r="F3" s="34" t="s">
+      <c r="G3" s="33" t="s">
+        <v>49</v>
+      </c>
+      <c r="H3" s="33" t="s">
         <v>85</v>
       </c>
-      <c r="G3" s="34" t="s">
-        <v>65</v>
-      </c>
-      <c r="H3" s="34" t="s">
+      <c r="I3" s="21"/>
+    </row>
+    <row r="4" hidden="1" spans="1:9">
+      <c r="A4" s="32"/>
+      <c r="B4" s="45">
+        <v>42786</v>
+      </c>
+      <c r="C4" s="43" t="s">
         <v>86</v>
       </c>
-      <c r="I3" s="22"/>
-    </row>
-    <row r="4" hidden="1" spans="1:9">
-      <c r="A4" s="33"/>
-      <c r="B4" s="46">
-        <v>42786</v>
-      </c>
-      <c r="C4" s="44" t="s">
+      <c r="D4" s="45"/>
+      <c r="E4" s="45" t="s">
         <v>87</v>
       </c>
-      <c r="D4" s="46"/>
-      <c r="E4" s="46" t="s">
+      <c r="F4" s="50" t="s">
         <v>88</v>
       </c>
-      <c r="F4" s="51" t="s">
+      <c r="G4" s="50" t="s">
         <v>89</v>
       </c>
-      <c r="G4" s="51" t="s">
+      <c r="H4" s="43"/>
+      <c r="I4" s="21"/>
+    </row>
+    <row r="5" ht="30" spans="1:9">
+      <c r="A5" s="32"/>
+      <c r="B5" s="45">
+        <v>43690</v>
+      </c>
+      <c r="C5" s="43" t="s">
         <v>90</v>
       </c>
-      <c r="H4" s="44"/>
-      <c r="I4" s="22"/>
-    </row>
-    <row r="5" spans="1:9">
-      <c r="A5" s="33"/>
-      <c r="B5" s="46"/>
-      <c r="C5" s="44"/>
-      <c r="D5" s="46"/>
-      <c r="E5" s="46"/>
-      <c r="F5" s="51"/>
-      <c r="G5" s="51"/>
-      <c r="H5" s="44"/>
-      <c r="I5" s="22"/>
+      <c r="D5" s="45"/>
+      <c r="E5" s="45"/>
+      <c r="F5" s="50" t="s">
+        <v>91</v>
+      </c>
+      <c r="G5" s="50" t="s">
+        <v>92</v>
+      </c>
+      <c r="H5" s="43"/>
+      <c r="I5" s="21"/>
     </row>
     <row r="6" hidden="1" spans="1:9">
-      <c r="A6" s="33"/>
-      <c r="B6" s="46"/>
-      <c r="C6" s="44"/>
-      <c r="D6" s="46"/>
-      <c r="E6" s="46"/>
-      <c r="F6" s="51"/>
-      <c r="G6" s="51"/>
-      <c r="H6" s="44"/>
-      <c r="I6" s="22"/>
+      <c r="A6" s="32"/>
+      <c r="B6" s="45"/>
+      <c r="C6" s="43"/>
+      <c r="D6" s="45"/>
+      <c r="E6" s="45"/>
+      <c r="F6" s="50"/>
+      <c r="G6" s="50"/>
+      <c r="H6" s="43"/>
+      <c r="I6" s="21"/>
     </row>
     <row r="7" hidden="1" spans="1:9">
-      <c r="A7" s="33"/>
-      <c r="B7" s="46"/>
-      <c r="C7" s="44"/>
-      <c r="D7" s="46"/>
-      <c r="E7" s="46"/>
-      <c r="F7" s="51"/>
-      <c r="G7" s="51"/>
-      <c r="H7" s="44"/>
-      <c r="I7" s="22"/>
+      <c r="A7" s="32"/>
+      <c r="B7" s="45"/>
+      <c r="C7" s="43"/>
+      <c r="D7" s="45"/>
+      <c r="E7" s="45"/>
+      <c r="F7" s="50"/>
+      <c r="G7" s="50"/>
+      <c r="H7" s="43"/>
+      <c r="I7" s="21"/>
     </row>
     <row r="8" hidden="1" spans="1:9">
-      <c r="A8" s="33"/>
-      <c r="B8" s="46"/>
-      <c r="C8" s="44"/>
-      <c r="D8" s="46"/>
-      <c r="E8" s="46"/>
-      <c r="F8" s="52"/>
-      <c r="G8" s="51"/>
-      <c r="H8" s="44"/>
-      <c r="I8" s="22"/>
+      <c r="A8" s="32"/>
+      <c r="B8" s="45"/>
+      <c r="C8" s="43"/>
+      <c r="D8" s="45"/>
+      <c r="E8" s="45"/>
+      <c r="F8" s="51"/>
+      <c r="G8" s="50"/>
+      <c r="H8" s="43"/>
+      <c r="I8" s="21"/>
     </row>
     <row r="9" spans="1:9">
-      <c r="A9" s="33"/>
-      <c r="B9" s="46"/>
-      <c r="C9" s="44"/>
-      <c r="D9" s="46"/>
-      <c r="E9" s="46"/>
-      <c r="F9" s="51"/>
-      <c r="G9" s="51"/>
-      <c r="H9" s="44"/>
-      <c r="I9" s="22"/>
+      <c r="A9" s="32"/>
+      <c r="B9" s="45"/>
+      <c r="C9" s="43"/>
+      <c r="D9" s="45"/>
+      <c r="E9" s="45"/>
+      <c r="F9" s="50"/>
+      <c r="G9" s="50"/>
+      <c r="H9" s="43"/>
+      <c r="I9" s="21"/>
     </row>
     <row r="10" spans="1:9">
-      <c r="A10" s="33"/>
-      <c r="B10" s="46"/>
-      <c r="C10" s="44"/>
-      <c r="D10" s="46"/>
-      <c r="E10" s="46"/>
-      <c r="F10" s="51"/>
-      <c r="G10" s="51"/>
-      <c r="H10" s="44"/>
-      <c r="I10" s="22"/>
+      <c r="A10" s="32"/>
+      <c r="B10" s="45"/>
+      <c r="C10" s="43"/>
+      <c r="D10" s="45"/>
+      <c r="E10" s="45"/>
+      <c r="F10" s="50"/>
+      <c r="G10" s="50"/>
+      <c r="H10" s="43"/>
+      <c r="I10" s="21"/>
     </row>
     <row r="12" spans="7:7">
-      <c r="G12" s="53"/>
+      <c r="G12" s="52"/>
     </row>
     <row r="14" spans="3:3">
-      <c r="C14" s="54"/>
+      <c r="C14" s="53"/>
     </row>
   </sheetData>
   <mergeCells count="1">
@@ -8524,104 +8510,116 @@
   <dimension ref="A1:F10"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="D14" sqref="D14"/>
+      <selection activeCell="D13" sqref="D13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="15" outlineLevelCol="5"/>
   <cols>
-    <col min="1" max="1" width="3.57142857142857" style="22" customWidth="1"/>
-    <col min="2" max="2" width="18.5714285714286" style="23" customWidth="1"/>
-    <col min="3" max="3" width="18.5714285714286" style="24" customWidth="1"/>
-    <col min="4" max="4" width="81.4285714285714" style="25" customWidth="1"/>
-    <col min="5" max="16384" width="9.14285714285714" style="26"/>
+    <col min="1" max="1" width="3.57142857142857" style="21" customWidth="1"/>
+    <col min="2" max="2" width="18.5714285714286" style="22" customWidth="1"/>
+    <col min="3" max="3" width="18.5714285714286" style="23" customWidth="1"/>
+    <col min="4" max="4" width="81.4285714285714" style="24" customWidth="1"/>
+    <col min="5" max="16384" width="9.14285714285714" style="25"/>
   </cols>
   <sheetData>
-    <row r="1" s="19" customFormat="1" spans="2:4">
-      <c r="B1" s="27"/>
-      <c r="C1" s="28"/>
-      <c r="D1" s="29"/>
-    </row>
-    <row r="2" s="20" customFormat="1" ht="30" customHeight="1" spans="1:5">
-      <c r="A2" s="30"/>
-      <c r="B2" s="31" t="s">
-        <v>91</v>
-      </c>
-      <c r="C2" s="31"/>
-      <c r="D2" s="31"/>
-      <c r="E2" s="32"/>
+    <row r="1" s="18" customFormat="1" spans="2:4">
+      <c r="B1" s="26"/>
+      <c r="C1" s="27"/>
+      <c r="D1" s="28"/>
+    </row>
+    <row r="2" s="19" customFormat="1" ht="30" customHeight="1" spans="1:5">
+      <c r="A2" s="29"/>
+      <c r="B2" s="30" t="s">
+        <v>93</v>
+      </c>
+      <c r="C2" s="30"/>
+      <c r="D2" s="30"/>
+      <c r="E2" s="31"/>
     </row>
     <row r="3" ht="24" customHeight="1" spans="1:5">
-      <c r="A3" s="33"/>
-      <c r="B3" s="34" t="s">
-        <v>82</v>
-      </c>
-      <c r="C3" s="35" t="s">
-        <v>92</v>
-      </c>
-      <c r="D3" s="36" t="s">
-        <v>60</v>
-      </c>
-      <c r="E3" s="22"/>
-    </row>
-    <row r="4" s="21" customFormat="1" spans="1:5">
-      <c r="A4" s="37"/>
-      <c r="B4" s="38">
+      <c r="A3" s="32"/>
+      <c r="B3" s="33" t="s">
+        <v>81</v>
+      </c>
+      <c r="C3" s="34" t="s">
+        <v>94</v>
+      </c>
+      <c r="D3" s="35" t="s">
+        <v>44</v>
+      </c>
+      <c r="E3" s="21"/>
+    </row>
+    <row r="4" s="20" customFormat="1" spans="1:5">
+      <c r="A4" s="36"/>
+      <c r="B4" s="37">
         <v>43689</v>
       </c>
-      <c r="C4" s="39">
-        <v>1</v>
-      </c>
-      <c r="D4" s="40" t="s">
-        <v>93</v>
-      </c>
-      <c r="E4" s="41"/>
-    </row>
-    <row r="5" s="21" customFormat="1" spans="1:5">
-      <c r="A5" s="37"/>
-      <c r="B5" s="42">
+      <c r="C4" s="38">
+        <v>0.5</v>
+      </c>
+      <c r="D4" s="39" t="s">
+        <v>95</v>
+      </c>
+      <c r="E4" s="40"/>
+    </row>
+    <row r="5" s="20" customFormat="1" spans="1:5">
+      <c r="A5" s="36"/>
+      <c r="B5" s="41">
         <v>43689</v>
       </c>
-      <c r="C5" s="43">
+      <c r="C5" s="42">
         <v>3</v>
       </c>
-      <c r="D5" s="44" t="s">
-        <v>94</v>
-      </c>
-      <c r="E5" s="41"/>
-    </row>
-    <row r="6" s="21" customFormat="1" spans="1:6">
-      <c r="A6" s="37"/>
-      <c r="B6" s="38"/>
-      <c r="C6" s="39"/>
-      <c r="D6" s="40"/>
-      <c r="E6" s="41"/>
-      <c r="F6" s="45"/>
-    </row>
-    <row r="7" s="21" customFormat="1" spans="1:5">
-      <c r="A7" s="37"/>
-      <c r="B7" s="46"/>
-      <c r="C7" s="43"/>
-      <c r="D7" s="47"/>
-      <c r="E7" s="41"/>
-    </row>
-    <row r="8" s="21" customFormat="1" spans="1:5">
-      <c r="A8" s="37"/>
-      <c r="B8" s="38"/>
-      <c r="C8" s="39"/>
-      <c r="D8" s="40"/>
-      <c r="E8" s="41"/>
+      <c r="D5" s="43" t="s">
+        <v>96</v>
+      </c>
+      <c r="E5" s="40"/>
+    </row>
+    <row r="6" s="20" customFormat="1" spans="1:6">
+      <c r="A6" s="36"/>
+      <c r="B6" s="37">
+        <v>43690</v>
+      </c>
+      <c r="C6" s="38">
+        <v>2</v>
+      </c>
+      <c r="D6" s="39" t="s">
+        <v>95</v>
+      </c>
+      <c r="E6" s="40"/>
+      <c r="F6" s="44"/>
+    </row>
+    <row r="7" s="20" customFormat="1" spans="1:5">
+      <c r="A7" s="36"/>
+      <c r="B7" s="45">
+        <v>43690</v>
+      </c>
+      <c r="C7" s="42">
+        <v>3</v>
+      </c>
+      <c r="D7" s="46" t="s">
+        <v>97</v>
+      </c>
+      <c r="E7" s="40"/>
+    </row>
+    <row r="8" s="20" customFormat="1" spans="1:5">
+      <c r="A8" s="36"/>
+      <c r="B8" s="37"/>
+      <c r="C8" s="38"/>
+      <c r="D8" s="39"/>
+      <c r="E8" s="40"/>
     </row>
     <row r="9" spans="1:5">
-      <c r="A9" s="33"/>
-      <c r="B9" s="46"/>
-      <c r="C9" s="43"/>
-      <c r="D9" s="47"/>
-      <c r="E9" s="22"/>
+      <c r="A9" s="32"/>
+      <c r="B9" s="45"/>
+      <c r="C9" s="42"/>
+      <c r="D9" s="46"/>
+      <c r="E9" s="21"/>
     </row>
     <row r="10" spans="2:4">
-      <c r="B10" s="48"/>
-      <c r="C10" s="49"/>
-      <c r="D10" s="50"/>
+      <c r="B10" s="47"/>
+      <c r="C10" s="48"/>
+      <c r="D10" s="49"/>
     </row>
   </sheetData>
   <mergeCells count="1">
@@ -8642,24 +8640,24 @@
   <dimension ref="B2:P8"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="F10" sqref="F10"/>
+      <selection activeCell="B10" sqref="B10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="50.7142857142857" defaultRowHeight="15" outlineLevelRow="7"/>
   <cols>
     <col min="1" max="1" width="1.28571428571429" style="3" customWidth="1"/>
-    <col min="2" max="2" width="8.14285714285714" style="3" customWidth="1"/>
-    <col min="3" max="3" width="47.1428571428571" style="11" customWidth="1"/>
+    <col min="2" max="2" width="10.7142857142857" style="3" customWidth="1"/>
+    <col min="3" max="3" width="41.4285714285714" style="11" customWidth="1"/>
     <col min="4" max="4" width="7.57142857142857" style="3" customWidth="1"/>
     <col min="5" max="5" width="10.8571428571429" style="3" customWidth="1"/>
-    <col min="6" max="6" width="13.1428571428571" style="3" customWidth="1"/>
+    <col min="6" max="6" width="12.8571428571429" style="3" customWidth="1"/>
     <col min="7" max="7" width="15" style="3" customWidth="1"/>
     <col min="8" max="8" width="14" style="3" customWidth="1"/>
-    <col min="9" max="9" width="15" style="3" customWidth="1"/>
-    <col min="10" max="10" width="10.5714285714286" style="3" customWidth="1"/>
+    <col min="9" max="9" width="10.2857142857143" style="3" customWidth="1"/>
+    <col min="10" max="10" width="8.71428571428571" style="3" customWidth="1"/>
     <col min="11" max="11" width="11.5714285714286" style="3" customWidth="1"/>
     <col min="12" max="12" width="19.7142857142857" style="3" customWidth="1"/>
-    <col min="13" max="13" width="14.1428571428571" style="3" customWidth="1"/>
+    <col min="13" max="13" width="12.1428571428571" style="3" customWidth="1"/>
     <col min="14" max="14" width="14.1428571428571" style="3" hidden="1" customWidth="1"/>
     <col min="15" max="15" width="0.571428571428571" style="3" hidden="1" customWidth="1"/>
     <col min="16" max="16" width="10" style="3" customWidth="1"/>
@@ -8668,322 +8666,322 @@
   <sheetData>
     <row r="2" s="10" customFormat="1" ht="57.75" customHeight="1" spans="2:16">
       <c r="B2" s="12" t="s">
-        <v>59</v>
+        <v>43</v>
       </c>
       <c r="C2" s="12" t="s">
-        <v>60</v>
+        <v>44</v>
       </c>
       <c r="D2" s="12" t="s">
         <v>34</v>
       </c>
       <c r="E2" s="12" t="s">
-        <v>95</v>
+        <v>98</v>
       </c>
       <c r="F2" s="12" t="s">
-        <v>96</v>
+        <v>99</v>
       </c>
       <c r="G2" s="12" t="s">
-        <v>97</v>
+        <v>100</v>
       </c>
       <c r="H2" s="12" t="s">
-        <v>98</v>
+        <v>101</v>
       </c>
       <c r="I2" s="12" t="s">
-        <v>99</v>
+        <v>102</v>
       </c>
       <c r="J2" s="12" t="s">
-        <v>100</v>
+        <v>103</v>
       </c>
       <c r="K2" s="12" t="s">
-        <v>101</v>
+        <v>104</v>
       </c>
       <c r="L2" s="12" t="s">
-        <v>102</v>
+        <v>105</v>
       </c>
       <c r="M2" s="12" t="s">
-        <v>103</v>
+        <v>106</v>
       </c>
       <c r="N2" s="12" t="s">
-        <v>104</v>
+        <v>107</v>
       </c>
       <c r="O2" s="12" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="P2" s="12" t="s">
-        <v>105</v>
+        <v>108</v>
       </c>
     </row>
     <row r="3" spans="2:16">
       <c r="B3" s="13" t="s">
-        <v>66</v>
-      </c>
-      <c r="C3" s="14" t="s">
-        <v>67</v>
-      </c>
-      <c r="D3" s="15">
+        <v>50</v>
+      </c>
+      <c r="C3" s="13" t="s">
+        <v>51</v>
+      </c>
+      <c r="D3" s="14">
         <v>2</v>
       </c>
-      <c r="E3" s="15" t="str">
+      <c r="E3" s="14" t="str">
         <f>IF(Risco[[#This Row],[Peso Risco]]&lt;=2,"BAIXO",IF(Risco[[#This Row],[Peso Risco]]&lt;=5,"MÉDIO","ALTO"))</f>
         <v>BAIXO</v>
       </c>
-      <c r="F3" s="16" t="s">
-        <v>106</v>
-      </c>
-      <c r="G3" s="17" t="s">
-        <v>107</v>
-      </c>
-      <c r="H3" s="16" t="s">
-        <v>106</v>
-      </c>
-      <c r="I3" s="17" t="str">
+      <c r="F3" s="15" t="s">
+        <v>109</v>
+      </c>
+      <c r="G3" s="16" t="s">
+        <v>110</v>
+      </c>
+      <c r="H3" s="15" t="s">
+        <v>109</v>
+      </c>
+      <c r="I3" s="16" t="str">
         <f>IF(D3&lt;=3,Util!$W$4,IF(D3&lt;=5,Util!$W$5,Util!$W$6))</f>
         <v>Boa</v>
       </c>
-      <c r="J3" s="17" t="s">
-        <v>107</v>
-      </c>
-      <c r="K3" s="17" t="s">
-        <v>108</v>
-      </c>
-      <c r="L3" s="17" t="s">
-        <v>109</v>
-      </c>
-      <c r="M3" s="17" t="s">
+      <c r="J3" s="16" t="s">
         <v>110</v>
       </c>
-      <c r="N3" s="17"/>
-      <c r="O3" s="17"/>
-      <c r="P3" s="17">
+      <c r="K3" s="16" t="s">
+        <v>111</v>
+      </c>
+      <c r="L3" s="16" t="s">
+        <v>112</v>
+      </c>
+      <c r="M3" s="16" t="s">
+        <v>113</v>
+      </c>
+      <c r="N3" s="16"/>
+      <c r="O3" s="16"/>
+      <c r="P3" s="16">
         <f>VLOOKUP(Risco[[#This Row],[Nível Detalhamento Funcional]],NivelDeDetalhamento[],2,FALSE)*VLOOKUP(Risco[[#This Row],[Definição Requisitos NÃO Funcionais]],RequisitosNaoFuncionais[],2,FALSE)*VLOOKUP(Risco[[#This Row],[Nível Detalhamento Técnico]],NivelDeDetalhamento[],2,FALSE)*VLOOKUP(Risco[[#This Row],[Protótipos]],Prototipos[],2,FALSE)*VLOOKUP(Risco[[#This Row],[Nível de Quebra]],Quebra[],2,FALSE)*VLOOKUP(Risco[[#This Row],[Branches]],Branches[],2,FALSE)*VLOOKUP(Risco[[#This Row],[Ambiente Desenvolvimento]],Ambiente[],2,FALSE)*VLOOKUP(Risco[[#This Row],[Complexidade Requisito]],Complexidade[],2,FALSE)</f>
         <v>1</v>
       </c>
     </row>
     <row r="4" spans="2:16">
       <c r="B4" s="13" t="s">
-        <v>69</v>
-      </c>
-      <c r="C4" s="14" t="s">
-        <v>70</v>
-      </c>
-      <c r="D4" s="18">
+        <v>53</v>
+      </c>
+      <c r="C4" s="13" t="s">
+        <v>54</v>
+      </c>
+      <c r="D4" s="17">
         <v>3</v>
       </c>
-      <c r="E4" s="15" t="str">
+      <c r="E4" s="14" t="str">
         <f>IF(Risco[[#This Row],[Peso Risco]]&lt;=2,"BAIXO",IF(Risco[[#This Row],[Peso Risco]]&lt;=5,"MÉDIO","ALTO"))</f>
         <v>BAIXO</v>
       </c>
-      <c r="F4" s="16" t="s">
-        <v>106</v>
-      </c>
-      <c r="G4" s="17" t="s">
-        <v>107</v>
-      </c>
-      <c r="H4" s="16" t="s">
-        <v>106</v>
-      </c>
-      <c r="I4" s="17" t="str">
+      <c r="F4" s="15" t="s">
+        <v>109</v>
+      </c>
+      <c r="G4" s="16" t="s">
+        <v>110</v>
+      </c>
+      <c r="H4" s="15" t="s">
+        <v>109</v>
+      </c>
+      <c r="I4" s="16" t="str">
         <f>IF(D4&lt;=3,Util!$W$4,IF(D4&lt;=5,Util!$W$5,Util!$W$6))</f>
         <v>Boa</v>
       </c>
-      <c r="J4" s="17" t="s">
-        <v>107</v>
-      </c>
-      <c r="K4" s="17" t="s">
-        <v>108</v>
-      </c>
-      <c r="L4" s="17" t="s">
-        <v>109</v>
-      </c>
-      <c r="M4" s="17" t="s">
+      <c r="J4" s="16" t="s">
         <v>110</v>
       </c>
-      <c r="N4" s="17"/>
-      <c r="O4" s="17"/>
-      <c r="P4" s="17">
+      <c r="K4" s="16" t="s">
+        <v>111</v>
+      </c>
+      <c r="L4" s="16" t="s">
+        <v>112</v>
+      </c>
+      <c r="M4" s="16" t="s">
+        <v>113</v>
+      </c>
+      <c r="N4" s="16"/>
+      <c r="O4" s="16"/>
+      <c r="P4" s="16">
         <f>VLOOKUP(Risco[[#This Row],[Nível Detalhamento Funcional]],NivelDeDetalhamento[],2,FALSE)*VLOOKUP(Risco[[#This Row],[Definição Requisitos NÃO Funcionais]],RequisitosNaoFuncionais[],2,FALSE)*VLOOKUP(Risco[[#This Row],[Nível Detalhamento Técnico]],NivelDeDetalhamento[],2,FALSE)*VLOOKUP(Risco[[#This Row],[Protótipos]],Prototipos[],2,FALSE)*VLOOKUP(Risco[[#This Row],[Nível de Quebra]],Quebra[],2,FALSE)*VLOOKUP(Risco[[#This Row],[Branches]],Branches[],2,FALSE)*VLOOKUP(Risco[[#This Row],[Ambiente Desenvolvimento]],Ambiente[],2,FALSE)*VLOOKUP(Risco[[#This Row],[Complexidade Requisito]],Complexidade[],2,FALSE)</f>
         <v>1</v>
       </c>
     </row>
     <row r="5" spans="2:16">
       <c r="B5" s="13" t="s">
-        <v>71</v>
-      </c>
-      <c r="C5" s="14" t="s">
-        <v>72</v>
-      </c>
-      <c r="D5" s="18">
+        <v>55</v>
+      </c>
+      <c r="C5" s="13" t="s">
+        <v>56</v>
+      </c>
+      <c r="D5" s="17">
         <v>2</v>
       </c>
-      <c r="E5" s="15" t="str">
+      <c r="E5" s="14" t="str">
         <f>IF(Risco[[#This Row],[Peso Risco]]&lt;=2,"BAIXO",IF(Risco[[#This Row],[Peso Risco]]&lt;=5,"MÉDIO","ALTO"))</f>
         <v>MÉDIO</v>
       </c>
-      <c r="F5" s="16" t="s">
-        <v>106</v>
-      </c>
-      <c r="G5" s="17" t="s">
-        <v>107</v>
-      </c>
-      <c r="H5" s="16" t="s">
-        <v>106</v>
-      </c>
-      <c r="I5" s="17" t="str">
+      <c r="F5" s="15" t="s">
+        <v>109</v>
+      </c>
+      <c r="G5" s="16" t="s">
+        <v>110</v>
+      </c>
+      <c r="H5" s="15" t="s">
+        <v>109</v>
+      </c>
+      <c r="I5" s="16" t="str">
         <f>IF(D5&lt;=3,Util!$W$4,IF(D5&lt;=5,Util!$W$5,Util!$W$6))</f>
         <v>Boa</v>
       </c>
-      <c r="J5" s="17" t="s">
-        <v>107</v>
-      </c>
-      <c r="K5" s="17" t="s">
-        <v>108</v>
-      </c>
-      <c r="L5" s="17" t="s">
-        <v>109</v>
-      </c>
-      <c r="M5" s="17" t="s">
+      <c r="J5" s="16" t="s">
+        <v>110</v>
+      </c>
+      <c r="K5" s="16" t="s">
         <v>111</v>
       </c>
-      <c r="N5" s="17"/>
-      <c r="O5" s="17"/>
-      <c r="P5" s="17">
+      <c r="L5" s="16" t="s">
+        <v>112</v>
+      </c>
+      <c r="M5" s="16" t="s">
+        <v>114</v>
+      </c>
+      <c r="N5" s="16"/>
+      <c r="O5" s="16"/>
+      <c r="P5" s="16">
         <f>VLOOKUP(Risco[[#This Row],[Nível Detalhamento Funcional]],NivelDeDetalhamento[],2,FALSE)*VLOOKUP(Risco[[#This Row],[Definição Requisitos NÃO Funcionais]],RequisitosNaoFuncionais[],2,FALSE)*VLOOKUP(Risco[[#This Row],[Nível Detalhamento Técnico]],NivelDeDetalhamento[],2,FALSE)*VLOOKUP(Risco[[#This Row],[Protótipos]],Prototipos[],2,FALSE)*VLOOKUP(Risco[[#This Row],[Nível de Quebra]],Quebra[],2,FALSE)*VLOOKUP(Risco[[#This Row],[Branches]],Branches[],2,FALSE)*VLOOKUP(Risco[[#This Row],[Ambiente Desenvolvimento]],Ambiente[],2,FALSE)*VLOOKUP(Risco[[#This Row],[Complexidade Requisito]],Complexidade[],2,FALSE)</f>
         <v>3</v>
       </c>
     </row>
     <row r="6" spans="2:16">
       <c r="B6" s="13" t="s">
-        <v>74</v>
-      </c>
-      <c r="C6" s="14" t="s">
-        <v>75</v>
-      </c>
-      <c r="D6" s="18">
+        <v>58</v>
+      </c>
+      <c r="C6" s="13" t="s">
+        <v>59</v>
+      </c>
+      <c r="D6" s="17">
         <v>1</v>
       </c>
-      <c r="E6" s="15" t="str">
+      <c r="E6" s="14" t="str">
         <f>IF(Risco[[#This Row],[Peso Risco]]&lt;=2,"BAIXO",IF(Risco[[#This Row],[Peso Risco]]&lt;=5,"MÉDIO","ALTO"))</f>
         <v>BAIXO</v>
       </c>
-      <c r="F6" s="16" t="s">
-        <v>106</v>
-      </c>
-      <c r="G6" s="17" t="s">
-        <v>107</v>
-      </c>
-      <c r="H6" s="16" t="s">
-        <v>106</v>
-      </c>
-      <c r="I6" s="17" t="s">
+      <c r="F6" s="15" t="s">
+        <v>109</v>
+      </c>
+      <c r="G6" s="16" t="s">
+        <v>110</v>
+      </c>
+      <c r="H6" s="15" t="s">
+        <v>109</v>
+      </c>
+      <c r="I6" s="16" t="s">
+        <v>115</v>
+      </c>
+      <c r="J6" s="16" t="s">
+        <v>110</v>
+      </c>
+      <c r="K6" s="16" t="s">
+        <v>111</v>
+      </c>
+      <c r="L6" s="16" t="s">
         <v>112</v>
       </c>
-      <c r="J6" s="17" t="s">
-        <v>107</v>
-      </c>
-      <c r="K6" s="17" t="s">
-        <v>108</v>
-      </c>
-      <c r="L6" s="17" t="s">
-        <v>109</v>
-      </c>
-      <c r="M6" s="17" t="s">
-        <v>110</v>
-      </c>
-      <c r="N6" s="17"/>
-      <c r="O6" s="17"/>
-      <c r="P6" s="17">
+      <c r="M6" s="16" t="s">
+        <v>113</v>
+      </c>
+      <c r="N6" s="16"/>
+      <c r="O6" s="16"/>
+      <c r="P6" s="16">
         <f>VLOOKUP(Risco[[#This Row],[Nível Detalhamento Funcional]],NivelDeDetalhamento[],2,FALSE)*VLOOKUP(Risco[[#This Row],[Definição Requisitos NÃO Funcionais]],RequisitosNaoFuncionais[],2,FALSE)*VLOOKUP(Risco[[#This Row],[Nível Detalhamento Técnico]],NivelDeDetalhamento[],2,FALSE)*VLOOKUP(Risco[[#This Row],[Protótipos]],Prototipos[],2,FALSE)*VLOOKUP(Risco[[#This Row],[Nível de Quebra]],Quebra[],2,FALSE)*VLOOKUP(Risco[[#This Row],[Branches]],Branches[],2,FALSE)*VLOOKUP(Risco[[#This Row],[Ambiente Desenvolvimento]],Ambiente[],2,FALSE)*VLOOKUP(Risco[[#This Row],[Complexidade Requisito]],Complexidade[],2,FALSE)</f>
         <v>1</v>
       </c>
     </row>
     <row r="7" spans="2:16">
       <c r="B7" s="13" t="s">
-        <v>77</v>
-      </c>
-      <c r="C7" s="14" t="s">
-        <v>78</v>
-      </c>
-      <c r="D7" s="18">
+        <v>60</v>
+      </c>
+      <c r="C7" s="13" t="s">
+        <v>61</v>
+      </c>
+      <c r="D7" s="17">
         <v>2</v>
       </c>
-      <c r="E7" s="15" t="str">
+      <c r="E7" s="14" t="str">
         <f>IF(Risco[[#This Row],[Peso Risco]]&lt;=2,"BAIXO",IF(Risco[[#This Row],[Peso Risco]]&lt;=5,"MÉDIO","ALTO"))</f>
         <v>MÉDIO</v>
       </c>
-      <c r="F7" s="16" t="s">
-        <v>106</v>
-      </c>
-      <c r="G7" s="17" t="s">
-        <v>107</v>
-      </c>
-      <c r="H7" s="16" t="s">
-        <v>106</v>
-      </c>
-      <c r="I7" s="17" t="str">
+      <c r="F7" s="15" t="s">
+        <v>109</v>
+      </c>
+      <c r="G7" s="16" t="s">
+        <v>110</v>
+      </c>
+      <c r="H7" s="15" t="s">
+        <v>109</v>
+      </c>
+      <c r="I7" s="16" t="str">
         <f>IF(D7&lt;=3,Util!$W$4,IF(D7&lt;=5,Util!$W$5,Util!$W$6))</f>
         <v>Boa</v>
       </c>
-      <c r="J7" s="17" t="s">
-        <v>107</v>
-      </c>
-      <c r="K7" s="17" t="s">
-        <v>108</v>
-      </c>
-      <c r="L7" s="17" t="s">
-        <v>109</v>
-      </c>
-      <c r="M7" s="17" t="s">
+      <c r="J7" s="16" t="s">
+        <v>110</v>
+      </c>
+      <c r="K7" s="16" t="s">
         <v>111</v>
       </c>
-      <c r="N7" s="17"/>
-      <c r="O7" s="17"/>
-      <c r="P7" s="17">
+      <c r="L7" s="16" t="s">
+        <v>112</v>
+      </c>
+      <c r="M7" s="16" t="s">
+        <v>114</v>
+      </c>
+      <c r="N7" s="16"/>
+      <c r="O7" s="16"/>
+      <c r="P7" s="16">
         <f>VLOOKUP(Risco[[#This Row],[Nível Detalhamento Funcional]],NivelDeDetalhamento[],2,FALSE)*VLOOKUP(Risco[[#This Row],[Definição Requisitos NÃO Funcionais]],RequisitosNaoFuncionais[],2,FALSE)*VLOOKUP(Risco[[#This Row],[Nível Detalhamento Técnico]],NivelDeDetalhamento[],2,FALSE)*VLOOKUP(Risco[[#This Row],[Protótipos]],Prototipos[],2,FALSE)*VLOOKUP(Risco[[#This Row],[Nível de Quebra]],Quebra[],2,FALSE)*VLOOKUP(Risco[[#This Row],[Branches]],Branches[],2,FALSE)*VLOOKUP(Risco[[#This Row],[Ambiente Desenvolvimento]],Ambiente[],2,FALSE)*VLOOKUP(Risco[[#This Row],[Complexidade Requisito]],Complexidade[],2,FALSE)</f>
         <v>3</v>
       </c>
     </row>
     <row r="8" spans="2:16">
       <c r="B8" s="13" t="s">
-        <v>79</v>
-      </c>
-      <c r="C8" s="14" t="s">
-        <v>80</v>
-      </c>
-      <c r="D8" s="18">
+        <v>62</v>
+      </c>
+      <c r="C8" s="13" t="s">
+        <v>63</v>
+      </c>
+      <c r="D8" s="17">
         <v>2</v>
       </c>
-      <c r="E8" s="15" t="str">
+      <c r="E8" s="14" t="str">
         <f>IF(Risco[[#This Row],[Peso Risco]]&lt;=2,"BAIXO",IF(Risco[[#This Row],[Peso Risco]]&lt;=5,"MÉDIO","ALTO"))</f>
         <v>BAIXO</v>
       </c>
-      <c r="F8" s="16" t="s">
-        <v>106</v>
-      </c>
-      <c r="G8" s="17" t="s">
-        <v>107</v>
-      </c>
-      <c r="H8" s="16" t="s">
-        <v>106</v>
-      </c>
-      <c r="I8" s="17" t="str">
+      <c r="F8" s="15" t="s">
+        <v>109</v>
+      </c>
+      <c r="G8" s="16" t="s">
+        <v>110</v>
+      </c>
+      <c r="H8" s="15" t="s">
+        <v>109</v>
+      </c>
+      <c r="I8" s="16" t="str">
         <f>IF(D8&lt;=3,Util!$W$4,IF(D8&lt;=5,Util!$W$5,Util!$W$6))</f>
         <v>Boa</v>
       </c>
-      <c r="J8" s="17" t="s">
-        <v>107</v>
-      </c>
-      <c r="K8" s="17" t="s">
-        <v>108</v>
-      </c>
-      <c r="L8" s="17" t="s">
-        <v>109</v>
-      </c>
-      <c r="M8" s="17" t="s">
+      <c r="J8" s="16" t="s">
         <v>110</v>
       </c>
-      <c r="N8" s="17"/>
-      <c r="O8" s="17"/>
-      <c r="P8" s="17">
+      <c r="K8" s="16" t="s">
+        <v>111</v>
+      </c>
+      <c r="L8" s="16" t="s">
+        <v>112</v>
+      </c>
+      <c r="M8" s="16" t="s">
+        <v>113</v>
+      </c>
+      <c r="N8" s="16"/>
+      <c r="O8" s="16"/>
+      <c r="P8" s="16">
         <f>VLOOKUP(Risco[[#This Row],[Nível Detalhamento Funcional]],NivelDeDetalhamento[],2,FALSE)*VLOOKUP(Risco[[#This Row],[Definição Requisitos NÃO Funcionais]],RequisitosNaoFuncionais[],2,FALSE)*VLOOKUP(Risco[[#This Row],[Nível Detalhamento Técnico]],NivelDeDetalhamento[],2,FALSE)*VLOOKUP(Risco[[#This Row],[Protótipos]],Prototipos[],2,FALSE)*VLOOKUP(Risco[[#This Row],[Nível de Quebra]],Quebra[],2,FALSE)*VLOOKUP(Risco[[#This Row],[Branches]],Branches[],2,FALSE)*VLOOKUP(Risco[[#This Row],[Ambiente Desenvolvimento]],Ambiente[],2,FALSE)*VLOOKUP(Risco[[#This Row],[Complexidade Requisito]],Complexidade[],2,FALSE)</f>
         <v>1</v>
       </c>

--- a/CanaisDigitais-SP5.xlsx
+++ b/CanaisDigitais-SP5.xlsx
@@ -6745,7 +6745,7 @@
   <dimension ref="A1:J61"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="F14" sqref="F14"/>
+      <selection activeCell="H9" sqref="H9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="50.7142857142857" defaultRowHeight="15"/>
@@ -7515,8 +7515,8 @@
   <sheetPr/>
   <dimension ref="A1:AA12"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
-      <selection activeCell="L19" sqref="L19"/>
+    <sheetView showGridLines="0" tabSelected="1" topLeftCell="I1" workbookViewId="0">
+      <selection activeCell="AA7" sqref="AA7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.85714285714286" defaultRowHeight="15"/>
@@ -8510,7 +8510,7 @@
   <dimension ref="A1:F10"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="D13" sqref="D13"/>
+      <selection activeCell="F13" sqref="F13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="15" outlineLevelCol="5"/>

--- a/CanaisDigitais-SP5.xlsx
+++ b/CanaisDigitais-SP5.xlsx
@@ -5,7 +5,7 @@
   <workbookPr backupFile="false" showObjects="all" date1904="false"/>
   <workbookProtection/>
   <bookViews>
-    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="5"/>
+    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="7"/>
   </bookViews>
   <sheets>
     <sheet name="Info" sheetId="1" state="visible" r:id="rId2"/>
@@ -38,7 +38,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="328" uniqueCount="164">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="329" uniqueCount="165">
   <si>
     <t xml:space="preserve">Informações básicas projeto</t>
   </si>
@@ -335,6 +335,9 @@
   </si>
   <si>
     <t xml:space="preserve">Atuação Bruno </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Indisponibilidade ambiente de dev (110617)</t>
   </si>
   <si>
     <t xml:space="preserve">Nível Risco</t>
@@ -558,7 +561,7 @@
     <numFmt numFmtId="170" formatCode="0"/>
     <numFmt numFmtId="171" formatCode="00000"/>
   </numFmts>
-  <fonts count="22">
+  <fonts count="20">
     <font>
       <sz val="11"/>
       <color rgb="FF000000"/>
@@ -580,13 +583,6 @@
       <sz val="10"/>
       <name val="Arial"/>
       <family val="0"/>
-    </font>
-    <font>
-      <sz val="10"/>
-      <color rgb="FF000000"/>
-      <name val="Arial"/>
-      <family val="0"/>
-      <charset val="134"/>
     </font>
     <font>
       <b val="true"/>
@@ -651,21 +647,6 @@
     </font>
     <font>
       <b val="true"/>
-      <sz val="13"/>
-      <color rgb="FF17365D"/>
-      <name val="Calibri"/>
-      <family val="0"/>
-      <charset val="134"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="Calibri"/>
-      <family val="0"/>
-      <charset val="134"/>
-    </font>
-    <font>
-      <b val="true"/>
       <sz val="14"/>
       <color rgb="FFFFFFFF"/>
       <name val="Calibri"/>
@@ -717,25 +698,20 @@
       <family val="0"/>
       <charset val="134"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="Calibri"/>
+      <family val="0"/>
+      <charset val="134"/>
+    </font>
   </fonts>
-  <fills count="20">
+  <fills count="18">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FF8F82EE"/>
-        <bgColor rgb="FF5B96B3"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF24500"/>
-        <bgColor rgb="FFFF0000"/>
-      </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
@@ -758,7 +734,7 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor rgb="FFBFBFBF"/>
-        <bgColor rgb="FFCBCBA5"/>
+        <bgColor rgb="FFAFD19D"/>
       </patternFill>
     </fill>
     <fill>
@@ -776,19 +752,19 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor rgb="FFFFA3A3"/>
-        <bgColor rgb="FFF7D4D4"/>
+        <bgColor rgb="FFFF8080"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
         <fgColor rgb="FFFFEEB9"/>
-        <bgColor rgb="FFFFD9C9"/>
+        <bgColor rgb="FFF5F5ED"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
         <fgColor rgb="FF9FD6FF"/>
-        <bgColor rgb="FFADCAD9"/>
+        <bgColor rgb="FFC0D5EF"/>
       </patternFill>
     </fill>
     <fill>
@@ -818,13 +794,13 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor rgb="FF7030A0"/>
-        <bgColor rgb="FF800080"/>
+        <bgColor rgb="FF993366"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
         <fgColor rgb="FF00B0F0"/>
-        <bgColor rgb="FF3D85C6"/>
+        <bgColor rgb="FF33CCCC"/>
       </patternFill>
     </fill>
     <fill>
@@ -834,39 +810,12 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="27">
+  <borders count="24">
     <border diagonalUp="false" diagonalDown="false">
       <left/>
       <right/>
       <top/>
       <bottom/>
-      <diagonal/>
-    </border>
-    <border diagonalUp="false" diagonalDown="false">
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="thick">
-        <color rgb="FF5B96B3"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border diagonalUp="false" diagonalDown="false">
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="thick">
-        <color rgb="FFADCAD9"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border diagonalUp="false" diagonalDown="false">
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color rgb="FF9DC0D1"/>
-      </bottom>
       <diagonal/>
     </border>
     <border diagonalUp="false" diagonalDown="false">
@@ -1123,7 +1072,7 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="28">
+  <cellStyleXfs count="21">
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
@@ -1151,294 +1100,272 @@
     <xf numFmtId="169" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
     </xf>
-    <xf numFmtId="164" fontId="4" fillId="0" borderId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+    <xf numFmtId="164" fontId="19" fillId="2" borderId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="5" fillId="0" borderId="1" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="6" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="13" fillId="0" borderId="2" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="14" fillId="2" borderId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="14" fillId="3" borderId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="6" fillId="0" borderId="3" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="14" fillId="4" borderId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="129">
+  <cellXfs count="126">
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="5" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+    <xf numFmtId="164" fontId="0" fillId="3" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="5" borderId="4" xfId="0" applyFont="false" applyBorder="true" applyAlignment="false" applyProtection="false">
+    <xf numFmtId="164" fontId="0" fillId="3" borderId="1" xfId="0" applyFont="false" applyBorder="true" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="5" fillId="6" borderId="0" xfId="21" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+    <xf numFmtId="164" fontId="4" fillId="4" borderId="0" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
       <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="6" fillId="0" borderId="5" xfId="22" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+    <xf numFmtId="164" fontId="5" fillId="0" borderId="2" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="7" fillId="0" borderId="6" xfId="20" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="6" fillId="0" borderId="3" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="left" vertical="top" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="165" fontId="7" fillId="0" borderId="6" xfId="20" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="165" fontId="6" fillId="0" borderId="3" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="left" vertical="top" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="7" fillId="0" borderId="6" xfId="15" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+    <xf numFmtId="164" fontId="6" fillId="0" borderId="3" xfId="15" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
       <alignment horizontal="left" vertical="top" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="6" fillId="5" borderId="7" xfId="22" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+    <xf numFmtId="164" fontId="5" fillId="3" borderId="4" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
       <alignment horizontal="left" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="5" borderId="6" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="0" fillId="3" borderId="3" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="left" vertical="top" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="5" borderId="8" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="0" fillId="3" borderId="5" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="left" vertical="top" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="5" borderId="9" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="0" fillId="3" borderId="6" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="left" vertical="top" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="10" xfId="0" applyFont="false" applyBorder="true" applyAlignment="false" applyProtection="false">
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="7" xfId="0" applyFont="false" applyBorder="true" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="4" xfId="0" applyFont="false" applyBorder="true" applyAlignment="false" applyProtection="false">
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="false" applyBorder="true" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="8" fillId="5" borderId="11" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="7" fillId="3" borderId="8" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="5" borderId="11" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="0" fillId="3" borderId="8" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="5" borderId="0" xfId="0" applyFont="false" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="0" fillId="3" borderId="0" xfId="0" applyFont="false" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="8" fillId="5" borderId="11" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="7" fillId="3" borderId="8" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="8" fillId="5" borderId="11" xfId="0" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="false">
+    <xf numFmtId="164" fontId="7" fillId="3" borderId="8" xfId="0" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="5" borderId="11" xfId="0" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="false">
+    <xf numFmtId="164" fontId="0" fillId="3" borderId="8" xfId="0" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="5" borderId="0" xfId="0" applyFont="false" applyBorder="true" applyAlignment="false" applyProtection="false">
+    <xf numFmtId="164" fontId="0" fillId="3" borderId="0" xfId="0" applyFont="false" applyBorder="true" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="7" borderId="11" xfId="0" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="false">
+    <xf numFmtId="164" fontId="0" fillId="5" borderId="8" xfId="0" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="167" fontId="8" fillId="5" borderId="11" xfId="0" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="false">
+    <xf numFmtId="167" fontId="7" fillId="3" borderId="8" xfId="0" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="167" fontId="8" fillId="5" borderId="0" xfId="0" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="false">
+    <xf numFmtId="167" fontId="7" fillId="3" borderId="0" xfId="0" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="8" borderId="11" xfId="0" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="false">
+    <xf numFmtId="164" fontId="0" fillId="6" borderId="8" xfId="0" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="7" borderId="11" xfId="0" applyFont="false" applyBorder="true" applyAlignment="false" applyProtection="false">
+    <xf numFmtId="164" fontId="0" fillId="5" borderId="8" xfId="0" applyFont="false" applyBorder="true" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="168" fontId="0" fillId="5" borderId="11" xfId="0" applyFont="false" applyBorder="true" applyAlignment="false" applyProtection="false">
+    <xf numFmtId="168" fontId="0" fillId="3" borderId="8" xfId="0" applyFont="false" applyBorder="true" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="168" fontId="0" fillId="5" borderId="11" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="168" fontId="0" fillId="3" borderId="8" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="168" fontId="0" fillId="5" borderId="0" xfId="0" applyFont="false" applyBorder="true" applyAlignment="false" applyProtection="false">
+    <xf numFmtId="168" fontId="0" fillId="3" borderId="0" xfId="0" applyFont="false" applyBorder="true" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="168" fontId="8" fillId="5" borderId="11" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="168" fontId="7" fillId="3" borderId="8" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="9" fillId="9" borderId="11" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="8" fillId="7" borderId="8" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="10" borderId="11" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="0" fillId="8" borderId="8" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="5" borderId="11" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="0" fillId="3" borderId="8" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="10" fillId="11" borderId="11" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="9" fillId="9" borderId="8" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="11" fillId="12" borderId="11" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="10" fillId="10" borderId="8" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="5" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="0" fillId="3" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="true" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="6" fillId="5" borderId="12" xfId="22" applyFont="false" applyBorder="true" applyAlignment="true" applyProtection="true">
+    <xf numFmtId="164" fontId="0" fillId="3" borderId="9" xfId="0" applyFont="false" applyBorder="true" applyAlignment="true" applyProtection="true">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="12" fillId="5" borderId="13" xfId="23" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+    <xf numFmtId="164" fontId="11" fillId="3" borderId="10" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
       <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="168" fontId="0" fillId="5" borderId="13" xfId="23" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+    <xf numFmtId="168" fontId="0" fillId="3" borderId="10" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="165" fontId="0" fillId="5" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+    <xf numFmtId="165" fontId="0" fillId="3" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="5" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="0" fillId="3" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="true" applyProtection="false">
       <alignment horizontal="general" vertical="top" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="14" xfId="22" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="11" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
       <alignment horizontal="general" vertical="top" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="15" xfId="22" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="12" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
       <alignment horizontal="general" vertical="top" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="16" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="13" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="general" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="11" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="8" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="general" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="11" xfId="20" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="8" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="169" fontId="0" fillId="0" borderId="11" xfId="19" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+    <xf numFmtId="169" fontId="0" fillId="0" borderId="8" xfId="19" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="168" fontId="0" fillId="0" borderId="11" xfId="20" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="168" fontId="0" fillId="0" borderId="8" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="11" xfId="0" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="false">
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="8" xfId="0" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="11" xfId="20" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="8" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="general" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="11" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="8" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="5" borderId="17" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="0" fillId="3" borderId="14" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="general" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="5" borderId="17" xfId="20" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="0" fillId="3" borderId="14" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="left" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="5" borderId="17" xfId="20" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="0" fillId="3" borderId="14" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="169" fontId="0" fillId="5" borderId="17" xfId="19" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+    <xf numFmtId="169" fontId="0" fillId="3" borderId="14" xfId="19" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="168" fontId="0" fillId="5" borderId="17" xfId="20" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="168" fontId="0" fillId="3" borderId="14" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="5" borderId="17" xfId="0" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="false">
+    <xf numFmtId="164" fontId="0" fillId="3" borderId="14" xfId="0" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="5" borderId="17" xfId="20" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="0" fillId="3" borderId="14" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="general" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="5" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
+    <xf numFmtId="164" fontId="0" fillId="3" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="5" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="0" fillId="3" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
       <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="168" fontId="0" fillId="5" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="168" fontId="0" fillId="3" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
       <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="168" fontId="0" fillId="5" borderId="0" xfId="15" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+    <xf numFmtId="168" fontId="0" fillId="3" borderId="0" xfId="15" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="13" borderId="13" xfId="24" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+    <xf numFmtId="164" fontId="0" fillId="11" borderId="10" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
       <alignment horizontal="left" vertical="top" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="8" fillId="5" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="7" fillId="3" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
       <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="15" fillId="14" borderId="18" xfId="25" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+    <xf numFmtId="164" fontId="12" fillId="12" borderId="15" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="15" fillId="5" borderId="0" xfId="25" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+    <xf numFmtId="164" fontId="12" fillId="3" borderId="0" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
       <alignment horizontal="general" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -1454,264 +1381,245 @@
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="17" fillId="15" borderId="11" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="14" fillId="13" borderId="8" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="17" fillId="15" borderId="11" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="14" fillId="13" borderId="8" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="16" borderId="11" xfId="20" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="0" fillId="14" borderId="8" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="general" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="165" fontId="0" fillId="0" borderId="11" xfId="0" applyFont="false" applyBorder="true" applyAlignment="false" applyProtection="false">
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="8" xfId="0" applyFont="false" applyBorder="true" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="11" xfId="0" applyFont="false" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="8" xfId="0" applyFont="false" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="11" xfId="20" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="165" fontId="0" fillId="5" borderId="10" xfId="0" applyFont="false" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="165" fontId="0" fillId="3" borderId="7" xfId="0" applyFont="false" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="general" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="16" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="167" fontId="0" fillId="14" borderId="8" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="169" fontId="0" fillId="3" borderId="17" xfId="0" applyFont="false" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="169" fontId="0" fillId="3" borderId="7" xfId="0" applyFont="false" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="167" fontId="0" fillId="0" borderId="8" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="169" fontId="15" fillId="0" borderId="17" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="7" xfId="0" applyFont="false" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="169" fontId="0" fillId="0" borderId="18" xfId="0" applyFont="false" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="169" fontId="0" fillId="0" borderId="7" xfId="0" applyFont="false" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="18" xfId="0" applyFont="false" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="18" xfId="0" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="left" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="7" xfId="0" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="19" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="167" fontId="0" fillId="16" borderId="11" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="19" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="left" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="20" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="12" fillId="15" borderId="8" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="169" fontId="0" fillId="5" borderId="20" xfId="0" applyFont="false" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="169" fontId="0" fillId="5" borderId="10" xfId="0" applyFont="false" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="167" fontId="0" fillId="0" borderId="11" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="18" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="20" xfId="0" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="16" fillId="16" borderId="8" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="169" fontId="18" fillId="0" borderId="20" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="10" xfId="0" applyFont="false" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="169" fontId="0" fillId="0" borderId="21" xfId="0" applyFont="false" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="169" fontId="0" fillId="0" borderId="10" xfId="0" applyFont="false" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="21" xfId="0" applyFont="false" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="21" xfId="0" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="false">
+    <xf numFmtId="164" fontId="16" fillId="16" borderId="8" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="left" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="165" fontId="17" fillId="0" borderId="8" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="17" fillId="0" borderId="8" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="left" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="17" fillId="0" borderId="8" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="17" fillId="0" borderId="8" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="168" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="168" fontId="0" fillId="0" borderId="19" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="168" fontId="16" fillId="16" borderId="8" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="17" fillId="0" borderId="20" xfId="0" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="4" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="165" fontId="17" fillId="17" borderId="8" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="4" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="168" fontId="17" fillId="17" borderId="8" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="17" fillId="17" borderId="8" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="left" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="4" xfId="0" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="false">
+    <xf numFmtId="164" fontId="17" fillId="0" borderId="18" xfId="0" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="10" xfId="0" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="false">
+    <xf numFmtId="164" fontId="17" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="22" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="168" fontId="17" fillId="0" borderId="8" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="22" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="18" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="17" fillId="3" borderId="8" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="left" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="23" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="7" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="168" fontId="0" fillId="0" borderId="7" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="7" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="left" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="8" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="general" vertical="top" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="171" fontId="0" fillId="0" borderId="8" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="16" fillId="2" borderId="21" xfId="20" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
       <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="15" fillId="17" borderId="11" xfId="25" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="21" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="4" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="23" xfId="0" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="false">
+    <xf numFmtId="164" fontId="19" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="19" fillId="18" borderId="11" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="19" fillId="18" borderId="11" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="left" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="165" fontId="20" fillId="0" borderId="11" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="20" fillId="0" borderId="11" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="left" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="20" fillId="0" borderId="11" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="20" fillId="0" borderId="11" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="3" borderId="22" xfId="0" applyFont="false" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="16" fillId="0" borderId="23" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="168" fontId="0" fillId="0" borderId="4" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="168" fontId="0" fillId="0" borderId="22" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="168" fontId="19" fillId="18" borderId="11" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="20" fillId="0" borderId="23" xfId="0" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="false">
+    <xf numFmtId="164" fontId="19" fillId="3" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="165" fontId="20" fillId="19" borderId="11" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="168" fontId="20" fillId="19" borderId="11" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="20" fillId="19" borderId="11" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="left" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="20" fillId="0" borderId="21" xfId="0" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="20" fillId="0" borderId="4" xfId="0" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="165" fontId="20" fillId="0" borderId="11" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="168" fontId="20" fillId="0" borderId="11" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="21" fillId="0" borderId="4" xfId="0" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="20" fillId="5" borderId="11" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="left" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="10" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="168" fontId="0" fillId="0" borderId="10" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="10" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="left" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="11" xfId="26" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
-      <alignment horizontal="general" vertical="top" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="171" fontId="0" fillId="0" borderId="11" xfId="20" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="11" xfId="20" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="19" fillId="4" borderId="24" xfId="27" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
-      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="14" fillId="0" borderId="0" xfId="20" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="20" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="5" borderId="25" xfId="0" applyFont="false" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="19" fillId="2" borderId="26" xfId="24" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="14" fillId="5" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
   </cellXfs>
-  <cellStyles count="14">
+  <cellStyles count="7">
     <cellStyle name="Normal" xfId="0" builtinId="0" customBuiltin="false"/>
     <cellStyle name="Comma" xfId="15" builtinId="3" customBuiltin="false"/>
     <cellStyle name="Comma [0]" xfId="16" builtinId="6" customBuiltin="false"/>
     <cellStyle name="Currency" xfId="17" builtinId="4" customBuiltin="false"/>
     <cellStyle name="Currency [0]" xfId="18" builtinId="7" customBuiltin="false"/>
     <cellStyle name="Percent" xfId="19" builtinId="5" customBuiltin="false"/>
-    <cellStyle name="Normal 2" xfId="20" builtinId="53" customBuiltin="true"/>
-    <cellStyle name="Excel Built-in Heading 1" xfId="21" builtinId="53" customBuiltin="true"/>
-    <cellStyle name="Excel Built-in Heading 4" xfId="22" builtinId="53" customBuiltin="true"/>
-    <cellStyle name="Excel Built-in Heading 2" xfId="23" builtinId="53" customBuiltin="true"/>
-    <cellStyle name="Excel Built-in Accent6" xfId="24" builtinId="53" customBuiltin="true"/>
-    <cellStyle name="Excel Built-in Accent3" xfId="25" builtinId="53" customBuiltin="true"/>
-    <cellStyle name="Excel Built-in Heading 3" xfId="26" builtinId="53" customBuiltin="true"/>
-    <cellStyle name="Excel Built-in Accent1" xfId="27" builtinId="53" customBuiltin="true"/>
+    <cellStyle name="Excel Built-in Explanatory Text" xfId="20" builtinId="53" customBuiltin="true"/>
   </cellStyles>
-  <dxfs count="14">
+  <dxfs count="7">
     <dxf>
       <font>
         <b val="1"/>
@@ -1795,82 +1703,6 @@
         <diagonal/>
       </border>
     </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF181818"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFCBCBA5"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FFD7E8CE"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF324D24"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FFF7D4D4"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFA11E1E"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FFD2CDF8"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF2716A2"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="1"/>
-        <i val="0"/>
-        <color rgb="FF324D24"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFAFD19D"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="1"/>
-        <i val="0"/>
-        <color rgb="FFF5F5ED"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFA9A96B"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="1"/>
-        <i val="0"/>
-        <color rgb="FFFFD9C9"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFA11E1E"/>
-        </patternFill>
-      </fill>
-    </dxf>
   </dxfs>
   <colors>
     <indexedColors>
@@ -1881,30 +1713,30 @@
       <rgbColor rgb="FF0000FF"/>
       <rgbColor rgb="FFD7E8CE"/>
       <rgbColor rgb="FFFF00FF"/>
-      <rgbColor rgb="FFC0D5EF"/>
+      <rgbColor rgb="FF00FFFF"/>
       <rgbColor rgb="FF800000"/>
       <rgbColor rgb="FF008000"/>
       <rgbColor rgb="FF002060"/>
-      <rgbColor rgb="FFBDD5E1"/>
+      <rgbColor rgb="FF808000"/>
       <rgbColor rgb="FF800080"/>
       <rgbColor rgb="FF00B050"/>
       <rgbColor rgb="FFBFBFBF"/>
       <rgbColor rgb="FF797979"/>
-      <rgbColor rgb="FF8F82EE"/>
+      <rgbColor rgb="FFC9DAF8"/>
       <rgbColor rgb="FF7030A0"/>
       <rgbColor rgb="FFF5F5ED"/>
       <rgbColor rgb="FFDEEAF0"/>
       <rgbColor rgb="FF660066"/>
-      <rgbColor rgb="FFCBCBA5"/>
+      <rgbColor rgb="FFFF8080"/>
       <rgbColor rgb="FF0070C0"/>
-      <rgbColor rgb="FFD2CDF8"/>
+      <rgbColor rgb="FFC0D5EF"/>
       <rgbColor rgb="FF000080"/>
       <rgbColor rgb="FFFF00FF"/>
-      <rgbColor rgb="FFAFD19D"/>
-      <rgbColor rgb="FFC9DAF8"/>
+      <rgbColor rgb="FFFFFF00"/>
+      <rgbColor rgb="FF00FFFF"/>
       <rgbColor rgb="FF800080"/>
       <rgbColor rgb="FF800000"/>
-      <rgbColor rgb="FFD9D9D9"/>
+      <rgbColor rgb="FF008080"/>
       <rgbColor rgb="FF0000FF"/>
       <rgbColor rgb="FF00B0F0"/>
       <rgbColor rgb="FFF2F2F2"/>
@@ -1912,23 +1744,23 @@
       <rgbColor rgb="FFFFEEB9"/>
       <rgbColor rgb="FF9FD6FF"/>
       <rgbColor rgb="FFFFA3A3"/>
-      <rgbColor rgb="FF9DC0D1"/>
-      <rgbColor rgb="FFFFD9C9"/>
+      <rgbColor rgb="FFBDD5E1"/>
+      <rgbColor rgb="FFD9D9D9"/>
       <rgbColor rgb="FF3D85C6"/>
-      <rgbColor rgb="FFADCAD9"/>
+      <rgbColor rgb="FF33CCCC"/>
       <rgbColor rgb="FF92D050"/>
       <rgbColor rgb="FFFFC000"/>
-      <rgbColor rgb="FFF7D4D4"/>
-      <rgbColor rgb="FFF24500"/>
+      <rgbColor rgb="FFFF9900"/>
+      <rgbColor rgb="FFFF6600"/>
       <rgbColor rgb="FF40728A"/>
-      <rgbColor rgb="FFA9A96B"/>
+      <rgbColor rgb="FFAFD19D"/>
       <rgbColor rgb="FF17365D"/>
       <rgbColor rgb="FF5B96B3"/>
-      <rgbColor rgb="FF181818"/>
-      <rgbColor rgb="FF324D24"/>
-      <rgbColor rgb="FFA11E1E"/>
-      <rgbColor rgb="FF595959"/>
-      <rgbColor rgb="FF2716A2"/>
+      <rgbColor rgb="FF003300"/>
+      <rgbColor rgb="FF333300"/>
+      <rgbColor rgb="FF993300"/>
+      <rgbColor rgb="FF993366"/>
+      <rgbColor rgb="FF333399"/>
       <rgbColor rgb="FF262626"/>
     </indexedColors>
   </colors>
@@ -1946,10 +1778,10 @@
           <c:layoutTarget val="inner"/>
           <c:xMode val="edge"/>
           <c:yMode val="edge"/>
-          <c:x val="0.0579052369077307"/>
-          <c:y val="0.0298131429771153"/>
-          <c:w val="0.915361596009975"/>
-          <c:h val="0.628805374763804"/>
+          <c:x val="0.057926221335992"/>
+          <c:y val="0.0299018488929468"/>
+          <c:w val="0.91530408773679"/>
+          <c:h val="0.62862360191737"/>
         </c:manualLayout>
       </c:layout>
       <c:areaChart>
@@ -2062,8 +1894,8 @@
             </c:numRef>
           </c:val>
         </c:ser>
-        <c:axId val="69238247"/>
-        <c:axId val="60769405"/>
+        <c:axId val="46495007"/>
+        <c:axId val="10419957"/>
       </c:areaChart>
       <c:lineChart>
         <c:grouping val="standard"/>
@@ -2097,6 +1929,7 @@
             <c:symbol val="none"/>
           </c:marker>
           <c:dLbls>
+            <c:dLblPos val="r"/>
             <c:showLegendKey val="0"/>
             <c:showVal val="0"/>
             <c:showCatName val="0"/>
@@ -2209,6 +2042,7 @@
             <c:symbol val="none"/>
           </c:marker>
           <c:dLbls>
+            <c:dLblPos val="r"/>
             <c:showLegendKey val="0"/>
             <c:showVal val="0"/>
             <c:showCatName val="0"/>
@@ -2303,11 +2137,11 @@
           </c:spPr>
         </c:hiLowLines>
         <c:marker val="0"/>
-        <c:axId val="63556795"/>
-        <c:axId val="37705099"/>
+        <c:axId val="74383385"/>
+        <c:axId val="6573375"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="69238247"/>
+        <c:axId val="46495007"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2339,14 +2173,14 @@
             </a:pPr>
           </a:p>
         </c:txPr>
-        <c:crossAx val="60769405"/>
-        <c:crossesAt val="0"/>
+        <c:crossAx val="10419957"/>
+        <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
         <c:lblOffset val="100"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="60769405"/>
+        <c:axId val="10419957"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:min val="0"/>
@@ -2386,16 +2220,16 @@
             </a:pPr>
           </a:p>
         </c:txPr>
-        <c:crossAx val="69238247"/>
+        <c:crossAx val="46495007"/>
         <c:crosses val="autoZero"/>
       </c:valAx>
       <c:catAx>
-        <c:axId val="63556795"/>
+        <c:axId val="74383385"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
         <c:delete val="1"/>
-        <c:axPos val="b"/>
+        <c:axPos val="t"/>
         <c:numFmt formatCode="D/M;@" sourceLinked="1"/>
         <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
@@ -2422,30 +2256,20 @@
             </a:pPr>
           </a:p>
         </c:txPr>
-        <c:crossAx val="37705099"/>
-        <c:crossesAt val="0"/>
+        <c:crossAx val="6573375"/>
+        <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
         <c:lblOffset val="100"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="37705099"/>
+        <c:axId val="6573375"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:min val="0"/>
         </c:scaling>
         <c:delete val="1"/>
-        <c:axPos val="l"/>
-        <c:majorGridlines>
-          <c:spPr>
-            <a:ln w="9360">
-              <a:solidFill>
-                <a:srgbClr val="f2f2f2"/>
-              </a:solidFill>
-              <a:round/>
-            </a:ln>
-          </c:spPr>
-        </c:majorGridlines>
+        <c:axPos val="r"/>
         <c:numFmt formatCode="0" sourceLinked="0"/>
         <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
@@ -2469,7 +2293,7 @@
             </a:pPr>
           </a:p>
         </c:txPr>
-        <c:crossAx val="63556795"/>
+        <c:crossAx val="74383385"/>
         <c:crosses val="autoZero"/>
       </c:valAx>
       <c:dTable>
@@ -2489,6 +2313,7 @@
     <c:dispBlanksAs val="gap"/>
   </c:chart>
   <c:spPr>
+    <a:noFill/>
     <a:ln>
       <a:noFill/>
     </a:ln>
@@ -2507,9 +2332,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>3</xdr:col>
-      <xdr:colOff>1202760</xdr:colOff>
+      <xdr:colOff>1202400</xdr:colOff>
       <xdr:row>9</xdr:row>
-      <xdr:rowOff>98640</xdr:rowOff>
+      <xdr:rowOff>98280</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -2523,7 +2348,7 @@
       <xdr:spPr>
         <a:xfrm>
           <a:off x="262440" y="537120"/>
-          <a:ext cx="2491920" cy="1333080"/>
+          <a:ext cx="2493720" cy="1332720"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -2549,9 +2374,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>24</xdr:col>
-      <xdr:colOff>847080</xdr:colOff>
+      <xdr:colOff>846720</xdr:colOff>
       <xdr:row>10</xdr:row>
-      <xdr:rowOff>175320</xdr:rowOff>
+      <xdr:rowOff>174960</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame>
       <xdr:nvGraphicFramePr>
@@ -2559,8 +2384,8 @@
         <xdr:cNvGraphicFramePr/>
       </xdr:nvGraphicFramePr>
       <xdr:xfrm>
-        <a:off x="9528120" y="809640"/>
-        <a:ext cx="7217280" cy="1577160"/>
+        <a:off x="9530640" y="809640"/>
+        <a:ext cx="7221240" cy="1576800"/>
       </xdr:xfrm>
       <a:graphic>
         <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
@@ -2936,263 +2761,263 @@
   </cols>
   <sheetData>
     <row r="2" customFormat="false" ht="23.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="B2" s="123" t="s">
-        <v>117</v>
-      </c>
-      <c r="C2" s="123"/>
-      <c r="D2" s="123"/>
+      <c r="B2" s="120" t="s">
+        <v>118</v>
+      </c>
+      <c r="C2" s="120"/>
+      <c r="D2" s="120"/>
     </row>
     <row r="3" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B3" s="124" t="s">
-        <v>118</v>
-      </c>
-      <c r="C3" s="124" t="s">
+      <c r="B3" s="121" t="s">
         <v>119</v>
       </c>
-      <c r="D3" s="124" t="s">
+      <c r="C3" s="121" t="s">
         <v>120</v>
       </c>
+      <c r="D3" s="121" t="s">
+        <v>121</v>
+      </c>
     </row>
     <row r="4" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B4" s="125" t="s">
-        <v>100</v>
-      </c>
-      <c r="C4" s="125" t="s">
-        <v>110</v>
-      </c>
-      <c r="D4" s="125" t="s">
-        <v>121</v>
+      <c r="B4" s="122" t="s">
+        <v>101</v>
+      </c>
+      <c r="C4" s="122" t="s">
+        <v>111</v>
+      </c>
+      <c r="D4" s="122" t="s">
+        <v>122</v>
       </c>
     </row>
     <row r="5" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B5" s="125" t="s">
-        <v>100</v>
-      </c>
-      <c r="C5" s="125" t="s">
-        <v>122</v>
-      </c>
-      <c r="D5" s="125" t="s">
+      <c r="B5" s="122" t="s">
+        <v>101</v>
+      </c>
+      <c r="C5" s="122" t="s">
         <v>123</v>
       </c>
+      <c r="D5" s="122" t="s">
+        <v>124</v>
+      </c>
     </row>
     <row r="6" customFormat="false" ht="30" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B6" s="125" t="s">
-        <v>100</v>
-      </c>
-      <c r="C6" s="125" t="s">
-        <v>124</v>
-      </c>
-      <c r="D6" s="125" t="s">
+      <c r="B6" s="122" t="s">
+        <v>101</v>
+      </c>
+      <c r="C6" s="122" t="s">
         <v>125</v>
       </c>
+      <c r="D6" s="122" t="s">
+        <v>126</v>
+      </c>
     </row>
     <row r="7" customFormat="false" ht="75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B7" s="125" t="s">
-        <v>101</v>
-      </c>
-      <c r="C7" s="125" t="s">
-        <v>110</v>
-      </c>
-      <c r="D7" s="125" t="s">
-        <v>126</v>
+      <c r="B7" s="122" t="s">
+        <v>102</v>
+      </c>
+      <c r="C7" s="122" t="s">
+        <v>111</v>
+      </c>
+      <c r="D7" s="122" t="s">
+        <v>127</v>
       </c>
     </row>
     <row r="8" customFormat="false" ht="30" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B8" s="125" t="s">
-        <v>101</v>
-      </c>
-      <c r="C8" s="125" t="s">
-        <v>122</v>
-      </c>
-      <c r="D8" s="125" t="s">
-        <v>127</v>
+      <c r="B8" s="122" t="s">
+        <v>102</v>
+      </c>
+      <c r="C8" s="122" t="s">
+        <v>123</v>
+      </c>
+      <c r="D8" s="122" t="s">
+        <v>128</v>
       </c>
     </row>
     <row r="9" customFormat="false" ht="30" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B9" s="125" t="s">
-        <v>101</v>
-      </c>
-      <c r="C9" s="125" t="s">
-        <v>124</v>
-      </c>
-      <c r="D9" s="125" t="s">
-        <v>128</v>
+      <c r="B9" s="122" t="s">
+        <v>102</v>
+      </c>
+      <c r="C9" s="122" t="s">
+        <v>125</v>
+      </c>
+      <c r="D9" s="122" t="s">
+        <v>129</v>
       </c>
     </row>
     <row r="10" customFormat="false" ht="165" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B10" s="125" t="s">
-        <v>102</v>
-      </c>
-      <c r="C10" s="125" t="s">
-        <v>110</v>
-      </c>
-      <c r="D10" s="125" t="s">
-        <v>129</v>
+      <c r="B10" s="122" t="s">
+        <v>103</v>
+      </c>
+      <c r="C10" s="122" t="s">
+        <v>111</v>
+      </c>
+      <c r="D10" s="122" t="s">
+        <v>130</v>
       </c>
     </row>
     <row r="11" customFormat="false" ht="30" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B11" s="125" t="s">
-        <v>102</v>
-      </c>
-      <c r="C11" s="125" t="s">
-        <v>122</v>
-      </c>
-      <c r="D11" s="125" t="s">
-        <v>130</v>
+      <c r="B11" s="122" t="s">
+        <v>103</v>
+      </c>
+      <c r="C11" s="122" t="s">
+        <v>123</v>
+      </c>
+      <c r="D11" s="122" t="s">
+        <v>131</v>
       </c>
     </row>
     <row r="12" customFormat="false" ht="30" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B12" s="125" t="s">
-        <v>102</v>
-      </c>
-      <c r="C12" s="125" t="s">
-        <v>124</v>
-      </c>
-      <c r="D12" s="125" t="s">
-        <v>131</v>
+      <c r="B12" s="122" t="s">
+        <v>103</v>
+      </c>
+      <c r="C12" s="122" t="s">
+        <v>125</v>
+      </c>
+      <c r="D12" s="122" t="s">
+        <v>132</v>
       </c>
     </row>
     <row r="13" customFormat="false" ht="30" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B13" s="125" t="s">
+      <c r="B13" s="122" t="s">
+        <v>105</v>
+      </c>
+      <c r="C13" s="122" t="s">
+        <v>112</v>
+      </c>
+      <c r="D13" s="122" t="s">
+        <v>133</v>
+      </c>
+    </row>
+    <row r="14" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B14" s="122" t="s">
+        <v>105</v>
+      </c>
+      <c r="C14" s="122" t="s">
+        <v>134</v>
+      </c>
+      <c r="D14" s="122" t="s">
+        <v>135</v>
+      </c>
+    </row>
+    <row r="15" customFormat="false" ht="30" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B15" s="122" t="s">
+        <v>105</v>
+      </c>
+      <c r="C15" s="122" t="s">
+        <v>136</v>
+      </c>
+      <c r="D15" s="122" t="s">
+        <v>137</v>
+      </c>
+    </row>
+    <row r="16" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B16" s="122" t="s">
+        <v>106</v>
+      </c>
+      <c r="C16" s="122" t="s">
+        <v>113</v>
+      </c>
+      <c r="D16" s="122" t="s">
+        <v>138</v>
+      </c>
+    </row>
+    <row r="17" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B17" s="122" t="s">
+        <v>106</v>
+      </c>
+      <c r="C17" s="122" t="s">
+        <v>139</v>
+      </c>
+      <c r="D17" s="122" t="s">
+        <v>140</v>
+      </c>
+    </row>
+    <row r="18" customFormat="false" ht="60" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B18" s="122" t="s">
+        <v>141</v>
+      </c>
+      <c r="C18" s="122" t="s">
+        <v>114</v>
+      </c>
+      <c r="D18" s="122" t="s">
+        <v>142</v>
+      </c>
+    </row>
+    <row r="19" customFormat="false" ht="30" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B19" s="122" t="s">
+        <v>141</v>
+      </c>
+      <c r="C19" s="122" t="s">
+        <v>143</v>
+      </c>
+      <c r="D19" s="122" t="s">
+        <v>144</v>
+      </c>
+    </row>
+    <row r="20" customFormat="false" ht="105" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B20" s="122" t="s">
+        <v>108</v>
+      </c>
+      <c r="C20" s="122" t="s">
+        <v>145</v>
+      </c>
+      <c r="D20" s="122" t="s">
+        <v>146</v>
+      </c>
+    </row>
+    <row r="21" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B21" s="122" t="s">
+        <v>108</v>
+      </c>
+      <c r="C21" s="122" t="s">
+        <v>116</v>
+      </c>
+      <c r="D21" s="122" t="s">
+        <v>147</v>
+      </c>
+    </row>
+    <row r="22" customFormat="false" ht="30" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B22" s="122" t="s">
+        <v>108</v>
+      </c>
+      <c r="C22" s="122" t="s">
+        <v>115</v>
+      </c>
+      <c r="D22" s="122" t="s">
+        <v>148</v>
+      </c>
+    </row>
+    <row r="23" customFormat="false" ht="30" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B23" s="122" t="s">
         <v>104</v>
       </c>
-      <c r="C13" s="125" t="s">
-        <v>111</v>
-      </c>
-      <c r="D13" s="125" t="s">
-        <v>132</v>
-      </c>
-    </row>
-    <row r="14" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B14" s="125" t="s">
+      <c r="C23" s="122" t="s">
+        <v>149</v>
+      </c>
+      <c r="D23" s="122" t="s">
+        <v>150</v>
+      </c>
+    </row>
+    <row r="24" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B24" s="122" t="s">
         <v>104</v>
       </c>
-      <c r="C14" s="125" t="s">
-        <v>133</v>
-      </c>
-      <c r="D14" s="125" t="s">
-        <v>134</v>
-      </c>
-    </row>
-    <row r="15" customFormat="false" ht="30" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B15" s="125" t="s">
+      <c r="C24" s="122" t="s">
+        <v>151</v>
+      </c>
+      <c r="D24" s="122" t="s">
+        <v>152</v>
+      </c>
+    </row>
+    <row r="25" customFormat="false" ht="30" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B25" s="122" t="s">
         <v>104</v>
       </c>
-      <c r="C15" s="125" t="s">
-        <v>135</v>
-      </c>
-      <c r="D15" s="125" t="s">
-        <v>136</v>
-      </c>
-    </row>
-    <row r="16" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B16" s="125" t="s">
-        <v>105</v>
-      </c>
-      <c r="C16" s="125" t="s">
-        <v>112</v>
-      </c>
-      <c r="D16" s="125" t="s">
-        <v>137</v>
-      </c>
-    </row>
-    <row r="17" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B17" s="125" t="s">
-        <v>105</v>
-      </c>
-      <c r="C17" s="125" t="s">
-        <v>138</v>
-      </c>
-      <c r="D17" s="125" t="s">
-        <v>139</v>
-      </c>
-    </row>
-    <row r="18" customFormat="false" ht="60" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B18" s="125" t="s">
-        <v>140</v>
-      </c>
-      <c r="C18" s="125" t="s">
-        <v>113</v>
-      </c>
-      <c r="D18" s="125" t="s">
-        <v>141</v>
-      </c>
-    </row>
-    <row r="19" customFormat="false" ht="30" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B19" s="125" t="s">
-        <v>140</v>
-      </c>
-      <c r="C19" s="125" t="s">
-        <v>142</v>
-      </c>
-      <c r="D19" s="125" t="s">
-        <v>143</v>
-      </c>
-    </row>
-    <row r="20" customFormat="false" ht="105" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B20" s="125" t="s">
-        <v>107</v>
-      </c>
-      <c r="C20" s="125" t="s">
-        <v>144</v>
-      </c>
-      <c r="D20" s="125" t="s">
-        <v>145</v>
-      </c>
-    </row>
-    <row r="21" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B21" s="125" t="s">
-        <v>107</v>
-      </c>
-      <c r="C21" s="125" t="s">
-        <v>115</v>
-      </c>
-      <c r="D21" s="125" t="s">
-        <v>146</v>
-      </c>
-    </row>
-    <row r="22" customFormat="false" ht="30" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B22" s="125" t="s">
-        <v>107</v>
-      </c>
-      <c r="C22" s="125" t="s">
-        <v>114</v>
-      </c>
-      <c r="D22" s="125" t="s">
-        <v>147</v>
-      </c>
-    </row>
-    <row r="23" customFormat="false" ht="30" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B23" s="125" t="s">
-        <v>103</v>
-      </c>
-      <c r="C23" s="125" t="s">
-        <v>148</v>
-      </c>
-      <c r="D23" s="125" t="s">
-        <v>149</v>
-      </c>
-    </row>
-    <row r="24" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B24" s="125" t="s">
-        <v>103</v>
-      </c>
-      <c r="C24" s="125" t="s">
-        <v>150</v>
-      </c>
-      <c r="D24" s="125" t="s">
-        <v>151</v>
-      </c>
-    </row>
-    <row r="25" customFormat="false" ht="30" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B25" s="125" t="s">
-        <v>103</v>
-      </c>
-      <c r="C25" s="125" t="s">
-        <v>152</v>
-      </c>
-      <c r="D25" s="125" t="s">
+      <c r="C25" s="122" t="s">
         <v>153</v>
+      </c>
+      <c r="D25" s="122" t="s">
+        <v>154</v>
       </c>
     </row>
   </sheetData>
@@ -3233,7 +3058,7 @@
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="6" min="6" style="1" width="7.57"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="7" min="7" style="1" width="1.71"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="8" min="8" style="1" width="10"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="9" min="9" style="1" width="7.86"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="9" min="9" style="1" width="7.87"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="10" min="10" style="1" width="1.71"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="11" min="11" style="1" width="19.99"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="12" min="12" style="1" width="7.57"/>
@@ -3253,256 +3078,256 @@
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1025" min="26" style="1" width="8.86"/>
   </cols>
   <sheetData>
-    <row r="2" s="126" customFormat="true" ht="60.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="B2" s="127" t="s">
-        <v>154</v>
-      </c>
-      <c r="C2" s="127"/>
-      <c r="E2" s="127" t="s">
-        <v>100</v>
-      </c>
-      <c r="F2" s="127"/>
-      <c r="H2" s="127" t="s">
-        <v>104</v>
-      </c>
-      <c r="I2" s="127"/>
-      <c r="K2" s="127" t="s">
+    <row r="2" s="123" customFormat="true" ht="60.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="B2" s="124" t="s">
+        <v>155</v>
+      </c>
+      <c r="C2" s="124"/>
+      <c r="E2" s="124" t="s">
+        <v>101</v>
+      </c>
+      <c r="F2" s="124"/>
+      <c r="H2" s="124" t="s">
         <v>105</v>
       </c>
-      <c r="L2" s="127"/>
-      <c r="N2" s="127" t="s">
-        <v>155</v>
-      </c>
-      <c r="O2" s="127"/>
-      <c r="Q2" s="127" t="s">
-        <v>107</v>
-      </c>
-      <c r="R2" s="127"/>
-      <c r="T2" s="127" t="s">
-        <v>101</v>
-      </c>
-      <c r="U2" s="127"/>
-      <c r="W2" s="127" t="s">
+      <c r="I2" s="124"/>
+      <c r="K2" s="124" t="s">
+        <v>106</v>
+      </c>
+      <c r="L2" s="124"/>
+      <c r="N2" s="124" t="s">
         <v>156</v>
       </c>
-      <c r="X2" s="127"/>
-    </row>
-    <row r="3" s="128" customFormat="true" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B3" s="124" t="s">
-        <v>119</v>
-      </c>
-      <c r="C3" s="124" t="s">
+      <c r="O2" s="124"/>
+      <c r="Q2" s="124" t="s">
+        <v>108</v>
+      </c>
+      <c r="R2" s="124"/>
+      <c r="T2" s="124" t="s">
+        <v>102</v>
+      </c>
+      <c r="U2" s="124"/>
+      <c r="W2" s="124" t="s">
+        <v>157</v>
+      </c>
+      <c r="X2" s="124"/>
+    </row>
+    <row r="3" s="125" customFormat="true" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B3" s="121" t="s">
+        <v>120</v>
+      </c>
+      <c r="C3" s="121" t="s">
         <v>65</v>
       </c>
-      <c r="E3" s="124" t="s">
-        <v>119</v>
-      </c>
-      <c r="F3" s="124" t="s">
-        <v>157</v>
-      </c>
-      <c r="H3" s="124" t="s">
-        <v>119</v>
-      </c>
-      <c r="I3" s="124" t="s">
-        <v>157</v>
-      </c>
-      <c r="K3" s="124" t="s">
-        <v>119</v>
-      </c>
-      <c r="L3" s="124" t="s">
-        <v>157</v>
-      </c>
-      <c r="N3" s="124" t="s">
-        <v>119</v>
-      </c>
-      <c r="O3" s="124" t="s">
-        <v>157</v>
-      </c>
-      <c r="Q3" s="124" t="s">
-        <v>119</v>
-      </c>
-      <c r="R3" s="124" t="s">
-        <v>157</v>
-      </c>
-      <c r="T3" s="124" t="s">
-        <v>119</v>
-      </c>
-      <c r="U3" s="124" t="s">
-        <v>157</v>
-      </c>
-      <c r="W3" s="124" t="s">
-        <v>119</v>
-      </c>
-      <c r="X3" s="124" t="s">
-        <v>157</v>
+      <c r="E3" s="121" t="s">
+        <v>120</v>
+      </c>
+      <c r="F3" s="121" t="s">
+        <v>158</v>
+      </c>
+      <c r="H3" s="121" t="s">
+        <v>120</v>
+      </c>
+      <c r="I3" s="121" t="s">
+        <v>158</v>
+      </c>
+      <c r="K3" s="121" t="s">
+        <v>120</v>
+      </c>
+      <c r="L3" s="121" t="s">
+        <v>158</v>
+      </c>
+      <c r="N3" s="121" t="s">
+        <v>120</v>
+      </c>
+      <c r="O3" s="121" t="s">
+        <v>158</v>
+      </c>
+      <c r="Q3" s="121" t="s">
+        <v>120</v>
+      </c>
+      <c r="R3" s="121" t="s">
+        <v>158</v>
+      </c>
+      <c r="T3" s="121" t="s">
+        <v>120</v>
+      </c>
+      <c r="U3" s="121" t="s">
+        <v>158</v>
+      </c>
+      <c r="W3" s="121" t="s">
+        <v>120</v>
+      </c>
+      <c r="X3" s="121" t="s">
+        <v>158</v>
       </c>
     </row>
     <row r="4" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B4" s="125" t="n">
+      <c r="B4" s="122" t="n">
         <v>2</v>
       </c>
-      <c r="C4" s="125" t="s">
+      <c r="C4" s="122" t="s">
         <v>23</v>
       </c>
-      <c r="E4" s="125" t="s">
-        <v>110</v>
-      </c>
-      <c r="F4" s="125" t="n">
+      <c r="E4" s="122" t="s">
+        <v>111</v>
+      </c>
+      <c r="F4" s="122" t="n">
         <v>1</v>
       </c>
-      <c r="H4" s="125" t="s">
-        <v>111</v>
-      </c>
-      <c r="I4" s="125" t="n">
+      <c r="H4" s="122" t="s">
+        <v>112</v>
+      </c>
+      <c r="I4" s="122" t="n">
         <v>1</v>
       </c>
-      <c r="K4" s="125" t="s">
+      <c r="K4" s="122" t="s">
+        <v>113</v>
+      </c>
+      <c r="L4" s="122" t="n">
+        <v>1</v>
+      </c>
+      <c r="N4" s="122" t="s">
+        <v>114</v>
+      </c>
+      <c r="O4" s="122" t="n">
+        <v>1</v>
+      </c>
+      <c r="Q4" s="122" t="s">
+        <v>145</v>
+      </c>
+      <c r="R4" s="122" t="n">
+        <v>13</v>
+      </c>
+      <c r="T4" s="122" t="s">
         <v>112</v>
       </c>
-      <c r="L4" s="125" t="n">
+      <c r="U4" s="122" t="n">
         <v>1</v>
       </c>
-      <c r="N4" s="125" t="s">
-        <v>113</v>
-      </c>
-      <c r="O4" s="125" t="n">
+      <c r="W4" s="122" t="s">
+        <v>117</v>
+      </c>
+      <c r="X4" s="122" t="n">
         <v>1</v>
       </c>
-      <c r="Q4" s="125" t="s">
-        <v>144</v>
-      </c>
-      <c r="R4" s="125" t="n">
+    </row>
+    <row r="5" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B5" s="122" t="n">
+        <v>3</v>
+      </c>
+      <c r="C5" s="122" t="s">
+        <v>159</v>
+      </c>
+      <c r="E5" s="122" t="s">
+        <v>123</v>
+      </c>
+      <c r="F5" s="122" t="n">
+        <v>5</v>
+      </c>
+      <c r="H5" s="122" t="s">
+        <v>134</v>
+      </c>
+      <c r="I5" s="122" t="n">
+        <v>5</v>
+      </c>
+      <c r="K5" s="122" t="s">
+        <v>139</v>
+      </c>
+      <c r="L5" s="122" t="n">
+        <v>8</v>
+      </c>
+      <c r="N5" s="122" t="s">
+        <v>143</v>
+      </c>
+      <c r="O5" s="122" t="n">
+        <v>8</v>
+      </c>
+      <c r="Q5" s="122" t="s">
+        <v>116</v>
+      </c>
+      <c r="R5" s="122" t="n">
+        <v>3</v>
+      </c>
+      <c r="T5" s="122" t="s">
+        <v>134</v>
+      </c>
+      <c r="U5" s="122" t="n">
+        <v>5</v>
+      </c>
+      <c r="W5" s="122" t="s">
+        <v>151</v>
+      </c>
+      <c r="X5" s="122" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="6" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B6" s="122" t="n">
+        <v>4</v>
+      </c>
+      <c r="C6" s="122" t="s">
+        <v>160</v>
+      </c>
+      <c r="E6" s="122" t="s">
+        <v>125</v>
+      </c>
+      <c r="F6" s="122" t="n">
         <v>13</v>
       </c>
-      <c r="T4" s="125" t="s">
-        <v>111</v>
-      </c>
-      <c r="U4" s="125" t="n">
+      <c r="H6" s="122" t="s">
+        <v>136</v>
+      </c>
+      <c r="I6" s="122" t="n">
         <v>1</v>
       </c>
-      <c r="W4" s="125" t="s">
-        <v>116</v>
-      </c>
-      <c r="X4" s="125" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="5" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B5" s="125" t="n">
-        <v>3</v>
-      </c>
-      <c r="C5" s="125" t="s">
-        <v>158</v>
-      </c>
-      <c r="E5" s="125" t="s">
-        <v>122</v>
-      </c>
-      <c r="F5" s="125" t="n">
-        <v>5</v>
-      </c>
-      <c r="H5" s="125" t="s">
-        <v>133</v>
-      </c>
-      <c r="I5" s="125" t="n">
-        <v>5</v>
-      </c>
-      <c r="K5" s="125" t="s">
-        <v>138</v>
-      </c>
-      <c r="L5" s="125" t="n">
-        <v>8</v>
-      </c>
-      <c r="N5" s="125" t="s">
-        <v>142</v>
-      </c>
-      <c r="O5" s="125" t="n">
-        <v>8</v>
-      </c>
-      <c r="Q5" s="125" t="s">
-        <v>115</v>
-      </c>
-      <c r="R5" s="125" t="n">
-        <v>3</v>
-      </c>
-      <c r="T5" s="125" t="s">
-        <v>133</v>
-      </c>
-      <c r="U5" s="125" t="n">
-        <v>5</v>
-      </c>
-      <c r="W5" s="125" t="s">
-        <v>150</v>
-      </c>
-      <c r="X5" s="125" t="n">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="6" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B6" s="125" t="n">
-        <v>4</v>
-      </c>
-      <c r="C6" s="125" t="s">
-        <v>159</v>
-      </c>
-      <c r="E6" s="125" t="s">
-        <v>124</v>
-      </c>
-      <c r="F6" s="125" t="n">
-        <v>13</v>
-      </c>
-      <c r="H6" s="125" t="s">
-        <v>135</v>
-      </c>
-      <c r="I6" s="125" t="n">
-        <v>1</v>
-      </c>
       <c r="K6" s="1" t="s">
-        <v>160</v>
+        <v>161</v>
       </c>
       <c r="L6" s="1" t="n">
         <v>3</v>
       </c>
-      <c r="Q6" s="125" t="s">
-        <v>114</v>
-      </c>
-      <c r="R6" s="125" t="n">
+      <c r="Q6" s="122" t="s">
+        <v>115</v>
+      </c>
+      <c r="R6" s="122" t="n">
         <v>1</v>
       </c>
-      <c r="T6" s="125" t="s">
-        <v>135</v>
-      </c>
-      <c r="U6" s="125" t="n">
+      <c r="T6" s="122" t="s">
+        <v>136</v>
+      </c>
+      <c r="U6" s="122" t="n">
         <v>1</v>
       </c>
       <c r="W6" s="1" t="s">
-        <v>152</v>
+        <v>153</v>
       </c>
       <c r="X6" s="1" t="n">
         <v>8</v>
       </c>
     </row>
     <row r="7" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B7" s="125" t="n">
+      <c r="B7" s="122" t="n">
         <v>5</v>
       </c>
-      <c r="C7" s="125" t="s">
-        <v>161</v>
+      <c r="C7" s="122" t="s">
+        <v>162</v>
       </c>
     </row>
     <row r="8" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B8" s="125" t="n">
+      <c r="B8" s="122" t="n">
         <v>6</v>
       </c>
-      <c r="C8" s="125" t="s">
-        <v>162</v>
+      <c r="C8" s="122" t="s">
+        <v>163</v>
       </c>
     </row>
     <row r="9" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B9" s="125" t="n">
+      <c r="B9" s="122" t="n">
         <v>7</v>
       </c>
-      <c r="C9" s="125" t="s">
-        <v>163</v>
+      <c r="C9" s="122" t="s">
+        <v>164</v>
       </c>
     </row>
   </sheetData>
@@ -3553,9 +3378,9 @@
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="1" width="4.43"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="1" width="19.14"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="1" width="16.86"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="13" min="4" style="1" width="5.71"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1025" min="14" style="1" width="9.14"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="1" width="16.87"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="13" min="4" style="1" width="5.7"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1025" min="14" style="1" width="9.13"/>
   </cols>
   <sheetData>
     <row r="2" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4531,10 +4356,10 @@
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="1" width="1"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="1" width="10"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="35" width="85.14"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="35" width="85.13"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="4" style="1" width="7.29"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="5" min="5" style="1" width="11.86"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="6" min="6" style="1" width="13.01"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="6" min="6" style="1" width="13.02"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="7" min="7" style="1" width="11.57"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="8" min="8" style="1" width="16.43"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="9" min="9" style="1" width="14.86"/>
@@ -4861,7 +4686,7 @@
   <dimension ref="A1:AA15"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="false" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="F1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="I7" activeCellId="0" sqref="I7"/>
+      <selection pane="topLeft" activeCell="H6" activeCellId="0" sqref="H6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -4870,12 +4695,12 @@
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="58" width="6.15"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="58" width="13.75"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="4" style="58" width="13.29"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="5" min="5" style="58" width="11.29"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="5" min="5" style="58" width="11.3"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="6" min="6" style="58" width="12.86"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="7" min="7" style="58" width="12.43"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="8" min="8" style="58" width="10.58"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="9" min="9" style="58" width="7.29"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="10" min="10" style="58" width="11.29"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="10" min="10" style="58" width="11.3"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="11" min="11" style="58" width="7"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="12" min="12" style="58" width="12.43"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="13" min="13" style="58" width="7.57"/>
@@ -5463,7 +5288,7 @@
       <c r="F3" s="72"/>
     </row>
     <row r="4" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B4" s="74"/>
+      <c r="B4" s="49"/>
       <c r="C4" s="19"/>
       <c r="D4" s="72"/>
       <c r="E4" s="73"/>
@@ -5477,7 +5302,7 @@
       <c r="F5" s="72"/>
     </row>
     <row r="6" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B6" s="74"/>
+      <c r="B6" s="49"/>
       <c r="C6" s="19"/>
       <c r="D6" s="72"/>
       <c r="E6" s="73"/>
@@ -5514,189 +5339,189 @@
   </sheetPr>
   <dimension ref="B1:H12"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="false" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+    <sheetView showFormulas="false" showGridLines="false" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
       <selection pane="topLeft" activeCell="H7" activeCellId="0" sqref="H7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="2.85"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="11.29"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="0" width="10.14"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="11.3"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="0" width="10.13"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="4" style="0" width="9.29"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1025" min="5" style="0" width="9"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B1" s="75"/>
+      <c r="B1" s="74"/>
     </row>
     <row r="2" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B2" s="76" t="s">
+      <c r="B2" s="75" t="s">
         <v>65</v>
       </c>
-      <c r="C2" s="76" t="s">
+      <c r="C2" s="75" t="s">
         <v>50</v>
       </c>
-      <c r="D2" s="76" t="s">
+      <c r="D2" s="75" t="s">
         <v>53</v>
       </c>
-      <c r="E2" s="76" t="s">
+      <c r="E2" s="75" t="s">
         <v>55</v>
       </c>
-      <c r="F2" s="76" t="s">
+      <c r="F2" s="75" t="s">
         <v>58</v>
       </c>
-      <c r="G2" s="76" t="s">
+      <c r="G2" s="75" t="s">
         <v>60</v>
       </c>
-      <c r="H2" s="76" t="s">
+      <c r="H2" s="75" t="s">
         <v>62</v>
       </c>
     </row>
     <row r="3" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B3" s="77" t="n">
+      <c r="B3" s="76" t="n">
         <f aca="false">INDEX(Alocação,1,Burndown[[#This Row],[Dia '#]]+1)</f>
         <v>43689</v>
       </c>
-      <c r="C3" s="78" t="n">
+      <c r="C3" s="77" t="n">
         <v>0.05</v>
       </c>
-      <c r="D3" s="78" t="n">
+      <c r="D3" s="77" t="n">
         <v>0.02</v>
       </c>
-      <c r="E3" s="79"/>
-      <c r="F3" s="79"/>
-      <c r="G3" s="79" t="n">
+      <c r="E3" s="78"/>
+      <c r="F3" s="78"/>
+      <c r="G3" s="78" t="n">
         <v>0.05</v>
       </c>
-      <c r="H3" s="79"/>
+      <c r="H3" s="78"/>
     </row>
     <row r="4" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B4" s="80" t="n">
+      <c r="B4" s="79" t="n">
         <f aca="false">INDEX(Alocação,1,Burndown[[#This Row],[Dia '#]]+1)</f>
         <v>43690</v>
       </c>
-      <c r="C4" s="81" t="n">
+      <c r="C4" s="80" t="n">
         <v>0.3</v>
       </c>
-      <c r="D4" s="79" t="n">
+      <c r="D4" s="78" t="n">
         <v>0.32</v>
       </c>
-      <c r="E4" s="82"/>
-      <c r="F4" s="79"/>
-      <c r="G4" s="79" t="n">
+      <c r="E4" s="81"/>
+      <c r="F4" s="78"/>
+      <c r="G4" s="78" t="n">
         <v>0.5</v>
       </c>
-      <c r="H4" s="79" t="n">
+      <c r="H4" s="78" t="n">
         <v>0.1</v>
       </c>
     </row>
     <row r="5" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B5" s="77" t="n">
+      <c r="B5" s="76" t="n">
         <f aca="false">INDEX(Alocação,1,Burndown[[#This Row],[Dia '#]]+1)</f>
         <v>43691</v>
       </c>
-      <c r="C5" s="83" t="n">
+      <c r="C5" s="82" t="n">
         <v>0.6</v>
       </c>
-      <c r="D5" s="84" t="n">
+      <c r="D5" s="83" t="n">
         <v>0.65</v>
       </c>
-      <c r="E5" s="84" t="n">
+      <c r="E5" s="83" t="n">
         <v>0.05</v>
       </c>
-      <c r="F5" s="79"/>
-      <c r="G5" s="79" t="n">
+      <c r="F5" s="78"/>
+      <c r="G5" s="78" t="n">
         <v>0.75</v>
       </c>
-      <c r="H5" s="79" t="n">
+      <c r="H5" s="78" t="n">
         <v>0.1</v>
       </c>
     </row>
     <row r="6" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B6" s="80" t="n">
+      <c r="B6" s="79" t="n">
         <f aca="false">INDEX(Alocação,1,Burndown[[#This Row],[Dia '#]]+1)</f>
         <v>43692</v>
       </c>
-      <c r="C6" s="83" t="n">
+      <c r="C6" s="82" t="n">
         <v>0.6</v>
       </c>
-      <c r="D6" s="84" t="n">
+      <c r="D6" s="83" t="n">
         <v>0.65</v>
       </c>
-      <c r="E6" s="84" t="n">
+      <c r="E6" s="83" t="n">
         <v>0.3</v>
       </c>
-      <c r="F6" s="82"/>
-      <c r="G6" s="84" t="n">
+      <c r="F6" s="81"/>
+      <c r="G6" s="83" t="n">
         <v>0.9</v>
       </c>
-      <c r="H6" s="84" t="n">
+      <c r="H6" s="83" t="n">
         <v>0.1</v>
       </c>
     </row>
     <row r="7" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B7" s="77" t="n">
+      <c r="B7" s="76" t="n">
         <f aca="false">INDEX(Alocação,1,Burndown[[#This Row],[Dia '#]]+1)</f>
         <v>43693</v>
       </c>
-      <c r="C7" s="83"/>
-      <c r="D7" s="84"/>
-      <c r="E7" s="84"/>
-      <c r="F7" s="84"/>
-      <c r="G7" s="84"/>
-      <c r="H7" s="84"/>
+      <c r="C7" s="82"/>
+      <c r="D7" s="83"/>
+      <c r="E7" s="83"/>
+      <c r="F7" s="83"/>
+      <c r="G7" s="83"/>
+      <c r="H7" s="83"/>
     </row>
     <row r="8" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B8" s="80" t="n">
+      <c r="B8" s="79" t="n">
         <f aca="false">INDEX(Alocação,1,Burndown[[#This Row],[Dia '#]]+1)</f>
         <v>43696</v>
       </c>
-      <c r="C8" s="85"/>
-      <c r="D8" s="82"/>
-      <c r="E8" s="84"/>
-      <c r="F8" s="84"/>
-      <c r="G8" s="82"/>
-      <c r="H8" s="84"/>
+      <c r="C8" s="84"/>
+      <c r="D8" s="81"/>
+      <c r="E8" s="83"/>
+      <c r="F8" s="83"/>
+      <c r="G8" s="81"/>
+      <c r="H8" s="83"/>
     </row>
     <row r="9" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B9" s="77" t="n">
+      <c r="B9" s="76" t="n">
         <f aca="false">INDEX(Alocação,1,Burndown[[#This Row],[Dia '#]]+1)</f>
         <v>43697</v>
       </c>
-      <c r="C9" s="85"/>
-      <c r="D9" s="82"/>
-      <c r="E9" s="82"/>
-      <c r="F9" s="84"/>
-      <c r="G9" s="84"/>
-      <c r="H9" s="84"/>
+      <c r="C9" s="84"/>
+      <c r="D9" s="81"/>
+      <c r="E9" s="81"/>
+      <c r="F9" s="83"/>
+      <c r="G9" s="83"/>
+      <c r="H9" s="83"/>
     </row>
     <row r="10" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B10" s="80" t="n">
+      <c r="B10" s="79" t="n">
         <f aca="false">INDEX(Alocação,1,Burndown[[#This Row],[Dia '#]]+1)</f>
         <v>43698</v>
       </c>
     </row>
     <row r="11" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B11" s="77" t="n">
+      <c r="B11" s="76" t="n">
         <f aca="false">INDEX(Alocação,1,Burndown[[#This Row],[Dia '#]]+1)</f>
         <v>43699</v>
       </c>
     </row>
     <row r="12" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B12" s="80" t="n">
+      <c r="B12" s="79" t="n">
         <f aca="false">INDEX(Alocação,1,Burndown[[#This Row],[Dia '#]]+1)</f>
         <v>43700</v>
       </c>
     </row>
   </sheetData>
   <conditionalFormatting sqref="B1">
-    <cfRule type="expression" priority="2" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="6">
+    <cfRule type="expression" priority="2" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="0">
       <formula>$B1=TODAY()</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C4">
-    <cfRule type="expression" priority="3" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="6">
+    <cfRule type="expression" priority="3" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="0">
       <formula>$B4=TODAY()</formula>
     </cfRule>
   </conditionalFormatting>
@@ -5723,157 +5548,157 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="86" width="2.57"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="87" width="12.43"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="88" width="53.57"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="5" min="4" style="87" width="19.14"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="6" min="6" style="87" width="20.99"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="7" min="7" style="87" width="18.58"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="8" min="8" style="87" width="30.71"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1025" min="9" style="89" width="9.14"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="85" width="2.57"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="86" width="12.43"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="87" width="53.57"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="5" min="4" style="86" width="19.14"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="6" min="6" style="86" width="20.98"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="7" min="7" style="86" width="18.58"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="8" min="8" style="86" width="30.7"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1025" min="9" style="88" width="9.13"/>
   </cols>
   <sheetData>
-    <row r="1" s="90" customFormat="true" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B1" s="91"/>
-      <c r="C1" s="92"/>
-      <c r="D1" s="91"/>
-      <c r="E1" s="91"/>
-      <c r="F1" s="91"/>
-      <c r="G1" s="91"/>
-      <c r="H1" s="91"/>
-    </row>
-    <row r="2" s="96" customFormat="true" ht="30" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A2" s="93"/>
-      <c r="B2" s="94" t="s">
+    <row r="1" s="89" customFormat="true" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B1" s="90"/>
+      <c r="C1" s="91"/>
+      <c r="D1" s="90"/>
+      <c r="E1" s="90"/>
+      <c r="F1" s="90"/>
+      <c r="G1" s="90"/>
+      <c r="H1" s="90"/>
+    </row>
+    <row r="2" s="95" customFormat="true" ht="30" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A2" s="92"/>
+      <c r="B2" s="93" t="s">
         <v>80</v>
       </c>
-      <c r="C2" s="94"/>
-      <c r="D2" s="94"/>
-      <c r="E2" s="94"/>
-      <c r="F2" s="94"/>
-      <c r="G2" s="94"/>
-      <c r="H2" s="94"/>
-      <c r="I2" s="95"/>
+      <c r="C2" s="93"/>
+      <c r="D2" s="93"/>
+      <c r="E2" s="93"/>
+      <c r="F2" s="93"/>
+      <c r="G2" s="93"/>
+      <c r="H2" s="93"/>
+      <c r="I2" s="94"/>
     </row>
     <row r="3" customFormat="false" ht="24" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A3" s="97"/>
-      <c r="B3" s="98" t="s">
+      <c r="A3" s="96"/>
+      <c r="B3" s="97" t="s">
         <v>81</v>
       </c>
-      <c r="C3" s="99" t="s">
+      <c r="C3" s="98" t="s">
         <v>44</v>
       </c>
-      <c r="D3" s="98" t="s">
+      <c r="D3" s="97" t="s">
         <v>82</v>
       </c>
-      <c r="E3" s="98" t="s">
+      <c r="E3" s="97" t="s">
         <v>83</v>
       </c>
-      <c r="F3" s="98" t="s">
+      <c r="F3" s="97" t="s">
         <v>84</v>
       </c>
-      <c r="G3" s="98" t="s">
+      <c r="G3" s="97" t="s">
         <v>49</v>
       </c>
-      <c r="H3" s="98" t="s">
+      <c r="H3" s="97" t="s">
         <v>85</v>
       </c>
-      <c r="I3" s="86"/>
+      <c r="I3" s="85"/>
     </row>
     <row r="4" customFormat="false" ht="15" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A4" s="97"/>
-      <c r="B4" s="100" t="n">
+      <c r="A4" s="96"/>
+      <c r="B4" s="99" t="n">
         <v>42786</v>
       </c>
-      <c r="C4" s="101" t="s">
+      <c r="C4" s="100" t="s">
         <v>86</v>
       </c>
-      <c r="D4" s="100"/>
-      <c r="E4" s="100" t="s">
+      <c r="D4" s="99"/>
+      <c r="E4" s="99" t="s">
         <v>87</v>
       </c>
-      <c r="F4" s="102" t="s">
+      <c r="F4" s="101" t="s">
         <v>88</v>
       </c>
-      <c r="G4" s="102" t="s">
+      <c r="G4" s="101" t="s">
         <v>89</v>
       </c>
-      <c r="H4" s="101"/>
-      <c r="I4" s="86"/>
+      <c r="H4" s="100"/>
+      <c r="I4" s="85"/>
     </row>
     <row r="5" customFormat="false" ht="30" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A5" s="97"/>
-      <c r="B5" s="100" t="n">
+      <c r="A5" s="96"/>
+      <c r="B5" s="99" t="n">
         <v>43690</v>
       </c>
-      <c r="C5" s="101" t="s">
+      <c r="C5" s="100" t="s">
         <v>90</v>
       </c>
-      <c r="D5" s="100"/>
-      <c r="E5" s="100"/>
-      <c r="F5" s="102" t="s">
+      <c r="D5" s="99"/>
+      <c r="E5" s="99"/>
+      <c r="F5" s="101" t="s">
         <v>91</v>
       </c>
-      <c r="G5" s="102" t="s">
+      <c r="G5" s="101" t="s">
         <v>92</v>
       </c>
-      <c r="H5" s="101"/>
-      <c r="I5" s="86"/>
+      <c r="H5" s="100"/>
+      <c r="I5" s="85"/>
     </row>
     <row r="6" customFormat="false" ht="15" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A6" s="97"/>
-      <c r="B6" s="100"/>
-      <c r="C6" s="101"/>
-      <c r="D6" s="100"/>
-      <c r="E6" s="100"/>
-      <c r="F6" s="102"/>
-      <c r="G6" s="102"/>
-      <c r="H6" s="101"/>
-      <c r="I6" s="86"/>
+      <c r="A6" s="96"/>
+      <c r="B6" s="99"/>
+      <c r="C6" s="100"/>
+      <c r="D6" s="99"/>
+      <c r="E6" s="99"/>
+      <c r="F6" s="101"/>
+      <c r="G6" s="101"/>
+      <c r="H6" s="100"/>
+      <c r="I6" s="85"/>
     </row>
     <row r="7" customFormat="false" ht="15" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A7" s="97"/>
-      <c r="B7" s="100"/>
-      <c r="C7" s="101"/>
-      <c r="D7" s="100"/>
-      <c r="E7" s="100"/>
-      <c r="F7" s="102"/>
-      <c r="G7" s="102"/>
-      <c r="H7" s="101"/>
-      <c r="I7" s="86"/>
+      <c r="A7" s="96"/>
+      <c r="B7" s="99"/>
+      <c r="C7" s="100"/>
+      <c r="D7" s="99"/>
+      <c r="E7" s="99"/>
+      <c r="F7" s="101"/>
+      <c r="G7" s="101"/>
+      <c r="H7" s="100"/>
+      <c r="I7" s="85"/>
     </row>
     <row r="8" customFormat="false" ht="15" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A8" s="97"/>
-      <c r="B8" s="100"/>
-      <c r="C8" s="101"/>
-      <c r="D8" s="100"/>
-      <c r="E8" s="100"/>
-      <c r="F8" s="103"/>
-      <c r="G8" s="102"/>
-      <c r="H8" s="101"/>
-      <c r="I8" s="86"/>
+      <c r="A8" s="96"/>
+      <c r="B8" s="99"/>
+      <c r="C8" s="100"/>
+      <c r="D8" s="99"/>
+      <c r="E8" s="99"/>
+      <c r="F8" s="102"/>
+      <c r="G8" s="101"/>
+      <c r="H8" s="100"/>
+      <c r="I8" s="85"/>
     </row>
     <row r="9" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A9" s="97"/>
-      <c r="B9" s="100"/>
-      <c r="C9" s="101"/>
-      <c r="D9" s="100"/>
-      <c r="E9" s="100"/>
-      <c r="F9" s="102"/>
-      <c r="G9" s="102"/>
-      <c r="H9" s="101"/>
-      <c r="I9" s="86"/>
+      <c r="A9" s="96"/>
+      <c r="B9" s="99"/>
+      <c r="C9" s="100"/>
+      <c r="D9" s="99"/>
+      <c r="E9" s="99"/>
+      <c r="F9" s="101"/>
+      <c r="G9" s="101"/>
+      <c r="H9" s="100"/>
+      <c r="I9" s="85"/>
     </row>
     <row r="10" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A10" s="97"/>
-      <c r="B10" s="100"/>
-      <c r="C10" s="101"/>
-      <c r="D10" s="100"/>
-      <c r="E10" s="100"/>
-      <c r="F10" s="102"/>
-      <c r="G10" s="102"/>
-      <c r="H10" s="101"/>
-      <c r="I10" s="86"/>
+      <c r="A10" s="96"/>
+      <c r="B10" s="99"/>
+      <c r="C10" s="100"/>
+      <c r="D10" s="99"/>
+      <c r="E10" s="99"/>
+      <c r="F10" s="101"/>
+      <c r="G10" s="101"/>
+      <c r="H10" s="100"/>
+      <c r="I10" s="85"/>
     </row>
   </sheetData>
   <mergeCells count="1">
@@ -5899,123 +5724,129 @@
   </sheetPr>
   <dimension ref="A1:F10"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="D11" activeCellId="0" sqref="D11"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="F9" activeCellId="0" sqref="F9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="86" width="3.57"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="87" width="18.58"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="104" width="18.58"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="4" style="88" width="81.43"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1025" min="5" style="89" width="9.14"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="85" width="3.57"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="86" width="18.58"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="103" width="18.58"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="4" style="87" width="81.43"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1025" min="5" style="88" width="9.13"/>
   </cols>
   <sheetData>
-    <row r="1" s="90" customFormat="true" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B1" s="91"/>
-      <c r="C1" s="105"/>
-      <c r="D1" s="92"/>
-    </row>
-    <row r="2" s="96" customFormat="true" ht="30" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A2" s="93"/>
-      <c r="B2" s="94" t="s">
+    <row r="1" s="89" customFormat="true" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B1" s="90"/>
+      <c r="C1" s="104"/>
+      <c r="D1" s="91"/>
+    </row>
+    <row r="2" s="95" customFormat="true" ht="30" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A2" s="92"/>
+      <c r="B2" s="93" t="s">
         <v>93</v>
       </c>
-      <c r="C2" s="94"/>
-      <c r="D2" s="94"/>
-      <c r="E2" s="95"/>
+      <c r="C2" s="93"/>
+      <c r="D2" s="93"/>
+      <c r="E2" s="94"/>
     </row>
     <row r="3" customFormat="false" ht="24" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A3" s="97"/>
-      <c r="B3" s="98" t="s">
+      <c r="A3" s="96"/>
+      <c r="B3" s="97" t="s">
         <v>81</v>
       </c>
-      <c r="C3" s="106" t="s">
+      <c r="C3" s="105" t="s">
         <v>94</v>
       </c>
-      <c r="D3" s="99" t="s">
+      <c r="D3" s="98" t="s">
         <v>44</v>
       </c>
-      <c r="E3" s="86"/>
-    </row>
-    <row r="4" s="112" customFormat="true" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A4" s="107"/>
-      <c r="B4" s="108" t="n">
+      <c r="E3" s="85"/>
+    </row>
+    <row r="4" s="111" customFormat="true" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A4" s="106"/>
+      <c r="B4" s="107" t="n">
         <v>43689</v>
       </c>
-      <c r="C4" s="109" t="n">
+      <c r="C4" s="108" t="n">
         <v>0.5</v>
       </c>
-      <c r="D4" s="110" t="s">
+      <c r="D4" s="109" t="s">
         <v>95</v>
       </c>
-      <c r="E4" s="111"/>
-    </row>
-    <row r="5" s="112" customFormat="true" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A5" s="107"/>
-      <c r="B5" s="113" t="n">
+      <c r="E4" s="110"/>
+    </row>
+    <row r="5" s="111" customFormat="true" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A5" s="106"/>
+      <c r="B5" s="99" t="n">
         <v>43689</v>
       </c>
-      <c r="C5" s="114" t="n">
+      <c r="C5" s="112" t="n">
         <v>3</v>
       </c>
-      <c r="D5" s="101" t="s">
+      <c r="D5" s="100" t="s">
         <v>96</v>
       </c>
-      <c r="E5" s="111"/>
-    </row>
-    <row r="6" s="112" customFormat="true" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A6" s="107"/>
-      <c r="B6" s="108" t="n">
+      <c r="E5" s="110"/>
+    </row>
+    <row r="6" s="111" customFormat="true" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A6" s="106"/>
+      <c r="B6" s="107" t="n">
         <v>43690</v>
       </c>
-      <c r="C6" s="109" t="n">
+      <c r="C6" s="108" t="n">
         <v>2</v>
       </c>
-      <c r="D6" s="110" t="s">
+      <c r="D6" s="109" t="s">
         <v>95</v>
       </c>
-      <c r="E6" s="111"/>
-      <c r="F6" s="115"/>
-    </row>
-    <row r="7" s="112" customFormat="true" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A7" s="107"/>
-      <c r="B7" s="100" t="n">
+      <c r="E6" s="110"/>
+      <c r="F6" s="113"/>
+    </row>
+    <row r="7" s="111" customFormat="true" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A7" s="106"/>
+      <c r="B7" s="99" t="n">
         <v>43690</v>
       </c>
-      <c r="C7" s="114" t="n">
+      <c r="C7" s="112" t="n">
         <v>3</v>
       </c>
-      <c r="D7" s="116" t="s">
+      <c r="D7" s="114" t="s">
         <v>97</v>
       </c>
-      <c r="E7" s="111"/>
-    </row>
-    <row r="8" s="112" customFormat="true" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A8" s="107"/>
-      <c r="B8" s="108" t="n">
+      <c r="E7" s="110"/>
+    </row>
+    <row r="8" s="111" customFormat="true" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A8" s="106"/>
+      <c r="B8" s="107" t="n">
         <v>43691</v>
       </c>
-      <c r="C8" s="109" t="n">
+      <c r="C8" s="108" t="n">
         <v>4</v>
       </c>
-      <c r="D8" s="110" t="s">
+      <c r="D8" s="109" t="s">
         <v>98</v>
       </c>
-      <c r="E8" s="111"/>
-    </row>
-    <row r="9" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A9" s="97"/>
-      <c r="B9" s="100"/>
-      <c r="C9" s="114"/>
-      <c r="D9" s="116"/>
-      <c r="E9" s="86"/>
+      <c r="E8" s="110"/>
+    </row>
+    <row r="9" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A9" s="96"/>
+      <c r="B9" s="99" t="n">
+        <v>43693</v>
+      </c>
+      <c r="C9" s="112" t="n">
+        <v>3</v>
+      </c>
+      <c r="D9" s="114" t="s">
+        <v>99</v>
+      </c>
+      <c r="E9" s="85"/>
     </row>
     <row r="10" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B10" s="117"/>
-      <c r="C10" s="118"/>
-      <c r="D10" s="119"/>
+      <c r="B10" s="115"/>
+      <c r="C10" s="116"/>
+      <c r="D10" s="117"/>
     </row>
   </sheetData>
   <mergeCells count="1">
@@ -6049,7 +5880,7 @@
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="1" width="1.29"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="1" width="10.72"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="35" width="41.42"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="35" width="41.41"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="4" style="1" width="7.57"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="5" min="5" style="1" width="10.85"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="6" min="6" style="1" width="12.86"/>
@@ -6067,50 +5898,50 @@
   </cols>
   <sheetData>
     <row r="2" s="40" customFormat="true" ht="57.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="B2" s="120" t="s">
+      <c r="B2" s="118" t="s">
         <v>43</v>
       </c>
-      <c r="C2" s="120" t="s">
+      <c r="C2" s="118" t="s">
         <v>44</v>
       </c>
-      <c r="D2" s="120" t="s">
+      <c r="D2" s="118" t="s">
         <v>34</v>
       </c>
-      <c r="E2" s="120" t="s">
-        <v>99</v>
-      </c>
-      <c r="F2" s="120" t="s">
+      <c r="E2" s="118" t="s">
         <v>100</v>
       </c>
-      <c r="G2" s="120" t="s">
+      <c r="F2" s="118" t="s">
         <v>101</v>
       </c>
-      <c r="H2" s="120" t="s">
+      <c r="G2" s="118" t="s">
         <v>102</v>
       </c>
-      <c r="I2" s="120" t="s">
+      <c r="H2" s="118" t="s">
         <v>103</v>
       </c>
-      <c r="J2" s="120" t="s">
+      <c r="I2" s="118" t="s">
         <v>104</v>
       </c>
-      <c r="K2" s="120" t="s">
+      <c r="J2" s="118" t="s">
         <v>105</v>
       </c>
-      <c r="L2" s="120" t="s">
+      <c r="K2" s="118" t="s">
         <v>106</v>
       </c>
-      <c r="M2" s="120" t="s">
+      <c r="L2" s="118" t="s">
         <v>107</v>
       </c>
-      <c r="N2" s="120" t="s">
+      <c r="M2" s="118" t="s">
         <v>108</v>
       </c>
-      <c r="O2" s="120" t="s">
+      <c r="N2" s="118" t="s">
+        <v>109</v>
+      </c>
+      <c r="O2" s="118" t="s">
         <v>85</v>
       </c>
-      <c r="P2" s="120" t="s">
-        <v>109</v>
+      <c r="P2" s="118" t="s">
+        <v>110</v>
       </c>
     </row>
     <row r="3" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -6127,34 +5958,34 @@
         <f aca="false">IF(Risco[[#This Row],[Peso Risco]]&lt;=2,"BAIXO",IF(Risco[[#This Row],[Peso Risco]]&lt;=5,"MÉDIO","ALTO"))</f>
         <v>BAIXO</v>
       </c>
-      <c r="F3" s="121" t="s">
-        <v>110</v>
-      </c>
-      <c r="G3" s="122" t="s">
+      <c r="F3" s="119" t="s">
         <v>111</v>
       </c>
-      <c r="H3" s="121" t="s">
-        <v>110</v>
-      </c>
-      <c r="I3" s="122" t="str">
+      <c r="G3" s="50" t="s">
+        <v>112</v>
+      </c>
+      <c r="H3" s="119" t="s">
+        <v>111</v>
+      </c>
+      <c r="I3" s="50" t="str">
         <f aca="false">IF(D3&lt;=3,Util!$W$4,IF(D3&lt;=5,Util!$W$5,Util!$W$6))</f>
         <v>Boa</v>
       </c>
-      <c r="J3" s="122" t="s">
-        <v>111</v>
-      </c>
-      <c r="K3" s="122" t="s">
+      <c r="J3" s="50" t="s">
         <v>112</v>
       </c>
-      <c r="L3" s="122" t="s">
+      <c r="K3" s="50" t="s">
         <v>113</v>
       </c>
-      <c r="M3" s="122" t="s">
+      <c r="L3" s="50" t="s">
         <v>114</v>
       </c>
-      <c r="N3" s="122"/>
-      <c r="O3" s="122"/>
-      <c r="P3" s="122" t="n">
+      <c r="M3" s="50" t="s">
+        <v>115</v>
+      </c>
+      <c r="N3" s="50"/>
+      <c r="O3" s="50"/>
+      <c r="P3" s="50" t="n">
         <f aca="false">VLOOKUP(Risco[[#This Row],[Nível Detalhamento Funcional]],NivelDeDetalhamento[],2,0)*VLOOKUP(Risco[[#This Row],[Definição Requisitos NÃO Funcionais]],RequisitosNaoFuncionais[],2,0)*VLOOKUP(Risco[[#This Row],[Nível Detalhamento Técnico]],NivelDeDetalhamento[],2,0)*VLOOKUP(Risco[[#This Row],[Protótipos]],Prototipos[],2,0)*VLOOKUP(Risco[[#This Row],[Nível de Quebra]],Quebra[],2,0)*VLOOKUP(Risco[[#This Row],[Branches]],Branches[],2,0)*VLOOKUP(Risco[[#This Row],[Ambiente Desenvolvimento]],Ambiente[],2,0)*VLOOKUP(Risco[[#This Row],[Complexidade Requisito]],Complexidade[],2,0)</f>
         <v>1</v>
       </c>
@@ -6173,34 +6004,34 @@
         <f aca="false">IF(Risco[[#This Row],[Peso Risco]]&lt;=2,"BAIXO",IF(Risco[[#This Row],[Peso Risco]]&lt;=5,"MÉDIO","ALTO"))</f>
         <v>BAIXO</v>
       </c>
-      <c r="F4" s="121" t="s">
-        <v>110</v>
-      </c>
-      <c r="G4" s="122" t="s">
+      <c r="F4" s="119" t="s">
         <v>111</v>
       </c>
-      <c r="H4" s="121" t="s">
-        <v>110</v>
-      </c>
-      <c r="I4" s="122" t="str">
+      <c r="G4" s="50" t="s">
+        <v>112</v>
+      </c>
+      <c r="H4" s="119" t="s">
+        <v>111</v>
+      </c>
+      <c r="I4" s="50" t="str">
         <f aca="false">IF(D4&lt;=3,Util!$W$4,IF(D4&lt;=5,Util!$W$5,Util!$W$6))</f>
         <v>Boa</v>
       </c>
-      <c r="J4" s="122" t="s">
-        <v>111</v>
-      </c>
-      <c r="K4" s="122" t="s">
+      <c r="J4" s="50" t="s">
         <v>112</v>
       </c>
-      <c r="L4" s="122" t="s">
+      <c r="K4" s="50" t="s">
         <v>113</v>
       </c>
-      <c r="M4" s="122" t="s">
+      <c r="L4" s="50" t="s">
         <v>114</v>
       </c>
-      <c r="N4" s="122"/>
-      <c r="O4" s="122"/>
-      <c r="P4" s="122" t="n">
+      <c r="M4" s="50" t="s">
+        <v>115</v>
+      </c>
+      <c r="N4" s="50"/>
+      <c r="O4" s="50"/>
+      <c r="P4" s="50" t="n">
         <f aca="false">VLOOKUP(Risco[[#This Row],[Nível Detalhamento Funcional]],NivelDeDetalhamento[],2,0)*VLOOKUP(Risco[[#This Row],[Definição Requisitos NÃO Funcionais]],RequisitosNaoFuncionais[],2,0)*VLOOKUP(Risco[[#This Row],[Nível Detalhamento Técnico]],NivelDeDetalhamento[],2,0)*VLOOKUP(Risco[[#This Row],[Protótipos]],Prototipos[],2,0)*VLOOKUP(Risco[[#This Row],[Nível de Quebra]],Quebra[],2,0)*VLOOKUP(Risco[[#This Row],[Branches]],Branches[],2,0)*VLOOKUP(Risco[[#This Row],[Ambiente Desenvolvimento]],Ambiente[],2,0)*VLOOKUP(Risco[[#This Row],[Complexidade Requisito]],Complexidade[],2,0)</f>
         <v>1</v>
       </c>
@@ -6219,34 +6050,34 @@
         <f aca="false">IF(Risco[[#This Row],[Peso Risco]]&lt;=2,"BAIXO",IF(Risco[[#This Row],[Peso Risco]]&lt;=5,"MÉDIO","ALTO"))</f>
         <v>MÉDIO</v>
       </c>
-      <c r="F5" s="121" t="s">
-        <v>110</v>
-      </c>
-      <c r="G5" s="122" t="s">
+      <c r="F5" s="119" t="s">
         <v>111</v>
       </c>
-      <c r="H5" s="121" t="s">
-        <v>110</v>
-      </c>
-      <c r="I5" s="122" t="str">
+      <c r="G5" s="50" t="s">
+        <v>112</v>
+      </c>
+      <c r="H5" s="119" t="s">
+        <v>111</v>
+      </c>
+      <c r="I5" s="50" t="str">
         <f aca="false">IF(D5&lt;=3,Util!$W$4,IF(D5&lt;=5,Util!$W$5,Util!$W$6))</f>
         <v>Boa</v>
       </c>
-      <c r="J5" s="122" t="s">
-        <v>111</v>
-      </c>
-      <c r="K5" s="122" t="s">
+      <c r="J5" s="50" t="s">
         <v>112</v>
       </c>
-      <c r="L5" s="122" t="s">
+      <c r="K5" s="50" t="s">
         <v>113</v>
       </c>
-      <c r="M5" s="122" t="s">
-        <v>115</v>
-      </c>
-      <c r="N5" s="122"/>
-      <c r="O5" s="122"/>
-      <c r="P5" s="122" t="n">
+      <c r="L5" s="50" t="s">
+        <v>114</v>
+      </c>
+      <c r="M5" s="50" t="s">
+        <v>116</v>
+      </c>
+      <c r="N5" s="50"/>
+      <c r="O5" s="50"/>
+      <c r="P5" s="50" t="n">
         <f aca="false">VLOOKUP(Risco[[#This Row],[Nível Detalhamento Funcional]],NivelDeDetalhamento[],2,0)*VLOOKUP(Risco[[#This Row],[Definição Requisitos NÃO Funcionais]],RequisitosNaoFuncionais[],2,0)*VLOOKUP(Risco[[#This Row],[Nível Detalhamento Técnico]],NivelDeDetalhamento[],2,0)*VLOOKUP(Risco[[#This Row],[Protótipos]],Prototipos[],2,0)*VLOOKUP(Risco[[#This Row],[Nível de Quebra]],Quebra[],2,0)*VLOOKUP(Risco[[#This Row],[Branches]],Branches[],2,0)*VLOOKUP(Risco[[#This Row],[Ambiente Desenvolvimento]],Ambiente[],2,0)*VLOOKUP(Risco[[#This Row],[Complexidade Requisito]],Complexidade[],2,0)</f>
         <v>3</v>
       </c>
@@ -6265,33 +6096,33 @@
         <f aca="false">IF(Risco[[#This Row],[Peso Risco]]&lt;=2,"BAIXO",IF(Risco[[#This Row],[Peso Risco]]&lt;=5,"MÉDIO","ALTO"))</f>
         <v>BAIXO</v>
       </c>
-      <c r="F6" s="121" t="s">
-        <v>110</v>
-      </c>
-      <c r="G6" s="122" t="s">
+      <c r="F6" s="119" t="s">
         <v>111</v>
       </c>
-      <c r="H6" s="121" t="s">
-        <v>110</v>
-      </c>
-      <c r="I6" s="122" t="s">
-        <v>116</v>
-      </c>
-      <c r="J6" s="122" t="s">
+      <c r="G6" s="50" t="s">
+        <v>112</v>
+      </c>
+      <c r="H6" s="119" t="s">
         <v>111</v>
       </c>
-      <c r="K6" s="122" t="s">
+      <c r="I6" s="50" t="s">
+        <v>117</v>
+      </c>
+      <c r="J6" s="50" t="s">
         <v>112</v>
       </c>
-      <c r="L6" s="122" t="s">
+      <c r="K6" s="50" t="s">
         <v>113</v>
       </c>
-      <c r="M6" s="122" t="s">
+      <c r="L6" s="50" t="s">
         <v>114</v>
       </c>
-      <c r="N6" s="122"/>
-      <c r="O6" s="122"/>
-      <c r="P6" s="122" t="n">
+      <c r="M6" s="50" t="s">
+        <v>115</v>
+      </c>
+      <c r="N6" s="50"/>
+      <c r="O6" s="50"/>
+      <c r="P6" s="50" t="n">
         <f aca="false">VLOOKUP(Risco[[#This Row],[Nível Detalhamento Funcional]],NivelDeDetalhamento[],2,0)*VLOOKUP(Risco[[#This Row],[Definição Requisitos NÃO Funcionais]],RequisitosNaoFuncionais[],2,0)*VLOOKUP(Risco[[#This Row],[Nível Detalhamento Técnico]],NivelDeDetalhamento[],2,0)*VLOOKUP(Risco[[#This Row],[Protótipos]],Prototipos[],2,0)*VLOOKUP(Risco[[#This Row],[Nível de Quebra]],Quebra[],2,0)*VLOOKUP(Risco[[#This Row],[Branches]],Branches[],2,0)*VLOOKUP(Risco[[#This Row],[Ambiente Desenvolvimento]],Ambiente[],2,0)*VLOOKUP(Risco[[#This Row],[Complexidade Requisito]],Complexidade[],2,0)</f>
         <v>1</v>
       </c>
@@ -6310,34 +6141,34 @@
         <f aca="false">IF(Risco[[#This Row],[Peso Risco]]&lt;=2,"BAIXO",IF(Risco[[#This Row],[Peso Risco]]&lt;=5,"MÉDIO","ALTO"))</f>
         <v>MÉDIO</v>
       </c>
-      <c r="F7" s="121" t="s">
-        <v>110</v>
-      </c>
-      <c r="G7" s="122" t="s">
+      <c r="F7" s="119" t="s">
         <v>111</v>
       </c>
-      <c r="H7" s="121" t="s">
-        <v>110</v>
-      </c>
-      <c r="I7" s="122" t="str">
+      <c r="G7" s="50" t="s">
+        <v>112</v>
+      </c>
+      <c r="H7" s="119" t="s">
+        <v>111</v>
+      </c>
+      <c r="I7" s="50" t="str">
         <f aca="false">IF(D7&lt;=3,Util!$W$4,IF(D7&lt;=5,Util!$W$5,Util!$W$6))</f>
         <v>Boa</v>
       </c>
-      <c r="J7" s="122" t="s">
-        <v>111</v>
-      </c>
-      <c r="K7" s="122" t="s">
+      <c r="J7" s="50" t="s">
         <v>112</v>
       </c>
-      <c r="L7" s="122" t="s">
+      <c r="K7" s="50" t="s">
         <v>113</v>
       </c>
-      <c r="M7" s="122" t="s">
-        <v>115</v>
-      </c>
-      <c r="N7" s="122"/>
-      <c r="O7" s="122"/>
-      <c r="P7" s="122" t="n">
+      <c r="L7" s="50" t="s">
+        <v>114</v>
+      </c>
+      <c r="M7" s="50" t="s">
+        <v>116</v>
+      </c>
+      <c r="N7" s="50"/>
+      <c r="O7" s="50"/>
+      <c r="P7" s="50" t="n">
         <f aca="false">VLOOKUP(Risco[[#This Row],[Nível Detalhamento Funcional]],NivelDeDetalhamento[],2,0)*VLOOKUP(Risco[[#This Row],[Definição Requisitos NÃO Funcionais]],RequisitosNaoFuncionais[],2,0)*VLOOKUP(Risco[[#This Row],[Nível Detalhamento Técnico]],NivelDeDetalhamento[],2,0)*VLOOKUP(Risco[[#This Row],[Protótipos]],Prototipos[],2,0)*VLOOKUP(Risco[[#This Row],[Nível de Quebra]],Quebra[],2,0)*VLOOKUP(Risco[[#This Row],[Branches]],Branches[],2,0)*VLOOKUP(Risco[[#This Row],[Ambiente Desenvolvimento]],Ambiente[],2,0)*VLOOKUP(Risco[[#This Row],[Complexidade Requisito]],Complexidade[],2,0)</f>
         <v>3</v>
       </c>
@@ -6356,34 +6187,34 @@
         <f aca="false">IF(Risco[[#This Row],[Peso Risco]]&lt;=2,"BAIXO",IF(Risco[[#This Row],[Peso Risco]]&lt;=5,"MÉDIO","ALTO"))</f>
         <v>BAIXO</v>
       </c>
-      <c r="F8" s="121" t="s">
-        <v>110</v>
-      </c>
-      <c r="G8" s="122" t="s">
+      <c r="F8" s="119" t="s">
         <v>111</v>
       </c>
-      <c r="H8" s="121" t="s">
-        <v>110</v>
-      </c>
-      <c r="I8" s="122" t="str">
+      <c r="G8" s="50" t="s">
+        <v>112</v>
+      </c>
+      <c r="H8" s="119" t="s">
+        <v>111</v>
+      </c>
+      <c r="I8" s="50" t="str">
         <f aca="false">IF(D8&lt;=3,Util!$W$4,IF(D8&lt;=5,Util!$W$5,Util!$W$6))</f>
         <v>Boa</v>
       </c>
-      <c r="J8" s="122" t="s">
-        <v>111</v>
-      </c>
-      <c r="K8" s="122" t="s">
+      <c r="J8" s="50" t="s">
         <v>112</v>
       </c>
-      <c r="L8" s="122" t="s">
+      <c r="K8" s="50" t="s">
         <v>113</v>
       </c>
-      <c r="M8" s="122" t="s">
+      <c r="L8" s="50" t="s">
         <v>114</v>
       </c>
-      <c r="N8" s="122"/>
-      <c r="O8" s="122"/>
-      <c r="P8" s="122" t="n">
+      <c r="M8" s="50" t="s">
+        <v>115</v>
+      </c>
+      <c r="N8" s="50"/>
+      <c r="O8" s="50"/>
+      <c r="P8" s="50" t="n">
         <f aca="false">VLOOKUP(Risco[[#This Row],[Nível Detalhamento Funcional]],NivelDeDetalhamento[],2,0)*VLOOKUP(Risco[[#This Row],[Definição Requisitos NÃO Funcionais]],RequisitosNaoFuncionais[],2,0)*VLOOKUP(Risco[[#This Row],[Nível Detalhamento Técnico]],NivelDeDetalhamento[],2,0)*VLOOKUP(Risco[[#This Row],[Protótipos]],Prototipos[],2,0)*VLOOKUP(Risco[[#This Row],[Nível de Quebra]],Quebra[],2,0)*VLOOKUP(Risco[[#This Row],[Branches]],Branches[],2,0)*VLOOKUP(Risco[[#This Row],[Ambiente Desenvolvimento]],Ambiente[],2,0)*VLOOKUP(Risco[[#This Row],[Complexidade Requisito]],Complexidade[],2,0)</f>
         <v>1</v>
       </c>

--- a/CanaisDigitais-SP5.xlsx
+++ b/CanaisDigitais-SP5.xlsx
@@ -5,7 +5,7 @@
   <workbookPr backupFile="false" showObjects="all" date1904="false"/>
   <workbookProtection/>
   <bookViews>
-    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="7"/>
+    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="3"/>
   </bookViews>
   <sheets>
     <sheet name="Info" sheetId="1" state="visible" r:id="rId2"/>
@@ -38,7 +38,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="329" uniqueCount="165">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="330" uniqueCount="165">
   <si>
     <t xml:space="preserve">Informações básicas projeto</t>
   </si>
@@ -211,13 +211,13 @@
     <t xml:space="preserve">Seleção de Datas</t>
   </si>
   <si>
+    <t xml:space="preserve">ESP001.4</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Seleção de Horas</t>
+  </si>
+  <si>
     <t xml:space="preserve">Não Iniciado</t>
-  </si>
-  <si>
-    <t xml:space="preserve">ESP001.4</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Seleção de Horas</t>
   </si>
   <si>
     <t xml:space="preserve">ESP002</t>
@@ -1621,87 +1621,25 @@
   </cellStyles>
   <dxfs count="7">
     <dxf>
-      <font>
-        <b val="1"/>
-        <i val="0"/>
-        <color rgb="FFFFFFFF"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF262626"/>
-        </patternFill>
-      </fill>
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false" readingOrder="1"/>
     </dxf>
     <dxf>
-      <font>
-        <color rgb="FF000000"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFFFFF"/>
-        </patternFill>
-      </fill>
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false" readingOrder="1"/>
     </dxf>
     <dxf>
-      <font>
-        <b val="1"/>
-        <i val="0"/>
-        <color rgb="FFFFC000"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFEEB9"/>
-        </patternFill>
-      </fill>
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false" readingOrder="1"/>
     </dxf>
     <dxf>
-      <font>
-        <b val="1"/>
-        <i val="0"/>
-        <color rgb="FF0070C0"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF9FD6FF"/>
-        </patternFill>
-      </fill>
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false" readingOrder="1"/>
     </dxf>
     <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFA3A3"/>
-        </patternFill>
-      </fill>
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false" readingOrder="1"/>
     </dxf>
     <dxf>
-      <font>
-        <b val="1"/>
-        <i val="0"/>
-        <color rgb="FF00B050"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFD4ECBA"/>
-        </patternFill>
-      </fill>
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false" readingOrder="1"/>
     </dxf>
     <dxf>
-      <font>
-        <b val="0"/>
-        <i val="1"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFD7E8CE"/>
-        </patternFill>
-      </fill>
-      <border diagonalUp="false" diagonalDown="false">
-        <left/>
-        <right/>
-        <top style="thin"/>
-        <bottom style="thin"/>
-        <diagonal/>
-      </border>
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false" readingOrder="1"/>
     </dxf>
   </dxfs>
   <colors>
@@ -1767,7 +1705,7 @@
 </styleSheet>
 </file>
 
-<file path=xl/charts/chart1.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/charts/chart2.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <c:lang val="en-US"/>
   <c:roundedCorners val="0"/>
@@ -1870,7 +1808,7 @@
                   <c:v>7.15</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>6.25</c:v>
+                  <c:v>6.85</c:v>
                 </c:pt>
                 <c:pt idx="4">
                   <c:v/>
@@ -1894,8 +1832,8 @@
             </c:numRef>
           </c:val>
         </c:ser>
-        <c:axId val="46495007"/>
-        <c:axId val="10419957"/>
+        <c:axId val="74430797"/>
+        <c:axId val="11793908"/>
       </c:areaChart>
       <c:lineChart>
         <c:grouping val="standard"/>
@@ -2104,7 +2042,7 @@
                   <c:v>0.75</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>-0.15</c:v>
+                  <c:v>0.449999999999999</c:v>
                 </c:pt>
                 <c:pt idx="4">
                   <c:v/>
@@ -2137,11 +2075,11 @@
           </c:spPr>
         </c:hiLowLines>
         <c:marker val="0"/>
-        <c:axId val="74383385"/>
-        <c:axId val="6573375"/>
+        <c:axId val="49166400"/>
+        <c:axId val="44091970"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="46495007"/>
+        <c:axId val="74430797"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2173,14 +2111,14 @@
             </a:pPr>
           </a:p>
         </c:txPr>
-        <c:crossAx val="10419957"/>
+        <c:crossAx val="11793908"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
         <c:lblOffset val="100"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="10419957"/>
+        <c:axId val="11793908"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:min val="0"/>
@@ -2220,11 +2158,11 @@
             </a:pPr>
           </a:p>
         </c:txPr>
-        <c:crossAx val="46495007"/>
+        <c:crossAx val="74430797"/>
         <c:crosses val="autoZero"/>
       </c:valAx>
       <c:catAx>
-        <c:axId val="74383385"/>
+        <c:axId val="49166400"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2256,14 +2194,14 @@
             </a:pPr>
           </a:p>
         </c:txPr>
-        <c:crossAx val="6573375"/>
+        <c:crossAx val="44091970"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
         <c:lblOffset val="100"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="6573375"/>
+        <c:axId val="44091970"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:min val="0"/>
@@ -2293,7 +2231,7 @@
             </a:pPr>
           </a:p>
         </c:txPr>
-        <c:crossAx val="74383385"/>
+        <c:crossAx val="49166400"/>
         <c:crosses val="autoZero"/>
       </c:valAx>
       <c:dTable>
@@ -3371,7 +3309,7 @@
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
       <pane xSplit="3" ySplit="0" topLeftCell="D1" activePane="topRight" state="frozen"/>
       <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
-      <selection pane="topRight" activeCell="I18" activeCellId="0" sqref="I18"/>
+      <selection pane="topRight" activeCell="I7" activeCellId="0" sqref="I7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -4349,14 +4287,14 @@
   <dimension ref="B1:J11"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="G10" activeCellId="0" sqref="G10"/>
+      <selection pane="topLeft" activeCell="G5" activeCellId="0" sqref="G5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="1" width="1"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="1" width="10"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="35" width="85.13"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="35" width="47.09"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="4" style="1" width="7.29"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="5" min="5" style="1" width="11.86"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="6" min="6" style="1" width="13.02"/>
@@ -4378,7 +4316,7 @@
       <c r="G2" s="37"/>
       <c r="H2" s="38" t="n">
         <f aca="false">SUM(H5:H10)</f>
-        <v>5.75</v>
+        <v>7.3</v>
       </c>
       <c r="I2" s="39"/>
     </row>
@@ -4427,14 +4365,14 @@
       </c>
       <c r="F5" s="45" t="n">
         <f aca="false">Estorias[[#This Row],[Horas Totais]]*(100-(100*Estorias[[#This Row],[% Concl.]]))/100</f>
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="G5" s="46" t="n">
-        <v>0.6</v>
+        <v>0.75</v>
       </c>
       <c r="H5" s="47" t="n">
         <f aca="false">Estorias[[#This Row],[Pontos]]*Estorias[[#This Row],[% Concl.]]</f>
-        <v>1.2</v>
+        <v>1.5</v>
       </c>
       <c r="I5" s="48" t="s">
         <v>52</v>
@@ -4458,20 +4396,20 @@
       </c>
       <c r="F6" s="45" t="n">
         <f aca="false">Estorias[[#This Row],[Horas Totais]]*(100-(100*Estorias[[#This Row],[% Concl.]]))/100</f>
-        <v>10.5</v>
+        <v>6</v>
       </c>
       <c r="G6" s="46" t="n">
-        <v>0.65</v>
+        <v>0.8</v>
       </c>
       <c r="H6" s="47" t="n">
         <f aca="false">Estorias[[#This Row],[Pontos]]*Estorias[[#This Row],[% Concl.]]</f>
-        <v>1.95</v>
+        <v>2.4</v>
       </c>
       <c r="I6" s="48" t="s">
         <v>52</v>
       </c>
       <c r="J6" s="49" t="s">
-        <v>15</v>
+        <v>7</v>
       </c>
     </row>
     <row r="7" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4489,26 +4427,28 @@
       </c>
       <c r="F7" s="45" t="n">
         <f aca="false">Estorias[[#This Row],[Horas Totais]]*(100-(100*Estorias[[#This Row],[% Concl.]]))/100</f>
-        <v>14</v>
+        <v>8</v>
       </c>
       <c r="G7" s="46" t="n">
-        <v>0.3</v>
+        <v>0.6</v>
       </c>
       <c r="H7" s="47" t="n">
         <f aca="false">Estorias[[#This Row],[Pontos]]*Estorias[[#This Row],[% Concl.]]</f>
-        <v>0.6</v>
+        <v>1.2</v>
       </c>
       <c r="I7" s="48" t="s">
+        <v>52</v>
+      </c>
+      <c r="J7" s="49" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="8" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B8" s="43" t="s">
         <v>57</v>
       </c>
-      <c r="J7" s="49"/>
-    </row>
-    <row r="8" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B8" s="43" t="s">
+      <c r="C8" s="44" t="s">
         <v>58</v>
-      </c>
-      <c r="C8" s="44" t="s">
-        <v>59</v>
       </c>
       <c r="D8" s="50" t="n">
         <v>1</v>
@@ -4528,7 +4468,7 @@
         <v>0</v>
       </c>
       <c r="I8" s="48" t="s">
-        <v>57</v>
+        <v>59</v>
       </c>
       <c r="J8" s="49"/>
     </row>
@@ -4547,14 +4487,14 @@
       </c>
       <c r="F9" s="45" t="n">
         <f aca="false">Estorias[[#This Row],[Horas Totais]]*(100-(100*Estorias[[#This Row],[% Concl.]]))/100</f>
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="G9" s="46" t="n">
-        <v>0.9</v>
+        <v>1</v>
       </c>
       <c r="H9" s="47" t="n">
         <f aca="false">Estorias[[#This Row],[Pontos]]*Estorias[[#This Row],[% Concl.]]</f>
-        <v>1.8</v>
+        <v>2</v>
       </c>
       <c r="I9" s="48" t="s">
         <v>52</v>
@@ -4563,7 +4503,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="10" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="10" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B10" s="43" t="s">
         <v>62</v>
       </c>
@@ -4685,8 +4625,8 @@
   </sheetPr>
   <dimension ref="A1:AA15"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="false" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="F1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="H6" activeCellId="0" sqref="H6"/>
+    <sheetView showFormulas="false" showGridLines="false" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="B1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="N20" activeCellId="0" sqref="N20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -4947,19 +4887,19 @@
       </c>
       <c r="H6" s="66" t="n">
         <f aca="false">IF(Burndown[[#This Row],[Produzido Real]]="",NA(),(Burndown[[#This Row],[Restante Real]]+Burndown[[#This Row],[Ajuste]])-Burndown[[#This Row],[Restante Previsto]])</f>
-        <v>-0.15</v>
+        <v>0.449999999999999</v>
       </c>
       <c r="I6" s="66" t="n">
-        <v>5.75</v>
+        <v>5.15</v>
       </c>
       <c r="J6" s="66"/>
       <c r="K6" s="66" t="n">
         <f aca="false">TamanhoSprint-Burndown[[#This Row],[Produzido Real]]</f>
-        <v>6.25</v>
+        <v>6.85</v>
       </c>
       <c r="L6" s="66" t="n">
         <f aca="false">IF(Burndown[[#This Row],[Produzido Real]]&lt;&gt;"",Burndown[[#This Row],[Restante Real]]+Burndown[[#This Row],[Ajuste]],NA())</f>
-        <v>6.25</v>
+        <v>6.85</v>
       </c>
     </row>
     <row r="7" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -5340,7 +5280,7 @@
   <dimension ref="B1:H12"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="false" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="H7" activeCellId="0" sqref="H7"/>
+      <selection pane="topLeft" activeCell="N11" activeCellId="0" sqref="N11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -5369,7 +5309,7 @@
         <v>55</v>
       </c>
       <c r="F2" s="75" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="G2" s="75" t="s">
         <v>60</v>
@@ -5724,8 +5664,8 @@
   </sheetPr>
   <dimension ref="A1:F10"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="F9" activeCellId="0" sqref="F9"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="D12" activeCellId="0" sqref="D12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -5836,7 +5776,7 @@
         <v>43693</v>
       </c>
       <c r="C9" s="112" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D9" s="114" t="s">
         <v>99</v>
@@ -5873,7 +5813,7 @@
   <dimension ref="B2:P8"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="B10" activeCellId="0" sqref="B10"/>
+      <selection pane="topLeft" activeCell="A6" activeCellId="0" sqref="A6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -6084,10 +6024,10 @@
     </row>
     <row r="6" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B6" s="44" t="s">
+        <v>57</v>
+      </c>
+      <c r="C6" s="44" t="s">
         <v>58</v>
-      </c>
-      <c r="C6" s="44" t="s">
-        <v>59</v>
       </c>
       <c r="D6" s="50" t="n">
         <v>1</v>
